--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
-    <sheet name="Salary" sheetId="2" r:id="rId5"/>
+    <sheet name="Income" sheetId="2" r:id="rId5"/>
     <sheet name="fond privat" sheetId="3" r:id="rId6"/>
     <sheet name="Statistics" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>private</t>
   </si>
@@ -137,28 +137,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Salary</t>
+    <t>Income</t>
   </si>
   <si>
-    <t>salary</t>
+    <t>income</t>
   </si>
   <si>
     <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">SalaryNormal: 480000Normal: 180000 Asset rule </t>
+    <t xml:space="preserve">IncomeNormal: 480000Normal: 180000 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 480000Using previous value: 180000 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 180000 Asset rule </t>
   </si>
   <si>
     <t xml:space="preserve">Pensioned, no more salary from hereFixed number override = detected: 0Using previous value: 180000 Asset rule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using previous value: 180000 Asset rule </t>
   </si>
   <si>
     <t>fond privat</t>
@@ -167,86 +164,86 @@
     <t>fond</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 100000</t>
+    <t>Using previous value: 0 Asset rule Normal: 100000</t>
   </si>
   <si>
-    <t xml:space="preserve">Uttak fra 2037, -1/20 Asset rule -1/19Adding divisor rule: -1/19 transfer diff 5 000,00 to salary.2037.income.amount
+    <t xml:space="preserve">Using previous value: 0Uttak fra 2037, -1/20 Asset rule -1/19Adding divisor rule: -1/19 transfer diff 5 000,00 to income.2037.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/18Adding previous divisor rule: -1/18 transfer diff 5 000,00 to salary.2038.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/18Error rule: -1/18 transfer diff 5 000,00 to income.2038.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/17Adding previous divisor rule: -1/17 transfer diff 5 000,00 to salary.2039.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/17Error rule: -1/17 transfer diff 5 000,00 to income.2039.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/16Adding previous divisor rule: -1/16 transfer diff 5 000,00 to salary.2040.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/16Error rule: -1/16 transfer diff 5 000,00 to income.2040.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/15Adding previous divisor rule: -1/15 transfer diff 5 000,00 to salary.2041.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/15Error rule: -1/15 transfer diff 5 000,00 to income.2041.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/14Adding previous divisor rule: -1/14 transfer diff 5 000,00 to salary.2042.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/14Error rule: -1/14 transfer diff 5 000,00 to income.2042.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/13Adding previous divisor rule: -1/13 transfer diff 5 000,00 to salary.2043.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/13Error rule: -1/13 transfer diff 5 000,00 to income.2043.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/12Adding previous divisor rule: -1/12 transfer diff 5 000,00 to salary.2044.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/12Error rule: -1/12 transfer diff 5 000,00 to income.2044.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/11Adding previous divisor rule: -1/11 transfer diff 5 000,00 to salary.2045.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/11Error rule: -1/11 transfer diff 5 000,00 to income.2045.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/10Adding previous divisor rule: -1/10 transfer diff 5 000,00 to salary.2046.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/10Error rule: -1/10 transfer diff 5 000,00 to income.2046.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/9Adding previous divisor rule: -1/9 transfer diff 5 000,00 to salary.2047.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/9Error rule: -1/9 transfer diff 5 000,00 to income.2047.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/8Adding previous divisor rule: -1/8 transfer diff 5 000,00 to salary.2048.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/8Error rule: -1/8 transfer diff 5 000,00 to income.2048.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/7Adding previous divisor rule: -1/7 transfer diff 5 000,00 to salary.2049.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/7Error rule: -1/7 transfer diff 5 000,00 to income.2049.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/6Adding previous divisor rule: -1/6 transfer diff 5 000,00 to salary.2050.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/6Error rule: -1/6 transfer diff 5 000,00 to income.2050.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/5Adding previous divisor rule: -1/5 transfer diff 5 000,00 to salary.2051.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/5Error rule: -1/5 transfer diff 5 000,00 to income.2051.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/4Adding previous divisor rule: -1/4 transfer diff 5 000,00 to salary.2052.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/4Error rule: -1/4 transfer diff 5 000,00 to income.2052.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/3Adding previous divisor rule: -1/3 transfer diff 5 000,00 to salary.2053.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/3Error rule: -1/3 transfer diff 5 000,00 to income.2053.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/2Adding previous divisor rule: -1/2 transfer diff 5 000,00 to salary.2054.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/2Error rule: -1/2 transfer diff 5 000,00 to income.2054.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/1Adding previous divisor rule: -1/1 transfer diff 5 000,00 to salary.2055.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/1Error rule: -1/1 transfer diff 5 000,00 to income.2055.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Adding previous divisor rule:  transfer diff 5 000,00 to salary.2056.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule Error rule:  transfer diff 5 000,00 to income.2056.income.amount
 </t>
   </si>
   <si>
@@ -665,7 +662,7 @@
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -3155,7 +3152,7 @@
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="1">
@@ -3173,7 +3170,7 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>60000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V38" s="1">
         <v>0.0</v>
@@ -3192,10 +3189,10 @@
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>60000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC38" s="2">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="AD38"/>
     </row>
@@ -3207,7 +3204,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
@@ -3229,7 +3226,7 @@
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="8">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N39" s="9"/>
       <c r="O39" s="8">
@@ -3249,29 +3246,29 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="8">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V39" s="8">
         <v>100000.0</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="8">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y39" s="8">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="8">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA39" s="7">
         <v>0.0</v>
       </c>
       <c r="AB39" s="7">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC39" s="9">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD39" s="7"/>
     </row>
@@ -3283,7 +3280,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
@@ -3305,7 +3302,7 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
@@ -3325,29 +3322,29 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V40" s="11">
         <v>100000.0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="11">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="11">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3359,7 +3356,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
@@ -3381,7 +3378,7 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
@@ -3401,29 +3398,29 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V41" s="1">
         <v>100000.0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3435,7 +3432,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
@@ -3457,7 +3454,7 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
@@ -3477,29 +3474,29 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V42" s="1">
         <v>100000.0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3511,7 +3508,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
@@ -3533,7 +3530,7 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
@@ -3553,29 +3550,29 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V43" s="1">
         <v>100000.0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3587,7 +3584,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -3609,7 +3606,7 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
@@ -3629,29 +3626,29 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V44" s="1">
         <v>100000.0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y44" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3663,7 +3660,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -3685,7 +3682,7 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
@@ -3705,29 +3702,29 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V45" s="1">
         <v>100000.0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3739,7 +3736,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -3761,7 +3758,7 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
@@ -3781,29 +3778,29 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V46" s="1">
         <v>100000.0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3815,7 +3812,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -3837,7 +3834,7 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
@@ -3857,29 +3854,29 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V47" s="1">
         <v>100000.0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y47" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -3891,7 +3888,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -3913,7 +3910,7 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
@@ -3933,29 +3930,29 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V48" s="1">
         <v>100000.0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y48" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -3967,7 +3964,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -3989,7 +3986,7 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
@@ -4009,29 +4006,29 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V49" s="1">
         <v>100000.0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y49" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4043,7 +4040,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -4065,7 +4062,7 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
@@ -4085,29 +4082,29 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V50" s="1">
         <v>100000.0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y50" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4119,7 +4116,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -4141,7 +4138,7 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
@@ -4161,29 +4158,29 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V51" s="1">
         <v>100000.0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y51" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4195,7 +4192,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -4217,7 +4214,7 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>-240000.0</v>
+        <v>0.0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
@@ -4237,29 +4234,29 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>59200.0</v>
+        <v>-180800.0</v>
       </c>
       <c r="V52" s="1">
         <v>100000.0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y52" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>64000.0</v>
+        <v>-176000.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.13223140495868</v>
+        <v>-44.0</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -6044,7 +6041,7 @@
     <col min="10" max="10" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -6224,15 +6221,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="1">
         <v>0.0</v>
       </c>
-      <c r="N6" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
@@ -6241,7 +6234,7 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -6292,15 +6285,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="1">
         <v>0.0</v>
       </c>
-      <c r="N7" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
@@ -6309,7 +6298,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -6360,15 +6349,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="1">
         <v>0.0</v>
       </c>
-      <c r="N8" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
@@ -6377,7 +6362,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -6428,15 +6413,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="1">
         <v>0.0</v>
       </c>
-      <c r="N9" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
@@ -6445,7 +6426,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -6496,15 +6477,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="1">
         <v>0.0</v>
       </c>
-      <c r="N10" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
@@ -6513,7 +6490,7 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -6564,15 +6541,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="1">
         <v>0.0</v>
       </c>
-      <c r="N11" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
@@ -6581,7 +6554,7 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -6632,15 +6605,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="1">
         <v>0.0</v>
       </c>
-      <c r="N12" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
@@ -6649,7 +6618,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -6700,15 +6669,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="1">
         <v>0.0</v>
       </c>
-      <c r="N13" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
@@ -6717,7 +6682,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -6768,15 +6733,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="1">
         <v>0.0</v>
       </c>
-      <c r="N14" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -6785,7 +6746,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -6836,15 +6797,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="1">
         <v>0.0</v>
       </c>
-      <c r="N15" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
@@ -6853,7 +6810,7 @@
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -6904,15 +6861,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="1">
         <v>0.0</v>
       </c>
-      <c r="N16" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
@@ -6921,7 +6874,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -6972,15 +6925,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="1">
         <v>0.0</v>
       </c>
-      <c r="N17" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
@@ -6989,7 +6938,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -7040,15 +6989,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="1">
         <v>0.0</v>
       </c>
-      <c r="N18" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
@@ -7057,7 +7002,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -7108,15 +7053,11 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="1">
         <v>0.0</v>
       </c>
-      <c r="N19" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
@@ -7125,7 +7066,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -7176,15 +7117,11 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L20" s="2"/>
       <c r="M20" s="1">
         <v>0.0</v>
       </c>
-      <c r="N20" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
@@ -7193,7 +7130,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -7244,15 +7181,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="1">
         <v>0.0</v>
       </c>
-      <c r="N21" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
@@ -7261,7 +7194,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -7312,15 +7245,11 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L22" s="2"/>
       <c r="M22" s="1">
         <v>0.0</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
@@ -7329,7 +7258,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -7380,15 +7309,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="1">
         <v>0.0</v>
       </c>
-      <c r="N23" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
@@ -7397,7 +7322,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -7448,15 +7373,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="1">
         <v>0.0</v>
       </c>
-      <c r="N24" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
@@ -7465,7 +7386,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -7516,15 +7437,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="1">
         <v>0.0</v>
       </c>
-      <c r="N25" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
@@ -7533,7 +7450,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -7584,15 +7501,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="1">
         <v>0.0</v>
       </c>
-      <c r="N26" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
@@ -7601,7 +7514,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -7652,15 +7565,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="1">
         <v>0.0</v>
       </c>
-      <c r="N27" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -7669,7 +7578,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -7720,15 +7629,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="1">
         <v>0.0</v>
       </c>
-      <c r="N28" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
@@ -7737,7 +7642,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -7788,15 +7693,11 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="1">
         <v>0.0</v>
       </c>
-      <c r="N29" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
@@ -7805,7 +7706,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -7856,15 +7757,11 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L30" s="2"/>
       <c r="M30" s="1">
         <v>0.0</v>
       </c>
-      <c r="N30" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
@@ -7873,7 +7770,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -7924,15 +7821,11 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="1">
         <v>0.0</v>
       </c>
-      <c r="N31" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
@@ -7941,7 +7834,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -7992,15 +7885,11 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L32" s="2"/>
       <c r="M32" s="1">
         <v>0.0</v>
       </c>
-      <c r="N32" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
@@ -8009,7 +7898,7 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -8060,15 +7949,11 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="1">
         <v>0.0</v>
       </c>
-      <c r="N33" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
@@ -8077,7 +7962,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -8128,15 +8013,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="1">
         <v>0.0</v>
       </c>
-      <c r="N34" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
@@ -8145,7 +8026,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -8196,15 +8077,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="1">
         <v>0.0</v>
       </c>
-      <c r="N35" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
@@ -8213,7 +8090,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -8264,15 +8141,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L36" s="2"/>
       <c r="M36" s="1">
         <v>0.0</v>
       </c>
-      <c r="N36" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
@@ -8281,7 +8154,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -8332,15 +8205,11 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="1">
         <v>0.0</v>
       </c>
-      <c r="N37" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
@@ -8349,7 +8218,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -8400,15 +8269,11 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L38" s="2"/>
       <c r="M38" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="1">
         <v>0</v>
       </c>
@@ -8417,14 +8282,14 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="1">
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>60000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V38" s="1">
         <v>0.0</v>
@@ -8441,7 +8306,7 @@
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>60000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
@@ -8456,7 +8321,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
@@ -8468,15 +8333,11 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="L39" s="9"/>
       <c r="M39" s="8">
-        <v>-240000.0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="9"/>
       <c r="O39" s="8">
         <v>0</v>
       </c>
@@ -8485,31 +8346,31 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="9"/>
       <c r="T39" s="8">
         <v>0.0</v>
       </c>
       <c r="U39" s="8">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V39" s="8">
         <v>0.0</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="8">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y39" s="8">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="7">
         <v>0.0</v>
       </c>
       <c r="AB39" s="7">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC39" s="9"/>
       <c r="AD39" s="7" t="s">
@@ -8524,7 +8385,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
@@ -8536,15 +8397,11 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="12">
-        <v>0.5</v>
-      </c>
+      <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-240000.0</v>
-      </c>
-      <c r="N40" s="12">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
@@ -8553,31 +8410,31 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="11">
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V40" s="11">
         <v>0.0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="11">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
@@ -8592,7 +8449,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
@@ -8604,15 +8461,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
@@ -8621,31 +8474,31 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="1">
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V41" s="1">
         <v>0.0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
@@ -8660,7 +8513,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
@@ -8672,15 +8525,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
@@ -8689,31 +8538,31 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="1">
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V42" s="1">
         <v>0.0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
@@ -8728,7 +8577,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
@@ -8740,15 +8589,11 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
@@ -8757,31 +8602,31 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="1">
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V43" s="1">
         <v>0.0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
@@ -8796,7 +8641,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -8808,15 +8653,11 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
@@ -8825,31 +8666,31 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="1">
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V44" s="1">
         <v>0.0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y44" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
@@ -8864,7 +8705,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -8876,15 +8717,11 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
@@ -8893,31 +8730,31 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="1">
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V45" s="1">
         <v>0.0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
@@ -8932,7 +8769,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -8944,15 +8781,11 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
@@ -8961,31 +8794,31 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="1">
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V46" s="1">
         <v>0.0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
@@ -9000,7 +8833,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -9012,15 +8845,11 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
@@ -9029,31 +8858,31 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="1">
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V47" s="1">
         <v>0.0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y47" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
@@ -9068,7 +8897,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -9080,15 +8909,11 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
@@ -9097,31 +8922,31 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="1">
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V48" s="1">
         <v>0.0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y48" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
@@ -9136,7 +8961,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -9148,15 +8973,11 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
@@ -9165,31 +8986,31 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="1">
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V49" s="1">
         <v>0.0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y49" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
@@ -9204,7 +9025,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -9216,15 +9037,11 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
@@ -9233,31 +9050,31 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="1">
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V50" s="1">
         <v>0.0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y50" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
@@ -9272,7 +9089,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -9284,15 +9101,11 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
@@ -9301,31 +9114,31 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="1">
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V51" s="1">
         <v>0.0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y51" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
@@ -9340,7 +9153,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -9352,15 +9165,11 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
@@ -9369,31 +9178,31 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="1">
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V52" s="1">
         <v>0.0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>480000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y52" s="1">
-        <v>2400000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>60000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
@@ -9420,15 +9229,11 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
-      <c r="L53" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="L53" s="14"/>
       <c r="M53" s="13">
         <v>0.0</v>
       </c>
-      <c r="N53" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
@@ -9437,7 +9242,7 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="13">
@@ -9488,15 +9293,11 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L54" s="2"/>
       <c r="M54" s="1">
         <v>0.0</v>
       </c>
-      <c r="N54" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
@@ -9505,7 +9306,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="1">
@@ -9533,7 +9334,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9556,15 +9357,11 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L55" s="2"/>
       <c r="M55" s="1">
         <v>0.0</v>
       </c>
-      <c r="N55" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
@@ -9573,7 +9370,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="1">
@@ -9601,7 +9398,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9624,15 +9421,11 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L56" s="2"/>
       <c r="M56" s="1">
         <v>0.0</v>
       </c>
-      <c r="N56" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
@@ -9641,7 +9434,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="1">
@@ -9669,7 +9462,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9692,15 +9485,11 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-      <c r="L57" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="L57" s="14"/>
       <c r="M57" s="13">
         <v>0.0</v>
       </c>
-      <c r="N57" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
@@ -9709,7 +9498,7 @@
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="13">
@@ -9737,7 +9526,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9760,15 +9549,11 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L58" s="2"/>
       <c r="M58" s="1">
         <v>0.0</v>
       </c>
-      <c r="N58" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
@@ -9777,7 +9562,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="1">
@@ -9805,7 +9590,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9828,15 +9613,11 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L59" s="2"/>
       <c r="M59" s="1">
         <v>0.0</v>
       </c>
-      <c r="N59" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -9845,7 +9626,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="1">
@@ -9873,7 +9654,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9896,15 +9677,11 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L60" s="2"/>
       <c r="M60" s="1">
         <v>0.0</v>
       </c>
-      <c r="N60" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
@@ -9913,7 +9690,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="1">
@@ -9941,7 +9718,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9964,15 +9741,11 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="1">
         <v>0.0</v>
       </c>
-      <c r="N61" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
@@ -9981,7 +9754,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="1">
@@ -10009,7 +9782,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -10032,15 +9805,11 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="1">
         <v>0.0</v>
       </c>
-      <c r="N62" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
@@ -10049,7 +9818,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="1">
@@ -10077,7 +9846,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10100,15 +9869,11 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L63" s="2"/>
       <c r="M63" s="1">
         <v>0.0</v>
       </c>
-      <c r="N63" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
@@ -10117,7 +9882,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="1">
@@ -10145,7 +9910,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10168,15 +9933,11 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="1">
         <v>0.0</v>
       </c>
-      <c r="N64" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
@@ -10185,7 +9946,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="1">
@@ -10213,7 +9974,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10236,15 +9997,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="1">
         <v>0.0</v>
       </c>
-      <c r="N65" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
@@ -10253,7 +10010,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="1">
@@ -10281,7 +10038,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10304,15 +10061,11 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L66" s="2"/>
       <c r="M66" s="1">
         <v>0.0</v>
       </c>
-      <c r="N66" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
@@ -10321,7 +10074,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="1">
@@ -10349,7 +10102,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10372,15 +10125,11 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L67" s="2"/>
       <c r="M67" s="1">
         <v>0.0</v>
       </c>
-      <c r="N67" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
@@ -10389,7 +10138,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="1">
@@ -10417,7 +10166,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10440,15 +10189,11 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L68" s="2"/>
       <c r="M68" s="1">
         <v>0.0</v>
       </c>
-      <c r="N68" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
@@ -10457,7 +10202,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="1">
@@ -10485,7 +10230,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10508,15 +10253,11 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L69" s="2"/>
       <c r="M69" s="1">
         <v>0.0</v>
       </c>
-      <c r="N69" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
@@ -10525,7 +10266,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="1">
@@ -10553,7 +10294,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10576,15 +10317,11 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L70" s="2"/>
       <c r="M70" s="1">
         <v>0.0</v>
       </c>
-      <c r="N70" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
@@ -10593,7 +10330,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="1">
@@ -10621,7 +10358,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10644,15 +10381,11 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L71" s="2"/>
       <c r="M71" s="1">
         <v>0.0</v>
       </c>
-      <c r="N71" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
@@ -10661,7 +10394,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="1">
@@ -10689,7 +10422,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10712,15 +10445,11 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16">
-        <v>0.5</v>
-      </c>
+      <c r="L72" s="16"/>
       <c r="M72" s="5">
         <v>0.0</v>
       </c>
-      <c r="N72" s="16">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
@@ -10729,7 +10458,7 @@
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -10757,7 +10486,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -11043,7 +10772,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -11051,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -11063,7 +10792,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -13358,7 +13087,7 @@
       </c>
       <c r="AC39" s="9"/>
       <c r="AD39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -13424,7 +13153,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -13490,7 +13219,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -13556,7 +13285,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -13622,7 +13351,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -13688,7 +13417,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -13754,7 +13483,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -13820,7 +13549,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -13886,7 +13615,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -13952,7 +13681,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -14018,7 +13747,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -14084,7 +13813,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -14150,7 +13879,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -14216,7 +13945,7 @@
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -14282,7 +14011,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -14348,7 +14077,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -14414,7 +14143,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -14480,7 +14209,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -14546,7 +14275,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -14612,7 +14341,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -14678,7 +14407,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -14744,7 +14473,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -14810,7 +14539,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -14876,7 +14605,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -14942,7 +14671,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -15008,7 +14737,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -15074,7 +14803,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15140,7 +14869,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15206,7 +14935,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -15272,7 +15001,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -15338,7 +15067,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -15404,7 +15133,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -15470,7 +15199,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -15534,7 +15263,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -15792,10 +15521,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>private</t>
   </si>
@@ -143,13 +143,19 @@
     <t>income</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule </t>
   </si>
   <si>
     <t xml:space="preserve">Income Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Pensioned, no more salary from hereFixed number override =0 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 40000Using previous value: 15000 Asset rule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensioned, no more salary from hereFixed number override =0Using previous value: 15000 Asset rule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 15000 Asset rule </t>
   </si>
   <si>
     <t>fond privat</t>
@@ -158,83 +164,83 @@
     <t>fond</t>
   </si>
   <si>
-    <t xml:space="preserve">Uttak fra 2068, -1/20 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/19 transfer 5000 to income.2068.income.amount with -1/20 reduce fond.2068
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0Uttak fra 2068, -1/20 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/19 transfer 5000 to income.2068.income.amount with -1/20 reduce fond.2068
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/18 transfer 5000 to income.2069.income.amount with -1/19 reduce fond.2069
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/18 transfer 5000 to income.2069.income.amount with -1/19 reduce fond.2069
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/17 transfer 5000 to income.2070.income.amount with -1/18 reduce fond.2070
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/17 transfer 5000 to income.2070.income.amount with -1/18 reduce fond.2070
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/16 transfer 5000 to income.2071.income.amount with -1/17 reduce fond.2071
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/16 transfer 5000 to income.2071.income.amount with -1/17 reduce fond.2071
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/15 transfer 5000 to income.2072.income.amount with -1/16 reduce fond.2072
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/15 transfer 5000 to income.2072.income.amount with -1/16 reduce fond.2072
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/14 transfer 5000 to income.2073.income.amount with -1/15 reduce fond.2073
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/14 transfer 5000 to income.2073.income.amount with -1/15 reduce fond.2073
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/13 transfer 5000 to income.2074.income.amount with -1/14 reduce fond.2074
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/13 transfer 5000 to income.2074.income.amount with -1/14 reduce fond.2074
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/12 transfer 5000 to income.2075.income.amount with -1/13 reduce fond.2075
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/12 transfer 5000 to income.2075.income.amount with -1/13 reduce fond.2075
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/11 transfer 5000 to income.2076.income.amount with -1/12 reduce fond.2076
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/11 transfer 5000 to income.2076.income.amount with -1/12 reduce fond.2076
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/10 transfer 5000 to income.2077.income.amount with -1/11 reduce fond.2077
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/10 transfer 5000 to income.2077.income.amount with -1/11 reduce fond.2077
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/9 transfer 5000 to income.2078.income.amount with -1/10 reduce fond.2078
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/9 transfer 5000 to income.2078.income.amount with -1/10 reduce fond.2078
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/8 transfer 5000 to income.2079.income.amount with -1/9 reduce fond.2079
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/8 transfer 5000 to income.2079.income.amount with -1/9 reduce fond.2079
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/7 transfer 5000 to income.2080.income.amount with -1/8 reduce fond.2080
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/7 transfer 5000 to income.2080.income.amount with -1/8 reduce fond.2080
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/6 transfer 5000 to income.2081.income.amount with -1/7 reduce fond.2081
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/6 transfer 5000 to income.2081.income.amount with -1/7 reduce fond.2081
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/5 transfer 5000 to income.2082.income.amount with -1/6 reduce fond.2082
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/5 transfer 5000 to income.2082.income.amount with -1/6 reduce fond.2082
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/4 transfer 5000 to income.2083.income.amount with -1/5 reduce fond.2083
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/4 transfer 5000 to income.2083.income.amount with -1/5 reduce fond.2083
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/3 transfer 5000 to income.2084.income.amount with -1/4 reduce fond.2084
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/3 transfer 5000 to income.2084.income.amount with -1/4 reduce fond.2084
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/2 transfer 5000 to income.2085.income.amount with -1/3 reduce fond.2085
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/2 transfer 5000 to income.2085.income.amount with -1/3 reduce fond.2085
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule: -1/1 transfer 5000 to income.2086.income.amount with -1/2 reduce fond.2086
+    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/1 transfer 5000 to income.2086.income.amount with -1/2 reduce fond.2086
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule divisorValue: 5000, Adjusted divisor rule:  transfer 5000 to income.2087.income.amount with -1/1</t>
+    <t>Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule:  transfer 5000 to income.2087.income.amount with -1/1</t>
   </si>
   <si>
     <t>total</t>
@@ -962,11 +968,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8">
@@ -1004,29 +1010,29 @@
         <v>0.0</v>
       </c>
       <c r="U8" s="8">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V8" s="8">
         <v>100000</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="8">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y8" s="8">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z8" s="8">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA8" s="7">
         <v>0.0</v>
       </c>
       <c r="AB8" s="7">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC8" s="9">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD8" s="7"/>
     </row>
@@ -1038,11 +1044,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1080,29 +1086,29 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V9" s="1">
         <v>100000</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC9" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD9"/>
     </row>
@@ -1114,11 +1120,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1156,29 +1162,29 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V10" s="1">
         <v>100000</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA10">
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC10" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD10"/>
     </row>
@@ -1190,11 +1196,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1232,29 +1238,29 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V11" s="1">
         <v>100000</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA11">
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC11" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD11"/>
     </row>
@@ -1266,11 +1272,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1308,29 +1314,29 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V12" s="1">
         <v>100000</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z12" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA12">
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC12" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD12"/>
     </row>
@@ -1342,11 +1348,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1384,29 +1390,29 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V13" s="1">
         <v>100000</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA13">
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC13" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD13"/>
     </row>
@@ -1418,11 +1424,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1460,29 +1466,29 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V14" s="1">
         <v>100000</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA14">
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC14" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD14"/>
     </row>
@@ -1494,11 +1500,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1536,29 +1542,29 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V15" s="1">
         <v>100000</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA15">
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC15" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD15"/>
     </row>
@@ -1570,11 +1576,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1612,29 +1618,29 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V16" s="1">
         <v>100000</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA16">
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC16" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD16"/>
     </row>
@@ -1646,11 +1652,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1688,29 +1694,29 @@
         <v>0.0</v>
       </c>
       <c r="U17" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V17" s="1">
         <v>100000</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z17" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA17">
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC17" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD17"/>
     </row>
@@ -1722,11 +1728,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1764,29 +1770,29 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V18" s="1">
         <v>100000</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z18" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA18">
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC18" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD18"/>
     </row>
@@ -1798,11 +1804,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1840,29 +1846,29 @@
         <v>0.0</v>
       </c>
       <c r="U19" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V19" s="1">
         <v>100000</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z19" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA19">
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC19" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD19"/>
     </row>
@@ -1874,11 +1880,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1916,29 +1922,29 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V20" s="1">
         <v>100000</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA20">
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC20" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD20"/>
     </row>
@@ -1950,11 +1956,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -1992,29 +1998,29 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V21" s="1">
         <v>100000</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z21" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA21">
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC21" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD21"/>
     </row>
@@ -2026,11 +2032,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -2068,29 +2074,29 @@
         <v>0.0</v>
       </c>
       <c r="U22" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V22" s="1">
         <v>100000</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z22" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA22">
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC22" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD22"/>
     </row>
@@ -2102,11 +2108,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2144,29 +2150,29 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V23" s="1">
         <v>100000</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z23" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC23" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD23"/>
     </row>
@@ -2178,11 +2184,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2220,29 +2226,29 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V24" s="1">
         <v>100000</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z24" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA24">
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC24" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD24"/>
     </row>
@@ -2254,11 +2260,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2296,29 +2302,29 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V25" s="1">
         <v>100000</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA25">
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC25" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD25"/>
     </row>
@@ -2330,11 +2336,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2372,29 +2378,29 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V26" s="1">
         <v>100000</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z26" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC26" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD26"/>
     </row>
@@ -2406,11 +2412,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2448,29 +2454,29 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V27" s="1">
         <v>100000</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z27" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC27" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD27"/>
     </row>
@@ -2482,11 +2488,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2524,29 +2530,29 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V28" s="1">
         <v>100000</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z28" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA28">
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC28" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD28"/>
     </row>
@@ -2558,11 +2564,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2600,29 +2606,29 @@
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V29" s="1">
         <v>100000</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z29" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA29">
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC29" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD29"/>
     </row>
@@ -2634,11 +2640,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2676,29 +2682,29 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V30" s="1">
         <v>100000</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z30" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA30">
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC30" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD30"/>
     </row>
@@ -2710,11 +2716,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2752,29 +2758,29 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V31" s="1">
         <v>100000</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z31" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC31" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD31"/>
     </row>
@@ -2786,11 +2792,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2828,29 +2834,29 @@
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V32" s="1">
         <v>100000</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z32" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA32">
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC32" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD32"/>
     </row>
@@ -2862,11 +2868,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2904,29 +2910,29 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V33" s="1">
         <v>100000</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z33" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA33">
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC33" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD33"/>
     </row>
@@ -2938,11 +2944,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -2980,29 +2986,29 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V34" s="1">
         <v>100000</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z34" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC34" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD34"/>
     </row>
@@ -3014,11 +3020,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -3056,29 +3062,29 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V35" s="1">
         <v>100000</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z35" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC35" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD35"/>
     </row>
@@ -3090,11 +3096,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3132,29 +3138,29 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V36" s="1">
         <v>100000</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z36" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC36" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD36"/>
     </row>
@@ -3166,11 +3172,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3208,29 +3214,29 @@
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V37" s="1">
         <v>100000</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z37" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC37" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD37"/>
     </row>
@@ -3242,11 +3248,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3284,29 +3290,29 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V38" s="1">
         <v>100000</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z38" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA38">
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC38" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD38"/>
     </row>
@@ -3318,11 +3324,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3360,29 +3366,29 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V39" s="1">
         <v>100000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z39" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3394,11 +3400,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3436,29 +3442,29 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V40" s="11">
         <v>100000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y40" s="11">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z40" s="11">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3470,11 +3476,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3512,29 +3518,29 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V41" s="1">
         <v>100000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z41" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3546,11 +3552,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3588,29 +3594,29 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V42" s="1">
         <v>100000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z42" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3622,11 +3628,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3664,29 +3670,29 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V43" s="1">
         <v>100000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z43" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3698,11 +3704,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3740,29 +3746,29 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V44" s="1">
         <v>100000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z44" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3774,11 +3780,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3816,29 +3822,29 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V45" s="1">
         <v>100000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z45" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3850,11 +3856,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3892,29 +3898,29 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V46" s="1">
         <v>100000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z46" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3926,11 +3932,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -3968,29 +3974,29 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V47" s="1">
         <v>100000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z47" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -4002,11 +4008,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4044,29 +4050,29 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V48" s="1">
         <v>100000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z48" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4078,11 +4084,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4120,29 +4126,29 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V49" s="1">
         <v>100000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z49" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4154,11 +4160,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4196,29 +4202,29 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V50" s="1">
         <v>100000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z50" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4230,11 +4236,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4272,29 +4278,29 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V51" s="1">
         <v>100000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z51" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4306,11 +4312,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4348,29 +4354,29 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>-800.0</v>
+        <v>24200.0</v>
       </c>
       <c r="V52" s="1">
         <v>100000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z52" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>4000.0</v>
+        <v>29000.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>1.0</v>
+        <v>0.65909090909091</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4386,7 +4392,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4424,7 +4430,7 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-760.0</v>
+        <v>-15760.0</v>
       </c>
       <c r="V53" s="13">
         <v>95000.0</v>
@@ -4443,10 +4449,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>3800.0</v>
+        <v>-11200.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>1.0</v>
+        <v>-2.9473684210526</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4462,7 +4468,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4500,7 +4506,7 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-720.0</v>
+        <v>-15720.0</v>
       </c>
       <c r="V54" s="1">
         <v>90000.0</v>
@@ -4519,10 +4525,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>3600.0</v>
+        <v>-11400.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>1.0</v>
+        <v>-3.1666666666667</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4538,7 +4544,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4576,7 +4582,7 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-680.0</v>
+        <v>-15680.0</v>
       </c>
       <c r="V55" s="1">
         <v>85000.0</v>
@@ -4595,10 +4601,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>3400.0</v>
+        <v>-11600.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>1.0</v>
+        <v>-3.4117647058824</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4614,7 +4620,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4652,7 +4658,7 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-640.0</v>
+        <v>-15640.0</v>
       </c>
       <c r="V56" s="1">
         <v>80000.0</v>
@@ -4671,10 +4677,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>3200.0</v>
+        <v>-11800.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>1.0</v>
+        <v>-3.6875</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -4690,7 +4696,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4728,7 +4734,7 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-600.0</v>
+        <v>-15600.0</v>
       </c>
       <c r="V57" s="13">
         <v>75000.0</v>
@@ -4747,10 +4753,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>3000.0</v>
+        <v>-12000.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>1.0</v>
+        <v>-4.0</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -4766,7 +4772,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4804,7 +4810,7 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-560.0</v>
+        <v>-15560.0</v>
       </c>
       <c r="V58" s="1">
         <v>70000.0</v>
@@ -4823,10 +4829,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>2800.0</v>
+        <v>-12200.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>1.0</v>
+        <v>-4.3571428571429</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -4842,7 +4848,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4880,7 +4886,7 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-520.0</v>
+        <v>-15520.0</v>
       </c>
       <c r="V59" s="1">
         <v>65000.0</v>
@@ -4899,10 +4905,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>2600.0</v>
+        <v>-12400.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>1.0</v>
+        <v>-4.7692307692308</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -4918,7 +4924,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4956,7 +4962,7 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-480.0</v>
+        <v>-15480.0</v>
       </c>
       <c r="V60" s="1">
         <v>60000.0</v>
@@ -4975,10 +4981,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>2400.0</v>
+        <v>-12600.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>1.0</v>
+        <v>-5.25</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -4994,7 +5000,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5032,7 +5038,7 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-440.0</v>
+        <v>-15440.0</v>
       </c>
       <c r="V61" s="1">
         <v>55000.0</v>
@@ -5051,10 +5057,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>2200.0</v>
+        <v>-12800.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>1.0</v>
+        <v>-5.8181818181818</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5070,7 +5076,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5108,7 +5114,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-400.0</v>
+        <v>-15400.0</v>
       </c>
       <c r="V62" s="1">
         <v>50000.0</v>
@@ -5127,10 +5133,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>2000.0</v>
+        <v>-13000.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>1.0</v>
+        <v>-6.5</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5146,7 +5152,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5184,7 +5190,7 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-360.0</v>
+        <v>-15360.0</v>
       </c>
       <c r="V63" s="1">
         <v>45000.0</v>
@@ -5203,10 +5209,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>1800.0</v>
+        <v>-13200.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>1.0</v>
+        <v>-7.3333333333333</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5222,7 +5228,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5260,7 +5266,7 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-320.0</v>
+        <v>-15320.0</v>
       </c>
       <c r="V64" s="1">
         <v>40000.0</v>
@@ -5279,10 +5285,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>1600.0</v>
+        <v>-13400.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>1.0</v>
+        <v>-8.375</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5298,7 +5304,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5336,7 +5342,7 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-280.0</v>
+        <v>-15280.0</v>
       </c>
       <c r="V65" s="1">
         <v>35000.0</v>
@@ -5355,10 +5361,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>1400.0</v>
+        <v>-13600.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>1.0</v>
+        <v>-9.7142857142857</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5374,7 +5380,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5412,7 +5418,7 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-240.0</v>
+        <v>-15240.0</v>
       </c>
       <c r="V66" s="1">
         <v>30000.0</v>
@@ -5431,10 +5437,10 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>1200.0</v>
+        <v>-13800.0</v>
       </c>
       <c r="AC66" s="2">
-        <v>1.0</v>
+        <v>-11.5</v>
       </c>
       <c r="AD66"/>
     </row>
@@ -5450,7 +5456,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5488,7 +5494,7 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-200.0</v>
+        <v>-15200.0</v>
       </c>
       <c r="V67" s="1">
         <v>25000.0</v>
@@ -5507,10 +5513,10 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>1000.0</v>
+        <v>-14000.0</v>
       </c>
       <c r="AC67" s="2">
-        <v>1.0</v>
+        <v>-14.0</v>
       </c>
       <c r="AD67"/>
     </row>
@@ -5526,7 +5532,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5564,7 +5570,7 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-160.0</v>
+        <v>-15160.0</v>
       </c>
       <c r="V68" s="1">
         <v>20000.0</v>
@@ -5583,10 +5589,10 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>800.0</v>
+        <v>-14200.0</v>
       </c>
       <c r="AC68" s="2">
-        <v>1.0</v>
+        <v>-17.75</v>
       </c>
       <c r="AD68"/>
     </row>
@@ -5602,7 +5608,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5640,7 +5646,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-120.0</v>
+        <v>-15120.0</v>
       </c>
       <c r="V69" s="1">
         <v>15000.0</v>
@@ -5659,10 +5665,10 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>600.0</v>
+        <v>-14400.0</v>
       </c>
       <c r="AC69" s="2">
-        <v>1.0</v>
+        <v>-24.0</v>
       </c>
       <c r="AD69"/>
     </row>
@@ -5678,7 +5684,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5716,7 +5722,7 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-80.0</v>
+        <v>-15080.0</v>
       </c>
       <c r="V70" s="1">
         <v>10000.0</v>
@@ -5735,10 +5741,10 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>400.0</v>
+        <v>-14600.0</v>
       </c>
       <c r="AC70" s="2">
-        <v>1.0</v>
+        <v>-36.5</v>
       </c>
       <c r="AD70"/>
     </row>
@@ -5754,7 +5760,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5792,7 +5798,7 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-40.0</v>
+        <v>-15040.0</v>
       </c>
       <c r="V71" s="1">
         <v>5000.0</v>
@@ -5811,10 +5817,10 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>200.0</v>
+        <v>-14800.0</v>
       </c>
       <c r="AC71" s="2">
-        <v>1.0</v>
+        <v>-74.0</v>
       </c>
       <c r="AD71"/>
     </row>
@@ -5830,7 +5836,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5866,7 +5872,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V72" s="5">
         <v>0</v>
@@ -5885,7 +5891,7 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15"/>
@@ -6343,9 +6349,7 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
+      <c r="P6" s="6"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
         <v>0</v>
@@ -6357,9 +6361,7 @@
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
+      <c r="V6" s="1"/>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
         <v>0</v>
@@ -6451,11 +6453,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -6483,28 +6485,28 @@
         <v>0.0</v>
       </c>
       <c r="U8" s="8">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V8" s="8">
         <v>0</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="8">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y8" s="8">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="7">
         <v>0.0</v>
       </c>
       <c r="AB8" s="7">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6515,11 +6517,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6547,28 +6549,28 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9">
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6579,11 +6581,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6611,28 +6613,28 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10">
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6643,11 +6645,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6675,28 +6677,28 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11">
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6707,11 +6709,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6739,28 +6741,28 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12">
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6771,11 +6773,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6803,28 +6805,28 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13">
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6835,11 +6837,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6867,28 +6869,28 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6899,11 +6901,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6931,28 +6933,28 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15">
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6963,11 +6965,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -6995,28 +6997,28 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16">
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -7027,11 +7029,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -7059,28 +7061,28 @@
         <v>0.0</v>
       </c>
       <c r="U17" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17">
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -7091,11 +7093,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -7123,28 +7125,28 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18">
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7155,11 +7157,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -7187,28 +7189,28 @@
         <v>0.0</v>
       </c>
       <c r="U19" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19">
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7219,11 +7221,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7251,28 +7253,28 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20">
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7283,11 +7285,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7315,28 +7317,28 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V21" s="1">
         <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21">
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7347,11 +7349,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7379,28 +7381,28 @@
         <v>0.0</v>
       </c>
       <c r="U22" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V22" s="1">
         <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22">
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7411,11 +7413,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7443,28 +7445,28 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V23" s="1">
         <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7475,11 +7477,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7507,28 +7509,28 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V24" s="1">
         <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24">
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7539,11 +7541,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7571,28 +7573,28 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V25" s="1">
         <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25">
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7603,11 +7605,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7635,28 +7637,28 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V26" s="1">
         <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7667,11 +7669,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7699,28 +7701,28 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V27" s="1">
         <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7731,11 +7733,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7763,28 +7765,28 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V28" s="1">
         <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28">
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7795,11 +7797,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7827,28 +7829,28 @@
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V29" s="1">
         <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29">
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7859,11 +7861,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7891,28 +7893,28 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30">
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7923,11 +7925,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -7955,28 +7957,28 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V31" s="1">
         <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7987,11 +7989,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -8019,28 +8021,28 @@
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V32" s="1">
         <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32">
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -8051,11 +8053,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -8083,28 +8085,28 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V33" s="1">
         <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33">
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8115,11 +8117,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -8147,28 +8149,28 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8179,11 +8181,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -8211,28 +8213,28 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V35" s="1">
         <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8243,11 +8245,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -8275,28 +8277,28 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V36" s="1">
         <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8307,11 +8309,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8339,28 +8341,28 @@
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8371,11 +8373,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
@@ -8403,28 +8405,28 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V38" s="1">
         <v>0</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38">
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8435,11 +8437,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
@@ -8467,28 +8469,28 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8499,11 +8501,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
@@ -8531,28 +8533,28 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V40" s="11">
         <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y40" s="11">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8563,11 +8565,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -8595,28 +8597,28 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V41" s="1">
         <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8627,11 +8629,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -8659,28 +8661,28 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V42" s="1">
         <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8691,11 +8693,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -8723,28 +8725,28 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V43" s="1">
         <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8755,11 +8757,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -8787,28 +8789,28 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8819,11 +8821,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -8851,28 +8853,28 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V45" s="1">
         <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8883,11 +8885,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -8915,28 +8917,28 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V46" s="1">
         <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -8947,11 +8949,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -8979,28 +8981,28 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -9011,11 +9013,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -9043,28 +9045,28 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V48" s="1">
         <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9075,11 +9077,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -9107,28 +9109,28 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9139,11 +9141,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
@@ -9171,28 +9173,28 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9203,11 +9205,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -9235,28 +9237,28 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V51" s="1">
         <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9267,11 +9269,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -9299,28 +9301,28 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>0.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9335,7 +9337,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
@@ -9363,7 +9365,7 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V53" s="13">
         <v>0</v>
@@ -9380,11 +9382,11 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9399,7 +9401,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -9427,7 +9429,7 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V54" s="1">
         <v>0</v>
@@ -9444,11 +9446,11 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9463,7 +9465,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -9491,7 +9493,7 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -9508,11 +9510,11 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9527,7 +9529,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -9555,7 +9557,7 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -9572,11 +9574,11 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9591,7 +9593,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
@@ -9619,7 +9621,7 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V57" s="13">
         <v>0</v>
@@ -9636,11 +9638,11 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9655,7 +9657,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -9683,7 +9685,7 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V58" s="1">
         <v>0</v>
@@ -9700,11 +9702,11 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9719,7 +9721,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
@@ -9747,7 +9749,7 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V59" s="1">
         <v>0</v>
@@ -9764,11 +9766,11 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9783,7 +9785,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
@@ -9811,7 +9813,7 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V60" s="1">
         <v>0</v>
@@ -9828,11 +9830,11 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9847,7 +9849,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
@@ -9875,7 +9877,7 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V61" s="1">
         <v>0</v>
@@ -9892,11 +9894,11 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9911,7 +9913,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
@@ -9939,7 +9941,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V62" s="1">
         <v>0</v>
@@ -9956,11 +9958,11 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -9975,7 +9977,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
@@ -10003,7 +10005,7 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V63" s="1">
         <v>0</v>
@@ -10020,11 +10022,11 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10039,7 +10041,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
@@ -10067,7 +10069,7 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V64" s="1">
         <v>0</v>
@@ -10084,11 +10086,11 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10103,7 +10105,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
@@ -10131,7 +10133,7 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V65" s="1">
         <v>0</v>
@@ -10148,11 +10150,11 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10167,7 +10169,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
@@ -10195,7 +10197,7 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V66" s="1">
         <v>0</v>
@@ -10212,11 +10214,11 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10231,7 +10233,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
@@ -10259,7 +10261,7 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V67" s="1">
         <v>0</v>
@@ -10276,11 +10278,11 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10295,7 +10297,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
@@ -10323,7 +10325,7 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V68" s="1">
         <v>0</v>
@@ -10340,11 +10342,11 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10359,7 +10361,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
@@ -10387,7 +10389,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V69" s="1">
         <v>0</v>
@@ -10404,11 +10406,11 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10423,7 +10425,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
@@ -10451,7 +10453,7 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V70" s="1">
         <v>0</v>
@@ -10468,11 +10470,11 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10487,7 +10489,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
@@ -10515,7 +10517,7 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V71" s="1">
         <v>0</v>
@@ -10532,11 +10534,11 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10551,7 +10553,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5"/>
@@ -10579,7 +10581,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="V72" s="5">
         <v>0</v>
@@ -10596,11 +10598,11 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10886,7 +10888,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -10894,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -10906,7 +10908,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -11054,9 +11056,7 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
+      <c r="P6" s="6"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
         <v>0.0</v>
@@ -11068,9 +11068,7 @@
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
+      <c r="V6" s="1"/>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
         <v>0</v>
@@ -14187,7 +14185,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -14253,7 +14251,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -14319,7 +14317,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -14385,7 +14383,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -14451,7 +14449,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -14517,7 +14515,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -14583,7 +14581,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -14649,7 +14647,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -14715,7 +14713,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -14781,7 +14779,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -14847,7 +14845,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -14913,7 +14911,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -14979,7 +14977,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15045,7 +15043,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15111,7 +15109,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -15177,7 +15175,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -15243,7 +15241,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -15309,7 +15307,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -15375,7 +15373,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -15439,7 +15437,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -15697,10 +15695,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -143,19 +143,24 @@
     <t>income</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Income Asset rule </t>
+    <t xml:space="preserve">Income no transferResource &amp;&amp; transferRule
+ Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 40000Using previous value: 15000 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 15000 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Pensioned, no more salary from hereFixed number override =0Using previous value: 15000 Asset rule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 15000 Asset rule </t>
+    <t xml:space="preserve">Pensioned, no more salary from here no transferResource &amp;&amp; transferRule
+Using previous value: 15000 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
     <t>fond privat</t>
@@ -164,83 +169,109 @@
     <t>fond</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0Uttak fra 2068, -1/20 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/19 transfer 5000 to income.2068.income.amount with -1/20 reduce fond.2068
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/18 transfer 5000 to income.2069.income.amount with -1/19 reduce fond.2069
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0Uttak fra 2068, 1/20 Asset rule +5000Divisor is: 16250 new rule: 1/19 transfer 16250 to income.2068.income.amount reduce fond.2068 by 16250
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/17 transfer 5000 to income.2070.income.amount with -1/18 reduce fond.2070
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 16513 new rule: 1/18 transfer 16513 to income.2069.income.amount reduce fond.2069 by 16513
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/16 transfer 5000 to income.2071.income.amount with -1/17 reduce fond.2071
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 16791 new rule: 1/17 transfer 16791 to income.2070.income.amount reduce fond.2070 by 16791
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/15 transfer 5000 to income.2072.income.amount with -1/16 reduce fond.2072
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 17085 new rule: 1/16 transfer 17085 to income.2071.income.amount reduce fond.2071 by 17085
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/14 transfer 5000 to income.2073.income.amount with -1/15 reduce fond.2073
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 17398 new rule: 1/15 transfer 17398 to income.2072.income.amount reduce fond.2072 by 17398
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/13 transfer 5000 to income.2074.income.amount with -1/14 reduce fond.2074
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 17731 new rule: 1/14 transfer 17731 to income.2073.income.amount reduce fond.2073 by 17731
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/12 transfer 5000 to income.2075.income.amount with -1/13 reduce fond.2075
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 18088 new rule: 1/13 transfer 18088 to income.2074.income.amount reduce fond.2074 by 18088
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/11 transfer 5000 to income.2076.income.amount with -1/12 reduce fond.2076
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 18473 new rule: 1/12 transfer 18473 to income.2075.income.amount reduce fond.2075 by 18473
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/10 transfer 5000 to income.2077.income.amount with -1/11 reduce fond.2077
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 18889 new rule: 1/11 transfer 18889 to income.2076.income.amount reduce fond.2076 by 18889
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/9 transfer 5000 to income.2078.income.amount with -1/10 reduce fond.2078
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 19344 new rule: 1/10 transfer 19344 to income.2077.income.amount reduce fond.2077 by 19344
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/8 transfer 5000 to income.2079.income.amount with -1/9 reduce fond.2079
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 19844 new rule: 1/9 transfer 19844 to income.2078.income.amount reduce fond.2078 by 19844
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/7 transfer 5000 to income.2080.income.amount with -1/8 reduce fond.2080
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 20399 new rule: 1/8 transfer 20399 to income.2079.income.amount reduce fond.2079 by 20399
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/6 transfer 5000 to income.2081.income.amount with -1/7 reduce fond.2081
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 21024 new rule: 1/7 transfer 21024 to income.2080.income.amount reduce fond.2080 by 21024
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/5 transfer 5000 to income.2082.income.amount with -1/6 reduce fond.2082
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 21739 new rule: 1/6 transfer 21739 to income.2081.income.amount reduce fond.2081 by 21739
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/4 transfer 5000 to income.2083.income.amount with -1/5 reduce fond.2083
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 22572 new rule: 1/5 transfer 22572 to income.2082.income.amount reduce fond.2082 by 22572
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/3 transfer 5000 to income.2084.income.amount with -1/4 reduce fond.2084
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 23572 new rule: 1/4 transfer 23572 to income.2083.income.amount reduce fond.2083 by 23572
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/2 transfer 5000 to income.2085.income.amount with -1/3 reduce fond.2085
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 24822 new rule: 1/3 transfer 24822 to income.2084.income.amount reduce fond.2084 by 24822
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule: -1/1 transfer 5000 to income.2086.income.amount with -1/2 reduce fond.2086
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 26489 new rule: 1/2 transfer 26489 to income.2085.income.amount reduce fond.2085 by 26489
 </t>
   </si>
   <si>
-    <t>Using previous value: 0Using previous value: 0 Asset rule divisorValue: 5000, Adjusted divisor rule:  transfer 5000 to income.2087.income.amount with -1/1</t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 28989 new rule: 1/1 transfer 28989 to income.2086.income.amount reduce fond.2086 by 28989
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule +5000Divisor is: 33988 new rule:  transfer 33988 to income.2087.income.amount reduce fond.2087 by 33988
+</t>
   </si>
   <si>
     <t>total</t>
@@ -650,7 +681,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -894,11 +925,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -968,11 +999,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="8">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8">
@@ -1044,11 +1075,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1073,11 +1104,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>80000.0</v>
+        <v>84000.0</v>
       </c>
       <c r="S9" s="2">
         <v>0.01</v>
@@ -1086,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="6">
-        <v>24200.0</v>
+        <v>24160.0</v>
       </c>
       <c r="V9" s="1">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -1105,10 +1136,10 @@
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>29000.0</v>
+        <v>29200.0</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.65909090909091</v>
+        <v>0.6606334841629</v>
       </c>
       <c r="AD9"/>
     </row>
@@ -1120,11 +1151,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1149,11 +1180,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>80000.0</v>
+        <v>88000.0</v>
       </c>
       <c r="S10" s="2">
         <v>0.01</v>
@@ -1162,10 +1193,10 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="6">
-        <v>24200.0</v>
+        <v>24120.0</v>
       </c>
       <c r="V10" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -1181,10 +1212,10 @@
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>29000.0</v>
+        <v>29400.0</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.65909090909091</v>
+        <v>0.66216216216216</v>
       </c>
       <c r="AD10"/>
     </row>
@@ -1196,11 +1227,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1225,11 +1256,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>80000.0</v>
+        <v>92000.0</v>
       </c>
       <c r="S11" s="2">
         <v>0.01</v>
@@ -1238,10 +1269,10 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="6">
-        <v>24200.0</v>
+        <v>24080.0</v>
       </c>
       <c r="V11" s="1">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -1257,10 +1288,10 @@
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>29000.0</v>
+        <v>29600.0</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.65909090909091</v>
+        <v>0.66367713004484</v>
       </c>
       <c r="AD11"/>
     </row>
@@ -1272,11 +1303,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1301,11 +1332,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>80000.0</v>
+        <v>96000.0</v>
       </c>
       <c r="S12" s="2">
         <v>0.01</v>
@@ -1314,10 +1345,10 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="6">
-        <v>24200.0</v>
+        <v>24040.0</v>
       </c>
       <c r="V12" s="1">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -1333,10 +1364,10 @@
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>29000.0</v>
+        <v>29800.0</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.65909090909091</v>
+        <v>0.66517857142857</v>
       </c>
       <c r="AD12"/>
     </row>
@@ -1348,11 +1379,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1377,11 +1408,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>80000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="S13" s="2">
         <v>0.01</v>
@@ -1390,10 +1421,10 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="6">
-        <v>24200.0</v>
+        <v>24000.0</v>
       </c>
       <c r="V13" s="1">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -1409,10 +1440,10 @@
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>29000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="AC13" s="2">
-        <v>0.65909090909091</v>
+        <v>0.66666666666667</v>
       </c>
       <c r="AD13"/>
     </row>
@@ -1424,11 +1455,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1453,11 +1484,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>80000.0</v>
+        <v>104000.0</v>
       </c>
       <c r="S14" s="2">
         <v>0.01</v>
@@ -1466,10 +1497,10 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="6">
-        <v>24200.0</v>
+        <v>23960.0</v>
       </c>
       <c r="V14" s="1">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -1485,10 +1516,10 @@
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>29000.0</v>
+        <v>30200.0</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.65909090909091</v>
+        <v>0.66814159292035</v>
       </c>
       <c r="AD14"/>
     </row>
@@ -1500,11 +1531,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1529,11 +1560,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>80000.0</v>
+        <v>108000.0</v>
       </c>
       <c r="S15" s="2">
         <v>0.01</v>
@@ -1542,10 +1573,10 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="6">
-        <v>24200.0</v>
+        <v>23920.0</v>
       </c>
       <c r="V15" s="1">
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -1561,10 +1592,10 @@
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>29000.0</v>
+        <v>30400.0</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.65909090909091</v>
+        <v>0.66960352422907</v>
       </c>
       <c r="AD15"/>
     </row>
@@ -1576,11 +1607,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1605,11 +1636,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>80000.0</v>
+        <v>112000.0</v>
       </c>
       <c r="S16" s="2">
         <v>0.01</v>
@@ -1618,10 +1649,10 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="6">
-        <v>24200.0</v>
+        <v>23880.0</v>
       </c>
       <c r="V16" s="1">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -1637,10 +1668,10 @@
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>29000.0</v>
+        <v>30600.0</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.65909090909091</v>
+        <v>0.67105263157895</v>
       </c>
       <c r="AD16"/>
     </row>
@@ -1652,11 +1683,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1681,11 +1712,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>80000.0</v>
+        <v>116000.0</v>
       </c>
       <c r="S17" s="2">
         <v>0.01</v>
@@ -1694,10 +1725,10 @@
         <v>0.0</v>
       </c>
       <c r="U17" s="6">
-        <v>24200.0</v>
+        <v>23840.0</v>
       </c>
       <c r="V17" s="1">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -1713,10 +1744,10 @@
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>29000.0</v>
+        <v>30800.0</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.65909090909091</v>
+        <v>0.67248908296943</v>
       </c>
       <c r="AD17"/>
     </row>
@@ -1728,11 +1759,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1757,11 +1788,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>80000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="S18" s="2">
         <v>0.01</v>
@@ -1770,10 +1801,10 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="6">
-        <v>24200.0</v>
+        <v>23800.0</v>
       </c>
       <c r="V18" s="1">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -1789,10 +1820,10 @@
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>29000.0</v>
+        <v>31000.0</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.65909090909091</v>
+        <v>0.67391304347826</v>
       </c>
       <c r="AD18"/>
     </row>
@@ -1804,11 +1835,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1833,11 +1864,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>100000</v>
+        <v>155000</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>80000.0</v>
+        <v>124000.0</v>
       </c>
       <c r="S19" s="2">
         <v>0.01</v>
@@ -1846,10 +1877,10 @@
         <v>0.0</v>
       </c>
       <c r="U19" s="6">
-        <v>24200.0</v>
+        <v>23760.0</v>
       </c>
       <c r="V19" s="1">
-        <v>100000</v>
+        <v>155000</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -1865,10 +1896,10 @@
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>29000.0</v>
+        <v>31200.0</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.65909090909091</v>
+        <v>0.67532467532468</v>
       </c>
       <c r="AD19"/>
     </row>
@@ -1880,11 +1911,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1909,11 +1940,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>80000.0</v>
+        <v>128000.0</v>
       </c>
       <c r="S20" s="2">
         <v>0.01</v>
@@ -1922,10 +1953,10 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="6">
-        <v>24200.0</v>
+        <v>23720.0</v>
       </c>
       <c r="V20" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -1941,10 +1972,10 @@
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>29000.0</v>
+        <v>31400.0</v>
       </c>
       <c r="AC20" s="2">
-        <v>0.65909090909091</v>
+        <v>0.67672413793103</v>
       </c>
       <c r="AD20"/>
     </row>
@@ -1956,11 +1987,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -1985,11 +2016,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>80000.0</v>
+        <v>132000.0</v>
       </c>
       <c r="S21" s="2">
         <v>0.01</v>
@@ -1998,10 +2029,10 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="6">
-        <v>24200.0</v>
+        <v>23680.0</v>
       </c>
       <c r="V21" s="1">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
@@ -2017,10 +2048,10 @@
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>29000.0</v>
+        <v>31600.0</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.65909090909091</v>
+        <v>0.67811158798283</v>
       </c>
       <c r="AD21"/>
     </row>
@@ -2032,11 +2063,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -2061,11 +2092,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>80000.0</v>
+        <v>136000.0</v>
       </c>
       <c r="S22" s="2">
         <v>0.01</v>
@@ -2074,10 +2105,10 @@
         <v>0.0</v>
       </c>
       <c r="U22" s="6">
-        <v>24200.0</v>
+        <v>23640.0</v>
       </c>
       <c r="V22" s="1">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
@@ -2093,10 +2124,10 @@
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>29000.0</v>
+        <v>31800.0</v>
       </c>
       <c r="AC22" s="2">
-        <v>0.65909090909091</v>
+        <v>0.67948717948718</v>
       </c>
       <c r="AD22"/>
     </row>
@@ -2108,11 +2139,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2137,11 +2168,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>80000.0</v>
+        <v>140000.0</v>
       </c>
       <c r="S23" s="2">
         <v>0.01</v>
@@ -2150,10 +2181,10 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>24200.0</v>
+        <v>23600.0</v>
       </c>
       <c r="V23" s="1">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
@@ -2169,10 +2200,10 @@
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>29000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="AC23" s="2">
-        <v>0.65909090909091</v>
+        <v>0.68085106382979</v>
       </c>
       <c r="AD23"/>
     </row>
@@ -2184,11 +2215,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2213,11 +2244,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>80000.0</v>
+        <v>144000.0</v>
       </c>
       <c r="S24" s="2">
         <v>0.01</v>
@@ -2226,10 +2257,10 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>24200.0</v>
+        <v>23560.0</v>
       </c>
       <c r="V24" s="1">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
@@ -2245,10 +2276,10 @@
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>29000.0</v>
+        <v>32200.0</v>
       </c>
       <c r="AC24" s="2">
-        <v>0.65909090909091</v>
+        <v>0.68220338983051</v>
       </c>
       <c r="AD24"/>
     </row>
@@ -2260,11 +2291,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2289,11 +2320,11 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>100000</v>
+        <v>185000</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>80000.0</v>
+        <v>148000.0</v>
       </c>
       <c r="S25" s="2">
         <v>0.01</v>
@@ -2302,10 +2333,10 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>24200.0</v>
+        <v>23520.0</v>
       </c>
       <c r="V25" s="1">
-        <v>100000</v>
+        <v>185000</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
@@ -2321,10 +2352,10 @@
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>29000.0</v>
+        <v>32400.0</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.65909090909091</v>
+        <v>0.68354430379747</v>
       </c>
       <c r="AD25"/>
     </row>
@@ -2336,11 +2367,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2365,11 +2396,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>80000.0</v>
+        <v>152000.0</v>
       </c>
       <c r="S26" s="2">
         <v>0.01</v>
@@ -2378,10 +2409,10 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>24200.0</v>
+        <v>23480.0</v>
       </c>
       <c r="V26" s="1">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
@@ -2397,10 +2428,10 @@
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>29000.0</v>
+        <v>32600.0</v>
       </c>
       <c r="AC26" s="2">
-        <v>0.65909090909091</v>
+        <v>0.68487394957983</v>
       </c>
       <c r="AD26"/>
     </row>
@@ -2412,11 +2443,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2441,11 +2472,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>100000</v>
+        <v>195000</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>80000.0</v>
+        <v>156000.0</v>
       </c>
       <c r="S27" s="2">
         <v>0.01</v>
@@ -2454,10 +2485,10 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>24200.0</v>
+        <v>23440.0</v>
       </c>
       <c r="V27" s="1">
-        <v>100000</v>
+        <v>195000</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
@@ -2473,10 +2504,10 @@
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>29000.0</v>
+        <v>32800.0</v>
       </c>
       <c r="AC27" s="2">
-        <v>0.65909090909091</v>
+        <v>0.68619246861925</v>
       </c>
       <c r="AD27"/>
     </row>
@@ -2488,11 +2519,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2517,11 +2548,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>80000.0</v>
+        <v>160000.0</v>
       </c>
       <c r="S28" s="2">
         <v>0.01</v>
@@ -2530,10 +2561,10 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>24200.0</v>
+        <v>23400.0</v>
       </c>
       <c r="V28" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
@@ -2549,10 +2580,10 @@
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>29000.0</v>
+        <v>33000.0</v>
       </c>
       <c r="AC28" s="2">
-        <v>0.65909090909091</v>
+        <v>0.6875</v>
       </c>
       <c r="AD28"/>
     </row>
@@ -2564,11 +2595,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2593,11 +2624,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>100000</v>
+        <v>205000</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>80000.0</v>
+        <v>164000.0</v>
       </c>
       <c r="S29" s="2">
         <v>0.01</v>
@@ -2606,10 +2637,10 @@
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>24200.0</v>
+        <v>23360.0</v>
       </c>
       <c r="V29" s="1">
-        <v>100000</v>
+        <v>205000</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
@@ -2625,10 +2656,10 @@
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>29000.0</v>
+        <v>33200.0</v>
       </c>
       <c r="AC29" s="2">
-        <v>0.65909090909091</v>
+        <v>0.68879668049793</v>
       </c>
       <c r="AD29"/>
     </row>
@@ -2640,11 +2671,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2669,11 +2700,11 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>100000</v>
+        <v>210000</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>80000.0</v>
+        <v>168000.0</v>
       </c>
       <c r="S30" s="2">
         <v>0.01</v>
@@ -2682,10 +2713,10 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>24200.0</v>
+        <v>23320.0</v>
       </c>
       <c r="V30" s="1">
-        <v>100000</v>
+        <v>210000</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
@@ -2701,10 +2732,10 @@
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>29000.0</v>
+        <v>33400.0</v>
       </c>
       <c r="AC30" s="2">
-        <v>0.65909090909091</v>
+        <v>0.6900826446281</v>
       </c>
       <c r="AD30"/>
     </row>
@@ -2716,11 +2747,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2745,11 +2776,11 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>100000</v>
+        <v>215000</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>80000.0</v>
+        <v>172000.0</v>
       </c>
       <c r="S31" s="2">
         <v>0.01</v>
@@ -2758,10 +2789,10 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>24200.0</v>
+        <v>23280.0</v>
       </c>
       <c r="V31" s="1">
-        <v>100000</v>
+        <v>215000</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
@@ -2777,10 +2808,10 @@
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>29000.0</v>
+        <v>33600.0</v>
       </c>
       <c r="AC31" s="2">
-        <v>0.65909090909091</v>
+        <v>0.69135802469136</v>
       </c>
       <c r="AD31"/>
     </row>
@@ -2792,11 +2823,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2821,11 +2852,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>80000.0</v>
+        <v>176000.0</v>
       </c>
       <c r="S32" s="2">
         <v>0.01</v>
@@ -2834,10 +2865,10 @@
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>24200.0</v>
+        <v>23240.0</v>
       </c>
       <c r="V32" s="1">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
@@ -2853,10 +2884,10 @@
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>29000.0</v>
+        <v>33800.0</v>
       </c>
       <c r="AC32" s="2">
-        <v>0.65909090909091</v>
+        <v>0.69262295081967</v>
       </c>
       <c r="AD32"/>
     </row>
@@ -2868,11 +2899,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2897,11 +2928,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>100000</v>
+        <v>225000</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>80000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="S33" s="2">
         <v>0.01</v>
@@ -2910,10 +2941,10 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>24200.0</v>
+        <v>23200.0</v>
       </c>
       <c r="V33" s="1">
-        <v>100000</v>
+        <v>225000</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
@@ -2929,10 +2960,10 @@
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>29000.0</v>
+        <v>34000.0</v>
       </c>
       <c r="AC33" s="2">
-        <v>0.65909090909091</v>
+        <v>0.69387755102041</v>
       </c>
       <c r="AD33"/>
     </row>
@@ -2944,11 +2975,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -2973,11 +3004,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>80000.0</v>
+        <v>184000.0</v>
       </c>
       <c r="S34" s="2">
         <v>0.01</v>
@@ -2986,10 +3017,10 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>24200.0</v>
+        <v>23160.0</v>
       </c>
       <c r="V34" s="1">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
@@ -3005,10 +3036,10 @@
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>29000.0</v>
+        <v>34200.0</v>
       </c>
       <c r="AC34" s="2">
-        <v>0.65909090909091</v>
+        <v>0.69512195121951</v>
       </c>
       <c r="AD34"/>
     </row>
@@ -3020,11 +3051,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -3049,11 +3080,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>100000</v>
+        <v>235000</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>80000.0</v>
+        <v>188000.0</v>
       </c>
       <c r="S35" s="2">
         <v>0.01</v>
@@ -3062,10 +3093,10 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>24200.0</v>
+        <v>23120.0</v>
       </c>
       <c r="V35" s="1">
-        <v>100000</v>
+        <v>235000</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
@@ -3081,10 +3112,10 @@
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>29000.0</v>
+        <v>34400.0</v>
       </c>
       <c r="AC35" s="2">
-        <v>0.65909090909091</v>
+        <v>0.69635627530364</v>
       </c>
       <c r="AD35"/>
     </row>
@@ -3096,11 +3127,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3125,11 +3156,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>80000.0</v>
+        <v>192000.0</v>
       </c>
       <c r="S36" s="2">
         <v>0.01</v>
@@ -3138,10 +3169,10 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>24200.0</v>
+        <v>23080.0</v>
       </c>
       <c r="V36" s="1">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
@@ -3157,10 +3188,10 @@
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>29000.0</v>
+        <v>34600.0</v>
       </c>
       <c r="AC36" s="2">
-        <v>0.65909090909091</v>
+        <v>0.69758064516129</v>
       </c>
       <c r="AD36"/>
     </row>
@@ -3172,11 +3203,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3201,11 +3232,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>100000</v>
+        <v>245000</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>80000.0</v>
+        <v>196000.0</v>
       </c>
       <c r="S37" s="2">
         <v>0.01</v>
@@ -3214,10 +3245,10 @@
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>24200.0</v>
+        <v>23040.0</v>
       </c>
       <c r="V37" s="1">
-        <v>100000</v>
+        <v>245000</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -3233,10 +3264,10 @@
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>29000.0</v>
+        <v>34800.0</v>
       </c>
       <c r="AC37" s="2">
-        <v>0.65909090909091</v>
+        <v>0.69879518072289</v>
       </c>
       <c r="AD37"/>
     </row>
@@ -3248,11 +3279,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3277,11 +3308,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="6">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>80000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S38" s="2">
         <v>0.01</v>
@@ -3290,10 +3321,10 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>24200.0</v>
+        <v>23000.0</v>
       </c>
       <c r="V38" s="1">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
@@ -3309,10 +3340,10 @@
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>29000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="AC38" s="2">
-        <v>0.65909090909091</v>
+        <v>0.7</v>
       </c>
       <c r="AD38"/>
     </row>
@@ -3324,11 +3355,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3353,11 +3384,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>100000</v>
+        <v>255000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>80000.0</v>
+        <v>204000.0</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
@@ -3366,10 +3397,10 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>24200.0</v>
+        <v>22960.0</v>
       </c>
       <c r="V39" s="1">
-        <v>100000</v>
+        <v>255000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -3385,10 +3416,10 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>29000.0</v>
+        <v>35200.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>0.65909090909091</v>
+        <v>0.70119521912351</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3400,11 +3431,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3429,11 +3460,11 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>80000.0</v>
+        <v>208000.0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -3442,10 +3473,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>24200.0</v>
+        <v>22920.0</v>
       </c>
       <c r="V40" s="11">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -3461,10 +3492,10 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>29000.0</v>
+        <v>35400.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.65909090909091</v>
+        <v>0.70238095238095</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3476,11 +3507,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3505,11 +3536,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>100000</v>
+        <v>265000</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>80000.0</v>
+        <v>212000.0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -3518,10 +3549,10 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>24200.0</v>
+        <v>22880.0</v>
       </c>
       <c r="V41" s="1">
-        <v>100000</v>
+        <v>265000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -3537,10 +3568,10 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>29000.0</v>
+        <v>35600.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.65909090909091</v>
+        <v>0.70355731225296</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3552,11 +3583,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3581,11 +3612,11 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>80000.0</v>
+        <v>216000.0</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
@@ -3594,10 +3625,10 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>24200.0</v>
+        <v>22840.0</v>
       </c>
       <c r="V42" s="1">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -3613,10 +3644,10 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>29000.0</v>
+        <v>35800.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.65909090909091</v>
+        <v>0.70472440944882</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3628,11 +3659,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3657,11 +3688,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>100000</v>
+        <v>275000</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>80000.0</v>
+        <v>220000.0</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
@@ -3670,10 +3701,10 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>24200.0</v>
+        <v>22800.0</v>
       </c>
       <c r="V43" s="1">
-        <v>100000</v>
+        <v>275000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -3689,10 +3720,10 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>29000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.65909090909091</v>
+        <v>0.70588235294118</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3704,11 +3735,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3733,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>100000</v>
+        <v>280000</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>80000.0</v>
+        <v>224000.0</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
@@ -3746,10 +3777,10 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>24200.0</v>
+        <v>22760.0</v>
       </c>
       <c r="V44" s="1">
-        <v>100000</v>
+        <v>280000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -3765,10 +3796,10 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>29000.0</v>
+        <v>36200.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.65909090909091</v>
+        <v>0.70703125</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3780,11 +3811,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3809,11 +3840,11 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>100000</v>
+        <v>285000</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>80000.0</v>
+        <v>228000.0</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
@@ -3822,10 +3853,10 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>24200.0</v>
+        <v>22720.0</v>
       </c>
       <c r="V45" s="1">
-        <v>100000</v>
+        <v>285000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -3841,10 +3872,10 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>29000.0</v>
+        <v>36400.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.65909090909091</v>
+        <v>0.70817120622568</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3856,11 +3887,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3885,11 +3916,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>80000.0</v>
+        <v>232000.0</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
@@ -3898,10 +3929,10 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>24200.0</v>
+        <v>22680.0</v>
       </c>
       <c r="V46" s="1">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -3917,10 +3948,10 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>29000.0</v>
+        <v>36600.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.65909090909091</v>
+        <v>0.7093023255814</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3932,11 +3963,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -3961,11 +3992,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>100000</v>
+        <v>295000</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>80000.0</v>
+        <v>236000.0</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
@@ -3974,10 +4005,10 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>24200.0</v>
+        <v>22640.0</v>
       </c>
       <c r="V47" s="1">
-        <v>100000</v>
+        <v>295000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -3993,10 +4024,10 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>29000.0</v>
+        <v>36800.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.65909090909091</v>
+        <v>0.71042471042471</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -4008,11 +4039,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4037,11 +4068,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>80000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
@@ -4050,10 +4081,10 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>24200.0</v>
+        <v>22600.0</v>
       </c>
       <c r="V48" s="1">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -4069,10 +4100,10 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>29000.0</v>
+        <v>37000.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.65909090909091</v>
+        <v>0.71153846153846</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4084,11 +4115,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4113,11 +4144,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>100000</v>
+        <v>305000</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>80000.0</v>
+        <v>244000.0</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
@@ -4126,10 +4157,10 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>24200.0</v>
+        <v>22560.0</v>
       </c>
       <c r="V49" s="1">
-        <v>100000</v>
+        <v>305000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -4145,10 +4176,10 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>29000.0</v>
+        <v>37200.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.65909090909091</v>
+        <v>0.71264367816092</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4160,11 +4191,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4189,11 +4220,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>100000</v>
+        <v>310000</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>80000.0</v>
+        <v>248000.0</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
@@ -4202,10 +4233,10 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>24200.0</v>
+        <v>22520.0</v>
       </c>
       <c r="V50" s="1">
-        <v>100000</v>
+        <v>310000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -4221,10 +4252,10 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>29000.0</v>
+        <v>37400.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.65909090909091</v>
+        <v>0.71374045801527</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4236,11 +4267,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4265,11 +4296,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>100000</v>
+        <v>315000</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>80000.0</v>
+        <v>252000.0</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
@@ -4278,10 +4309,10 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>24200.0</v>
+        <v>22480.0</v>
       </c>
       <c r="V51" s="1">
-        <v>100000</v>
+        <v>315000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -4297,10 +4328,10 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>29000.0</v>
+        <v>37600.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.65909090909091</v>
+        <v>0.7148288973384</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4312,11 +4343,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4341,11 +4372,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>100000</v>
+        <v>320000</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>80000.0</v>
+        <v>256000.0</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
@@ -4354,10 +4385,10 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>24200.0</v>
+        <v>22440.0</v>
       </c>
       <c r="V52" s="1">
-        <v>100000</v>
+        <v>320000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -4373,10 +4404,10 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>29000.0</v>
+        <v>37800.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.65909090909091</v>
+        <v>0.71590909090909</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4388,11 +4419,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>5000.0</v>
+        <v>16250.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4417,11 +4448,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>95000.0</v>
+        <v>308750.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>76000.0</v>
+        <v>247000.0</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
@@ -4430,10 +4461,10 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-15760.0</v>
+        <v>-17470.0</v>
       </c>
       <c r="V53" s="13">
-        <v>95000.0</v>
+        <v>308750.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4449,10 +4480,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-11200.0</v>
+        <v>-2650.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>-2.9473684210526</v>
+        <v>-0.21457489878543</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4464,11 +4495,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>5000.0</v>
+        <v>16513.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4493,11 +4524,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>90000.0</v>
+        <v>297237.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>72000.0</v>
+        <v>237789.6</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
@@ -4506,10 +4537,10 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-15720.0</v>
+        <v>-17377.896</v>
       </c>
       <c r="V54" s="1">
-        <v>90000.0</v>
+        <v>297237.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4525,10 +4556,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-11400.0</v>
+        <v>-3111.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>-3.1666666666667</v>
+        <v>-0.26165988756447</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4540,11 +4571,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>5000.0</v>
+        <v>16791.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4569,11 +4600,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>85000.0</v>
+        <v>285446.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>68000.0</v>
+        <v>228356.8</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
@@ -4582,10 +4613,10 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-15680.0</v>
+        <v>-17283.568</v>
       </c>
       <c r="V55" s="1">
-        <v>85000.0</v>
+        <v>285446.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4601,10 +4632,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-11600.0</v>
+        <v>-3582.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>-3.4117647058824</v>
+        <v>-0.31371958268814</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4616,11 +4647,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>5000.0</v>
+        <v>17085.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4645,11 +4676,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>80000.0</v>
+        <v>273361.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>64000.0</v>
+        <v>218688.8</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
@@ -4658,10 +4689,10 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-15640.0</v>
+        <v>-17186.888</v>
       </c>
       <c r="V56" s="1">
-        <v>80000.0</v>
+        <v>273361.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -4677,10 +4708,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-11800.0</v>
+        <v>-4066.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>-3.6875</v>
+        <v>-0.37185260516314</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -4692,11 +4723,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>5000.0</v>
+        <v>17398.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4721,11 +4752,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>75000.0</v>
+        <v>260963.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>60000.0</v>
+        <v>208770.4</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
@@ -4734,10 +4765,10 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-15600.0</v>
+        <v>-17087.704</v>
       </c>
       <c r="V57" s="13">
-        <v>75000.0</v>
+        <v>260963.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -4753,10 +4784,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-12000.0</v>
+        <v>-4561.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>-4.0</v>
+        <v>-0.43693933622774</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -4768,11 +4799,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>5000.0</v>
+        <v>17731.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4797,11 +4828,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>70000.0</v>
+        <v>248232.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>56000.0</v>
+        <v>198585.6</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
@@ -4810,10 +4841,10 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-15560.0</v>
+        <v>-16985.856</v>
       </c>
       <c r="V58" s="1">
-        <v>70000.0</v>
+        <v>248232.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -4829,10 +4860,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-12200.0</v>
+        <v>-5071.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>-4.3571428571429</v>
+        <v>-0.5107117535209</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -4844,11 +4875,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>5000.0</v>
+        <v>18088.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4873,11 +4904,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>65000.0</v>
+        <v>235144.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>52000.0</v>
+        <v>188115.2</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
@@ -4886,10 +4917,10 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-15520.0</v>
+        <v>-16881.152</v>
       </c>
       <c r="V59" s="1">
-        <v>65000.0</v>
+        <v>235144.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -4905,10 +4936,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-12400.0</v>
+        <v>-5594.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>-4.7692307692308</v>
+        <v>-0.59474194536114</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -4920,11 +4951,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>5000.0</v>
+        <v>18473.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4949,11 +4980,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>60000.0</v>
+        <v>221671.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>48000.0</v>
+        <v>177336.8</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
@@ -4962,10 +4993,10 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-15480.0</v>
+        <v>-16773.368</v>
       </c>
       <c r="V60" s="1">
-        <v>60000.0</v>
+        <v>221671.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -4981,10 +5012,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-12600.0</v>
+        <v>-6133.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>-5.25</v>
+        <v>-0.69167820779443</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -4996,11 +5027,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>5000.0</v>
+        <v>18889.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5025,11 +5056,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>55000.0</v>
+        <v>207782.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>44000.0</v>
+        <v>166225.6</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
@@ -5038,10 +5069,10 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-15440.0</v>
+        <v>-16662.256</v>
       </c>
       <c r="V61" s="1">
-        <v>55000.0</v>
+        <v>207782.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -5057,10 +5088,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-12800.0</v>
+        <v>-6689.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>-5.8181818181818</v>
+        <v>-0.80480984878382</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5072,11 +5103,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>5000.0</v>
+        <v>19344.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5101,11 +5132,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>50000.0</v>
+        <v>193438.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>40000.0</v>
+        <v>154750.4</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
@@ -5114,10 +5145,10 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-15400.0</v>
+        <v>-16547.504</v>
       </c>
       <c r="V62" s="1">
-        <v>50000.0</v>
+        <v>193438.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -5133,10 +5164,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-13000.0</v>
+        <v>-7262.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>-6.5</v>
+        <v>-0.93854361604235</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5148,11 +5179,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>5000.0</v>
+        <v>19844.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5177,11 +5208,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>45000.0</v>
+        <v>178594.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>36000.0</v>
+        <v>142875.2</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
@@ -5190,10 +5221,10 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-15360.0</v>
+        <v>-16428.752</v>
       </c>
       <c r="V63" s="1">
-        <v>45000.0</v>
+        <v>178594.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -5209,10 +5240,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-13200.0</v>
+        <v>-7856.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>-7.3333333333333</v>
+        <v>-1.0997009977939</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5224,11 +5255,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>5000.0</v>
+        <v>20399.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5253,11 +5284,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>40000.0</v>
+        <v>163195.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>32000.0</v>
+        <v>130556.0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
@@ -5266,10 +5297,10 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-15320.0</v>
+        <v>-16305.56</v>
       </c>
       <c r="V64" s="1">
-        <v>40000.0</v>
+        <v>163195.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5285,10 +5316,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-13400.0</v>
+        <v>-8472.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>-8.375</v>
+        <v>-1.2978338797145</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5300,11 +5331,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>5000.0</v>
+        <v>21024.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5329,11 +5360,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>35000.0</v>
+        <v>147171.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>28000.0</v>
+        <v>117736.8</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -5342,10 +5373,10 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-15280.0</v>
+        <v>-16177.368</v>
       </c>
       <c r="V65" s="1">
-        <v>35000.0</v>
+        <v>147171.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5361,10 +5392,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-13600.0</v>
+        <v>-9113.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>-9.7142857142857</v>
+        <v>-1.5480291633542</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5376,11 +5407,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>5000.0</v>
+        <v>21739.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5405,11 +5436,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>30000.0</v>
+        <v>130432.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>24000.0</v>
+        <v>104345.6</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
@@ -5418,10 +5449,10 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-15240.0</v>
+        <v>-16043.456</v>
       </c>
       <c r="V66" s="1">
-        <v>30000.0</v>
+        <v>130432.0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -5437,10 +5468,10 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-13800.0</v>
+        <v>-9783.0</v>
       </c>
       <c r="AC66" s="2">
-        <v>-11.5</v>
+        <v>-1.8751150024534</v>
       </c>
       <c r="AD66"/>
     </row>
@@ -5452,11 +5483,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>5000.0</v>
+        <v>22572.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5481,11 +5512,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>25000.0</v>
+        <v>112860.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>20000.0</v>
+        <v>90288.0</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
@@ -5494,10 +5525,10 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-15200.0</v>
+        <v>-15902.88</v>
       </c>
       <c r="V67" s="1">
-        <v>25000.0</v>
+        <v>112860.0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -5513,10 +5544,10 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-14000.0</v>
+        <v>-10486.0</v>
       </c>
       <c r="AC67" s="2">
-        <v>-14.0</v>
+        <v>-2.3227892964735</v>
       </c>
       <c r="AD67"/>
     </row>
@@ -5528,11 +5559,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>5000.0</v>
+        <v>23572.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5557,11 +5588,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>20000.0</v>
+        <v>94288.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>16000.0</v>
+        <v>75430.4</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
@@ -5570,10 +5601,10 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-15160.0</v>
+        <v>-15754.304</v>
       </c>
       <c r="V68" s="1">
-        <v>20000.0</v>
+        <v>94288.0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -5589,10 +5620,10 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-14200.0</v>
+        <v>-11228.0</v>
       </c>
       <c r="AC68" s="2">
-        <v>-17.75</v>
+        <v>-2.9770490412354</v>
       </c>
       <c r="AD68"/>
     </row>
@@ -5604,11 +5635,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>5000.0</v>
+        <v>24822.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5633,11 +5664,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>15000.0</v>
+        <v>74466.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>12000.0</v>
+        <v>59572.8</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
@@ -5646,10 +5677,10 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-15120.0</v>
+        <v>-15595.728</v>
       </c>
       <c r="V69" s="1">
-        <v>15000.0</v>
+        <v>74466.0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -5665,10 +5696,10 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-14400.0</v>
+        <v>-12021.0</v>
       </c>
       <c r="AC69" s="2">
-        <v>-24.0</v>
+        <v>-4.0357344291354</v>
       </c>
       <c r="AD69"/>
     </row>
@@ -5680,11 +5711,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>5000.0</v>
+        <v>26489.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5709,11 +5740,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>10000.0</v>
+        <v>52977.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>8000.0</v>
+        <v>42381.6</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
@@ -5722,10 +5753,10 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-15080.0</v>
+        <v>-15423.816</v>
       </c>
       <c r="V70" s="1">
-        <v>10000.0</v>
+        <v>52977.0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -5741,10 +5772,10 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-14600.0</v>
+        <v>-12881.0</v>
       </c>
       <c r="AC70" s="2">
-        <v>-36.5</v>
+        <v>-6.0785812711177</v>
       </c>
       <c r="AD70"/>
     </row>
@@ -5756,11 +5787,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>5000.0</v>
+        <v>28989.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5785,11 +5816,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>5000.0</v>
+        <v>28988.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>4000.0</v>
+        <v>23190.4</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
@@ -5798,10 +5829,10 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-15040.0</v>
+        <v>-15231.904</v>
       </c>
       <c r="V71" s="1">
-        <v>5000.0</v>
+        <v>28988.0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -5817,10 +5848,10 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-14800.0</v>
+        <v>-13840.0</v>
       </c>
       <c r="AC71" s="2">
-        <v>-74.0</v>
+        <v>-11.935973506278</v>
       </c>
       <c r="AD71"/>
     </row>
@@ -5832,11 +5863,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>5000.0</v>
+        <v>33988.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5861,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
@@ -5875,7 +5906,7 @@
         <v>-15000.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
@@ -6153,7 +6184,7 @@
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6349,7 +6380,9 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
         <v>0</v>
@@ -6361,7 +6394,9 @@
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
-      <c r="V6" s="1"/>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
         <v>0</v>
@@ -6389,11 +6424,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6453,11 +6488,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="8">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -6517,11 +6552,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6581,11 +6616,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6645,11 +6680,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6709,11 +6744,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6773,11 +6808,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6837,11 +6872,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6901,11 +6936,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6965,11 +7000,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -7029,11 +7064,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -7093,11 +7128,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -7157,11 +7192,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -7221,11 +7256,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7285,11 +7320,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7349,11 +7384,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7413,11 +7448,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7477,11 +7512,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7541,11 +7576,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7605,11 +7640,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7669,11 +7704,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7733,11 +7768,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7797,11 +7832,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7861,11 +7896,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7925,11 +7960,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -7989,11 +8024,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -8053,11 +8088,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -8117,11 +8152,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -8181,11 +8216,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -8245,11 +8280,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -8309,11 +8344,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8373,11 +8408,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
@@ -8437,11 +8472,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
@@ -8501,11 +8536,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
@@ -8565,11 +8600,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -8629,11 +8664,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -8693,11 +8728,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -8757,11 +8792,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -8821,11 +8856,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -8885,11 +8920,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -8949,11 +8984,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -9013,11 +9048,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -9077,11 +9112,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -9141,11 +9176,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
@@ -9205,11 +9240,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -9269,11 +9304,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -9333,11 +9368,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>5000.0</v>
+        <v>16250.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
@@ -9397,11 +9432,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>5000.0</v>
+        <v>16513.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -9450,7 +9485,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9461,11 +9496,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>5000.0</v>
+        <v>16791.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -9514,7 +9549,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9525,11 +9560,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>5000.0</v>
+        <v>17085.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -9578,7 +9613,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9589,11 +9624,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>5000.0</v>
+        <v>17398.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
@@ -9642,7 +9677,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9653,11 +9688,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>5000.0</v>
+        <v>17731.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -9706,7 +9741,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9717,11 +9752,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>5000.0</v>
+        <v>18088.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
@@ -9770,7 +9805,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9781,11 +9816,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>5000.0</v>
+        <v>18473.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
@@ -9834,7 +9869,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9845,11 +9880,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>5000.0</v>
+        <v>18889.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
@@ -9898,7 +9933,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9909,11 +9944,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>5000.0</v>
+        <v>19344.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
@@ -9962,7 +9997,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -9973,11 +10008,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>5000.0</v>
+        <v>19844.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
@@ -10026,7 +10061,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10037,11 +10072,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>5000.0</v>
+        <v>20399.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
@@ -10090,7 +10125,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10101,11 +10136,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>5000.0</v>
+        <v>21024.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
@@ -10154,7 +10189,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10165,11 +10200,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>5000.0</v>
+        <v>21739.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
@@ -10218,7 +10253,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10229,11 +10264,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>5000.0</v>
+        <v>22572.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
@@ -10282,7 +10317,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10293,11 +10328,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>5000.0</v>
+        <v>23572.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
@@ -10346,7 +10381,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10357,11 +10392,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>5000.0</v>
+        <v>24822.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
@@ -10410,7 +10445,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10421,11 +10456,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>5000.0</v>
+        <v>26489.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
@@ -10474,7 +10509,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10485,11 +10520,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>5000.0</v>
+        <v>28989.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
@@ -10538,7 +10573,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10549,11 +10584,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>5000.0</v>
+        <v>33988.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5"/>
@@ -10602,7 +10637,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10888,7 +10923,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -10896,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -10908,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -11056,7 +11091,9 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
         <v>0.0</v>
@@ -11068,7 +11105,9 @@
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
-      <c r="V6" s="1"/>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
         <v>0</v>
@@ -11247,23 +11286,23 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>80000.0</v>
+        <v>84000.0</v>
       </c>
       <c r="S9" s="2">
         <v>0.01</v>
       </c>
       <c r="T9" s="1">
-        <v>800.0</v>
+        <v>840.0</v>
       </c>
       <c r="U9" s="6">
-        <v>-800.0</v>
+        <v>-840.0</v>
       </c>
       <c r="V9" s="1">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -11277,11 +11316,11 @@
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>4000.0</v>
+        <v>4200.0</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -11313,23 +11352,23 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>80000.0</v>
+        <v>88000.0</v>
       </c>
       <c r="S10" s="2">
         <v>0.01</v>
       </c>
       <c r="T10" s="1">
-        <v>800.0</v>
+        <v>880.0</v>
       </c>
       <c r="U10" s="6">
-        <v>-800.0</v>
+        <v>-880.0</v>
       </c>
       <c r="V10" s="1">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -11343,11 +11382,11 @@
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>4000.0</v>
+        <v>4400.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -11379,23 +11418,23 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>80000.0</v>
+        <v>92000.0</v>
       </c>
       <c r="S11" s="2">
         <v>0.01</v>
       </c>
       <c r="T11" s="1">
-        <v>800.0</v>
+        <v>920.0</v>
       </c>
       <c r="U11" s="6">
-        <v>-800.0</v>
+        <v>-920.0</v>
       </c>
       <c r="V11" s="1">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -11409,11 +11448,11 @@
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>4000.0</v>
+        <v>4600.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -11445,23 +11484,23 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>80000.0</v>
+        <v>96000.0</v>
       </c>
       <c r="S12" s="2">
         <v>0.01</v>
       </c>
       <c r="T12" s="1">
-        <v>800.0</v>
+        <v>960.0</v>
       </c>
       <c r="U12" s="6">
-        <v>-800.0</v>
+        <v>-960.0</v>
       </c>
       <c r="V12" s="1">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -11475,11 +11514,11 @@
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>4000.0</v>
+        <v>4800.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -11511,23 +11550,23 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>80000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="S13" s="2">
         <v>0.01</v>
       </c>
       <c r="T13" s="1">
-        <v>800.0</v>
+        <v>1000.0</v>
       </c>
       <c r="U13" s="6">
-        <v>-800.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="V13" s="1">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -11541,11 +11580,11 @@
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -11577,23 +11616,23 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>80000.0</v>
+        <v>104000.0</v>
       </c>
       <c r="S14" s="2">
         <v>0.01</v>
       </c>
       <c r="T14" s="1">
-        <v>800.0</v>
+        <v>1040.0</v>
       </c>
       <c r="U14" s="6">
-        <v>-800.0</v>
+        <v>-1040.0</v>
       </c>
       <c r="V14" s="1">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -11607,11 +11646,11 @@
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>4000.0</v>
+        <v>5200.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -11643,23 +11682,23 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>80000.0</v>
+        <v>108000.0</v>
       </c>
       <c r="S15" s="2">
         <v>0.01</v>
       </c>
       <c r="T15" s="1">
-        <v>800.0</v>
+        <v>1080.0</v>
       </c>
       <c r="U15" s="6">
-        <v>-800.0</v>
+        <v>-1080.0</v>
       </c>
       <c r="V15" s="1">
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -11673,11 +11712,11 @@
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>4000.0</v>
+        <v>5400.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -11709,23 +11748,23 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>80000.0</v>
+        <v>112000.0</v>
       </c>
       <c r="S16" s="2">
         <v>0.01</v>
       </c>
       <c r="T16" s="1">
-        <v>800.0</v>
+        <v>1120.0</v>
       </c>
       <c r="U16" s="6">
-        <v>-800.0</v>
+        <v>-1120.0</v>
       </c>
       <c r="V16" s="1">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -11739,11 +11778,11 @@
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>4000.0</v>
+        <v>5600.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -11775,23 +11814,23 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>80000.0</v>
+        <v>116000.0</v>
       </c>
       <c r="S17" s="2">
         <v>0.01</v>
       </c>
       <c r="T17" s="1">
-        <v>800.0</v>
+        <v>1160.0</v>
       </c>
       <c r="U17" s="6">
-        <v>-800.0</v>
+        <v>-1160.0</v>
       </c>
       <c r="V17" s="1">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -11805,11 +11844,11 @@
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>4000.0</v>
+        <v>5800.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -11841,23 +11880,23 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>80000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="S18" s="2">
         <v>0.01</v>
       </c>
       <c r="T18" s="1">
-        <v>800.0</v>
+        <v>1200.0</v>
       </c>
       <c r="U18" s="6">
-        <v>-800.0</v>
+        <v>-1200.0</v>
       </c>
       <c r="V18" s="1">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -11871,11 +11910,11 @@
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>4000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -11907,23 +11946,23 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>100000</v>
+        <v>155000</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>80000.0</v>
+        <v>124000.0</v>
       </c>
       <c r="S19" s="2">
         <v>0.01</v>
       </c>
       <c r="T19" s="1">
-        <v>800.0</v>
+        <v>1240.0</v>
       </c>
       <c r="U19" s="6">
-        <v>-800.0</v>
+        <v>-1240.0</v>
       </c>
       <c r="V19" s="1">
-        <v>100000</v>
+        <v>155000</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -11937,11 +11976,11 @@
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>4000.0</v>
+        <v>6200.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -11973,23 +12012,23 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>80000.0</v>
+        <v>128000.0</v>
       </c>
       <c r="S20" s="2">
         <v>0.01</v>
       </c>
       <c r="T20" s="1">
-        <v>800.0</v>
+        <v>1280.0</v>
       </c>
       <c r="U20" s="6">
-        <v>-800.0</v>
+        <v>-1280.0</v>
       </c>
       <c r="V20" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -12003,11 +12042,11 @@
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>4000.0</v>
+        <v>6400.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -12039,23 +12078,23 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>80000.0</v>
+        <v>132000.0</v>
       </c>
       <c r="S21" s="2">
         <v>0.01</v>
       </c>
       <c r="T21" s="1">
-        <v>800.0</v>
+        <v>1320.0</v>
       </c>
       <c r="U21" s="6">
-        <v>-800.0</v>
+        <v>-1320.0</v>
       </c>
       <c r="V21" s="1">
-        <v>100000</v>
+        <v>165000</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
@@ -12069,11 +12108,11 @@
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>4000.0</v>
+        <v>6600.0</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -12105,23 +12144,23 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>80000.0</v>
+        <v>136000.0</v>
       </c>
       <c r="S22" s="2">
         <v>0.01</v>
       </c>
       <c r="T22" s="1">
-        <v>800.0</v>
+        <v>1360.0</v>
       </c>
       <c r="U22" s="6">
-        <v>-800.0</v>
+        <v>-1360.0</v>
       </c>
       <c r="V22" s="1">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
@@ -12135,11 +12174,11 @@
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>4000.0</v>
+        <v>6800.0</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -12171,23 +12210,23 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>80000.0</v>
+        <v>140000.0</v>
       </c>
       <c r="S23" s="2">
         <v>0.01</v>
       </c>
       <c r="T23" s="1">
-        <v>800.0</v>
+        <v>1400.0</v>
       </c>
       <c r="U23" s="6">
-        <v>-800.0</v>
+        <v>-1400.0</v>
       </c>
       <c r="V23" s="1">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
@@ -12201,11 +12240,11 @@
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>4000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -12237,23 +12276,23 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>80000.0</v>
+        <v>144000.0</v>
       </c>
       <c r="S24" s="2">
         <v>0.01</v>
       </c>
       <c r="T24" s="1">
-        <v>800.0</v>
+        <v>1440.0</v>
       </c>
       <c r="U24" s="6">
-        <v>-800.0</v>
+        <v>-1440.0</v>
       </c>
       <c r="V24" s="1">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
@@ -12267,11 +12306,11 @@
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>4000.0</v>
+        <v>7200.0</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -12303,23 +12342,23 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>100000</v>
+        <v>185000</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>80000.0</v>
+        <v>148000.0</v>
       </c>
       <c r="S25" s="2">
         <v>0.01</v>
       </c>
       <c r="T25" s="1">
-        <v>800.0</v>
+        <v>1480.0</v>
       </c>
       <c r="U25" s="6">
-        <v>-800.0</v>
+        <v>-1480.0</v>
       </c>
       <c r="V25" s="1">
-        <v>100000</v>
+        <v>185000</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
@@ -12333,11 +12372,11 @@
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>4000.0</v>
+        <v>7400.0</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -12369,23 +12408,23 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>80000.0</v>
+        <v>152000.0</v>
       </c>
       <c r="S26" s="2">
         <v>0.01</v>
       </c>
       <c r="T26" s="1">
-        <v>800.0</v>
+        <v>1520.0</v>
       </c>
       <c r="U26" s="6">
-        <v>-800.0</v>
+        <v>-1520.0</v>
       </c>
       <c r="V26" s="1">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
@@ -12399,11 +12438,11 @@
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>4000.0</v>
+        <v>7600.0</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -12435,23 +12474,23 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>100000</v>
+        <v>195000</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>80000.0</v>
+        <v>156000.0</v>
       </c>
       <c r="S27" s="2">
         <v>0.01</v>
       </c>
       <c r="T27" s="1">
-        <v>800.0</v>
+        <v>1560.0</v>
       </c>
       <c r="U27" s="6">
-        <v>-800.0</v>
+        <v>-1560.0</v>
       </c>
       <c r="V27" s="1">
-        <v>100000</v>
+        <v>195000</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
@@ -12465,11 +12504,11 @@
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>4000.0</v>
+        <v>7800.0</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -12501,23 +12540,23 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>80000.0</v>
+        <v>160000.0</v>
       </c>
       <c r="S28" s="2">
         <v>0.01</v>
       </c>
       <c r="T28" s="1">
-        <v>800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="U28" s="6">
-        <v>-800.0</v>
+        <v>-1600.0</v>
       </c>
       <c r="V28" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
@@ -12531,11 +12570,11 @@
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>4000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -12567,23 +12606,23 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>100000</v>
+        <v>205000</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>80000.0</v>
+        <v>164000.0</v>
       </c>
       <c r="S29" s="2">
         <v>0.01</v>
       </c>
       <c r="T29" s="1">
-        <v>800.0</v>
+        <v>1640.0</v>
       </c>
       <c r="U29" s="6">
-        <v>-800.0</v>
+        <v>-1640.0</v>
       </c>
       <c r="V29" s="1">
-        <v>100000</v>
+        <v>205000</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
@@ -12597,11 +12636,11 @@
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>4000.0</v>
+        <v>8200.0</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -12633,23 +12672,23 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>100000</v>
+        <v>210000</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>80000.0</v>
+        <v>168000.0</v>
       </c>
       <c r="S30" s="2">
         <v>0.01</v>
       </c>
       <c r="T30" s="1">
-        <v>800.0</v>
+        <v>1680.0</v>
       </c>
       <c r="U30" s="6">
-        <v>-800.0</v>
+        <v>-1680.0</v>
       </c>
       <c r="V30" s="1">
-        <v>100000</v>
+        <v>210000</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
@@ -12663,11 +12702,11 @@
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>4000.0</v>
+        <v>8400.0</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -12699,23 +12738,23 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>100000</v>
+        <v>215000</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>80000.0</v>
+        <v>172000.0</v>
       </c>
       <c r="S31" s="2">
         <v>0.01</v>
       </c>
       <c r="T31" s="1">
-        <v>800.0</v>
+        <v>1720.0</v>
       </c>
       <c r="U31" s="6">
-        <v>-800.0</v>
+        <v>-1720.0</v>
       </c>
       <c r="V31" s="1">
-        <v>100000</v>
+        <v>215000</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
@@ -12729,11 +12768,11 @@
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>4000.0</v>
+        <v>8600.0</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -12765,23 +12804,23 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>80000.0</v>
+        <v>176000.0</v>
       </c>
       <c r="S32" s="2">
         <v>0.01</v>
       </c>
       <c r="T32" s="1">
-        <v>800.0</v>
+        <v>1760.0</v>
       </c>
       <c r="U32" s="6">
-        <v>-800.0</v>
+        <v>-1760.0</v>
       </c>
       <c r="V32" s="1">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
@@ -12795,11 +12834,11 @@
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>4000.0</v>
+        <v>8800.0</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -12831,23 +12870,23 @@
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>100000</v>
+        <v>225000</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>80000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="S33" s="2">
         <v>0.01</v>
       </c>
       <c r="T33" s="1">
-        <v>800.0</v>
+        <v>1800.0</v>
       </c>
       <c r="U33" s="6">
-        <v>-800.0</v>
+        <v>-1800.0</v>
       </c>
       <c r="V33" s="1">
-        <v>100000</v>
+        <v>225000</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
@@ -12861,11 +12900,11 @@
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>4000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -12897,23 +12936,23 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>80000.0</v>
+        <v>184000.0</v>
       </c>
       <c r="S34" s="2">
         <v>0.01</v>
       </c>
       <c r="T34" s="1">
-        <v>800.0</v>
+        <v>1840.0</v>
       </c>
       <c r="U34" s="6">
-        <v>-800.0</v>
+        <v>-1840.0</v>
       </c>
       <c r="V34" s="1">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
@@ -12927,11 +12966,11 @@
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>4000.0</v>
+        <v>9200.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -12963,23 +13002,23 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>100000</v>
+        <v>235000</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>80000.0</v>
+        <v>188000.0</v>
       </c>
       <c r="S35" s="2">
         <v>0.01</v>
       </c>
       <c r="T35" s="1">
-        <v>800.0</v>
+        <v>1880.0</v>
       </c>
       <c r="U35" s="6">
-        <v>-800.0</v>
+        <v>-1880.0</v>
       </c>
       <c r="V35" s="1">
-        <v>100000</v>
+        <v>235000</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
@@ -12993,11 +13032,11 @@
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>4000.0</v>
+        <v>9400.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -13029,23 +13068,23 @@
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>80000.0</v>
+        <v>192000.0</v>
       </c>
       <c r="S36" s="2">
         <v>0.01</v>
       </c>
       <c r="T36" s="1">
-        <v>800.0</v>
+        <v>1920.0</v>
       </c>
       <c r="U36" s="6">
-        <v>-800.0</v>
+        <v>-1920.0</v>
       </c>
       <c r="V36" s="1">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
@@ -13059,11 +13098,11 @@
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>4000.0</v>
+        <v>9600.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -13095,23 +13134,23 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>100000</v>
+        <v>245000</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>80000.0</v>
+        <v>196000.0</v>
       </c>
       <c r="S37" s="2">
         <v>0.01</v>
       </c>
       <c r="T37" s="1">
-        <v>800.0</v>
+        <v>1960.0</v>
       </c>
       <c r="U37" s="6">
-        <v>-800.0</v>
+        <v>-1960.0</v>
       </c>
       <c r="V37" s="1">
-        <v>100000</v>
+        <v>245000</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -13125,11 +13164,11 @@
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>4000.0</v>
+        <v>9800.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -13161,23 +13200,23 @@
         <v>0</v>
       </c>
       <c r="P38" s="6">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>80000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S38" s="2">
         <v>0.01</v>
       </c>
       <c r="T38" s="1">
-        <v>800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>-800.0</v>
+        <v>-2000.0</v>
       </c>
       <c r="V38" s="1">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
@@ -13191,11 +13230,11 @@
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>4000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -13227,23 +13266,23 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>100000</v>
+        <v>255000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>80000.0</v>
+        <v>204000.0</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
       </c>
       <c r="T39" s="1">
-        <v>800.0</v>
+        <v>2040.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-800.0</v>
+        <v>-2040.0</v>
       </c>
       <c r="V39" s="1">
-        <v>100000</v>
+        <v>255000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -13257,11 +13296,11 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>4000.0</v>
+        <v>10200.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -13293,23 +13332,23 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>80000.0</v>
+        <v>208000.0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
       </c>
       <c r="T40" s="11">
-        <v>800.0</v>
+        <v>2080.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-800.0</v>
+        <v>-2080.0</v>
       </c>
       <c r="V40" s="11">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -13323,11 +13362,11 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>4000.0</v>
+        <v>10400.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -13359,23 +13398,23 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>100000</v>
+        <v>265000</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>80000.0</v>
+        <v>212000.0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
       </c>
       <c r="T41" s="1">
-        <v>800.0</v>
+        <v>2120.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-800.0</v>
+        <v>-2120.0</v>
       </c>
       <c r="V41" s="1">
-        <v>100000</v>
+        <v>265000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -13389,11 +13428,11 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>4000.0</v>
+        <v>10600.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -13425,23 +13464,23 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>80000.0</v>
+        <v>216000.0</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>800.0</v>
+        <v>2160.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-800.0</v>
+        <v>-2160.0</v>
       </c>
       <c r="V42" s="1">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -13455,11 +13494,11 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>4000.0</v>
+        <v>10800.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -13491,23 +13530,23 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>100000</v>
+        <v>275000</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>80000.0</v>
+        <v>220000.0</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>800.0</v>
+        <v>2200.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-800.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="V43" s="1">
-        <v>100000</v>
+        <v>275000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -13521,11 +13560,11 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>4000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -13557,23 +13596,23 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>100000</v>
+        <v>280000</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>80000.0</v>
+        <v>224000.0</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>800.0</v>
+        <v>2240.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-800.0</v>
+        <v>-2240.0</v>
       </c>
       <c r="V44" s="1">
-        <v>100000</v>
+        <v>280000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -13587,11 +13626,11 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>4000.0</v>
+        <v>11200.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -13623,23 +13662,23 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>100000</v>
+        <v>285000</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>80000.0</v>
+        <v>228000.0</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>800.0</v>
+        <v>2280.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-800.0</v>
+        <v>-2280.0</v>
       </c>
       <c r="V45" s="1">
-        <v>100000</v>
+        <v>285000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -13653,11 +13692,11 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>4000.0</v>
+        <v>11400.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -13689,23 +13728,23 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>80000.0</v>
+        <v>232000.0</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>800.0</v>
+        <v>2320.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-800.0</v>
+        <v>-2320.0</v>
       </c>
       <c r="V46" s="1">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -13719,11 +13758,11 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>4000.0</v>
+        <v>11600.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -13755,23 +13794,23 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>100000</v>
+        <v>295000</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>80000.0</v>
+        <v>236000.0</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>800.0</v>
+        <v>2360.0</v>
       </c>
       <c r="U47" s="6">
-        <v>-800.0</v>
+        <v>-2360.0</v>
       </c>
       <c r="V47" s="1">
-        <v>100000</v>
+        <v>295000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -13785,11 +13824,11 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>4000.0</v>
+        <v>11800.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -13821,23 +13860,23 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>80000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>800.0</v>
+        <v>2400.0</v>
       </c>
       <c r="U48" s="6">
-        <v>-800.0</v>
+        <v>-2400.0</v>
       </c>
       <c r="V48" s="1">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -13851,11 +13890,11 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>4000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -13887,23 +13926,23 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>100000</v>
+        <v>305000</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>80000.0</v>
+        <v>244000.0</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>800.0</v>
+        <v>2440.0</v>
       </c>
       <c r="U49" s="6">
-        <v>-800.0</v>
+        <v>-2440.0</v>
       </c>
       <c r="V49" s="1">
-        <v>100000</v>
+        <v>305000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -13917,11 +13956,11 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>4000.0</v>
+        <v>12200.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -13953,23 +13992,23 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>100000</v>
+        <v>310000</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>80000.0</v>
+        <v>248000.0</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>800.0</v>
+        <v>2480.0</v>
       </c>
       <c r="U50" s="6">
-        <v>-800.0</v>
+        <v>-2480.0</v>
       </c>
       <c r="V50" s="1">
-        <v>100000</v>
+        <v>310000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -13983,11 +14022,11 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>4000.0</v>
+        <v>12400.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -14019,23 +14058,23 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>100000</v>
+        <v>315000</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>80000.0</v>
+        <v>252000.0</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>800.0</v>
+        <v>2520.0</v>
       </c>
       <c r="U51" s="6">
-        <v>-800.0</v>
+        <v>-2520.0</v>
       </c>
       <c r="V51" s="1">
-        <v>100000</v>
+        <v>315000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -14049,11 +14088,11 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>4000.0</v>
+        <v>12600.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -14085,23 +14124,23 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>100000</v>
+        <v>320000</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>80000.0</v>
+        <v>256000.0</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>800.0</v>
+        <v>2560.0</v>
       </c>
       <c r="U52" s="6">
-        <v>-800.0</v>
+        <v>-2560.0</v>
       </c>
       <c r="V52" s="1">
-        <v>100000</v>
+        <v>320000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -14115,11 +14154,11 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>4000.0</v>
+        <v>12800.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -14151,23 +14190,23 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>95000.0</v>
+        <v>308750.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>76000.0</v>
+        <v>247000.0</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>760.0</v>
+        <v>2470.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-760.0</v>
+        <v>-2470.0</v>
       </c>
       <c r="V53" s="13">
-        <v>95000.0</v>
+        <v>308750.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -14181,7 +14220,7 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>3800.0</v>
+        <v>12350.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
@@ -14217,23 +14256,23 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>90000.0</v>
+        <v>297237.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>72000.0</v>
+        <v>237789.6</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>720.0</v>
+        <v>2377.896</v>
       </c>
       <c r="U54" s="6">
-        <v>-720.0</v>
+        <v>-2377.896</v>
       </c>
       <c r="V54" s="1">
-        <v>90000.0</v>
+        <v>297237.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -14247,7 +14286,7 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>3600.0</v>
+        <v>11889.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
@@ -14283,23 +14322,23 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>85000.0</v>
+        <v>285446.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>68000.0</v>
+        <v>228356.8</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>680.0</v>
+        <v>2283.568</v>
       </c>
       <c r="U55" s="6">
-        <v>-680.0</v>
+        <v>-2283.568</v>
       </c>
       <c r="V55" s="1">
-        <v>85000.0</v>
+        <v>285446.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -14313,7 +14352,7 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>3400.0</v>
+        <v>11418.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
@@ -14349,23 +14388,23 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>80000.0</v>
+        <v>273361.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>64000.0</v>
+        <v>218688.8</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>640.0</v>
+        <v>2186.888</v>
       </c>
       <c r="U56" s="6">
-        <v>-640.0</v>
+        <v>-2186.888</v>
       </c>
       <c r="V56" s="1">
-        <v>80000.0</v>
+        <v>273361.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -14379,7 +14418,7 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>3200.0</v>
+        <v>10934.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
@@ -14415,23 +14454,23 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>75000.0</v>
+        <v>260963.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>60000.0</v>
+        <v>208770.4</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>600.0</v>
+        <v>2087.704</v>
       </c>
       <c r="U57" s="13">
-        <v>-600.0</v>
+        <v>-2087.704</v>
       </c>
       <c r="V57" s="13">
-        <v>75000.0</v>
+        <v>260963.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -14445,7 +14484,7 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>3000.0</v>
+        <v>10439.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
@@ -14481,23 +14520,23 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>70000.0</v>
+        <v>248232.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>56000.0</v>
+        <v>198585.6</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>560.0</v>
+        <v>1985.856</v>
       </c>
       <c r="U58" s="6">
-        <v>-560.0</v>
+        <v>-1985.856</v>
       </c>
       <c r="V58" s="1">
-        <v>70000.0</v>
+        <v>248232.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -14511,7 +14550,7 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>2800.0</v>
+        <v>9929.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
@@ -14547,23 +14586,23 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>65000.0</v>
+        <v>235144.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>52000.0</v>
+        <v>188115.2</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>520.0</v>
+        <v>1881.152</v>
       </c>
       <c r="U59" s="6">
-        <v>-520.0</v>
+        <v>-1881.152</v>
       </c>
       <c r="V59" s="1">
-        <v>65000.0</v>
+        <v>235144.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -14577,7 +14616,7 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>2600.0</v>
+        <v>9406.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
@@ -14613,23 +14652,23 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>60000.0</v>
+        <v>221671.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>48000.0</v>
+        <v>177336.8</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>480.0</v>
+        <v>1773.368</v>
       </c>
       <c r="U60" s="6">
-        <v>-480.0</v>
+        <v>-1773.368</v>
       </c>
       <c r="V60" s="1">
-        <v>60000.0</v>
+        <v>221671.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -14643,7 +14682,7 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>2400.0</v>
+        <v>8867.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
@@ -14679,23 +14718,23 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>55000.0</v>
+        <v>207782.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>44000.0</v>
+        <v>166225.6</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>440.0</v>
+        <v>1662.256</v>
       </c>
       <c r="U61" s="6">
-        <v>-440.0</v>
+        <v>-1662.256</v>
       </c>
       <c r="V61" s="1">
-        <v>55000.0</v>
+        <v>207782.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -14709,7 +14748,7 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>2200.0</v>
+        <v>8311.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
@@ -14745,23 +14784,23 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>50000.0</v>
+        <v>193438.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>40000.0</v>
+        <v>154750.4</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>400.0</v>
+        <v>1547.504</v>
       </c>
       <c r="U62" s="6">
-        <v>-400.0</v>
+        <v>-1547.504</v>
       </c>
       <c r="V62" s="1">
-        <v>50000.0</v>
+        <v>193438.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -14775,7 +14814,7 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>2000.0</v>
+        <v>7738.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
@@ -14811,23 +14850,23 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>45000.0</v>
+        <v>178594.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>36000.0</v>
+        <v>142875.2</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>360.0</v>
+        <v>1428.752</v>
       </c>
       <c r="U63" s="6">
-        <v>-360.0</v>
+        <v>-1428.752</v>
       </c>
       <c r="V63" s="1">
-        <v>45000.0</v>
+        <v>178594.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -14841,7 +14880,7 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>1800.0</v>
+        <v>7144.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
@@ -14877,23 +14916,23 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>40000.0</v>
+        <v>163195.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>32000.0</v>
+        <v>130556.0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>320.0</v>
+        <v>1305.56</v>
       </c>
       <c r="U64" s="6">
-        <v>-320.0</v>
+        <v>-1305.56</v>
       </c>
       <c r="V64" s="1">
-        <v>40000.0</v>
+        <v>163195.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -14907,7 +14946,7 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>1600.0</v>
+        <v>6528.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
@@ -14943,23 +14982,23 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>35000.0</v>
+        <v>147171.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>28000.0</v>
+        <v>117736.8</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>280.0</v>
+        <v>1177.368</v>
       </c>
       <c r="U65" s="6">
-        <v>-280.0</v>
+        <v>-1177.368</v>
       </c>
       <c r="V65" s="1">
-        <v>35000.0</v>
+        <v>147171.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -14973,7 +15012,7 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>1400.0</v>
+        <v>5887.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
@@ -15009,23 +15048,23 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>30000.0</v>
+        <v>130432.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>24000.0</v>
+        <v>104345.6</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
       </c>
       <c r="T66" s="1">
-        <v>240.0</v>
+        <v>1043.456</v>
       </c>
       <c r="U66" s="6">
-        <v>-240.0</v>
+        <v>-1043.456</v>
       </c>
       <c r="V66" s="1">
-        <v>30000.0</v>
+        <v>130432.0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -15039,7 +15078,7 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>1200.0</v>
+        <v>5217.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
@@ -15075,23 +15114,23 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>25000.0</v>
+        <v>112860.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>20000.0</v>
+        <v>90288.0</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
       </c>
       <c r="T67" s="1">
-        <v>200.0</v>
+        <v>902.88</v>
       </c>
       <c r="U67" s="6">
-        <v>-200.0</v>
+        <v>-902.88</v>
       </c>
       <c r="V67" s="1">
-        <v>25000.0</v>
+        <v>112860.0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -15105,7 +15144,7 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>1000.0</v>
+        <v>4514.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
@@ -15141,23 +15180,23 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>20000.0</v>
+        <v>94288.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>16000.0</v>
+        <v>75430.4</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
       </c>
       <c r="T68" s="1">
-        <v>160.0</v>
+        <v>754.304</v>
       </c>
       <c r="U68" s="6">
-        <v>-160.0</v>
+        <v>-754.304</v>
       </c>
       <c r="V68" s="1">
-        <v>20000.0</v>
+        <v>94288.0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -15171,7 +15210,7 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>800.0</v>
+        <v>3772.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
@@ -15207,23 +15246,23 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>15000.0</v>
+        <v>74466.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>12000.0</v>
+        <v>59572.8</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
       </c>
       <c r="T69" s="1">
-        <v>120.0</v>
+        <v>595.728</v>
       </c>
       <c r="U69" s="6">
-        <v>-120.0</v>
+        <v>-595.728</v>
       </c>
       <c r="V69" s="1">
-        <v>15000.0</v>
+        <v>74466.0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -15237,7 +15276,7 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>600.0</v>
+        <v>2979.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
@@ -15273,23 +15312,23 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>10000.0</v>
+        <v>52977.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>8000.0</v>
+        <v>42381.6</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
       </c>
       <c r="T70" s="1">
-        <v>80.0</v>
+        <v>423.816</v>
       </c>
       <c r="U70" s="6">
-        <v>-80.0</v>
+        <v>-423.816</v>
       </c>
       <c r="V70" s="1">
-        <v>10000.0</v>
+        <v>52977.0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -15303,7 +15342,7 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>400.0</v>
+        <v>2119.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
@@ -15339,23 +15378,23 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>5000.0</v>
+        <v>28988.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>4000.0</v>
+        <v>23190.4</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
       </c>
       <c r="T71" s="1">
-        <v>40.0</v>
+        <v>231.904</v>
       </c>
       <c r="U71" s="6">
-        <v>-40.0</v>
+        <v>-231.904</v>
       </c>
       <c r="V71" s="1">
-        <v>5000.0</v>
+        <v>28988.0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -15369,7 +15408,7 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>200.0</v>
+        <v>1160.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
@@ -15405,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
@@ -15419,7 +15458,7 @@
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
@@ -15695,7 +15734,7 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -149,17 +149,17 @@
   </si>
   <si>
     <t xml:space="preserve">Income no transferResource &amp;&amp; transferRule
- Asset rule  no transferResource &amp;&amp; transferRule
+Using current value: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 15000 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 180000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve">Pensioned, no more salary from here no transferResource &amp;&amp; transferRule
-Using previous value: 15000 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous value: 180000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -701,7 +701,7 @@
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -929,7 +929,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -965,26 +965,26 @@
         <v>0.0</v>
       </c>
       <c r="U7" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y7" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z7" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA7">
         <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC7" s="2">
         <v>0.625</v>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8">
@@ -1041,29 +1041,29 @@
         <v>0.0</v>
       </c>
       <c r="U8" s="8">
-        <v>24200.0</v>
+        <v>299200.0</v>
       </c>
       <c r="V8" s="8">
         <v>100000</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="8">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y8" s="8">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z8" s="8">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA8" s="7">
         <v>0.0</v>
       </c>
       <c r="AB8" s="7">
-        <v>29000.0</v>
+        <v>304000.0</v>
       </c>
       <c r="AC8" s="9">
-        <v>0.65909090909091</v>
+        <v>0.62809917355372</v>
       </c>
       <c r="AD8" s="7"/>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1117,29 +1117,29 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="6">
-        <v>24160.0</v>
+        <v>299160.0</v>
       </c>
       <c r="V9" s="1">
         <v>105000</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y9" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z9" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>29200.0</v>
+        <v>304200.0</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.6606334841629</v>
+        <v>0.62825278810409</v>
       </c>
       <c r="AD9"/>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1193,29 +1193,29 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="6">
-        <v>24120.0</v>
+        <v>299120.0</v>
       </c>
       <c r="V10" s="1">
         <v>110000</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y10" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z10" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA10">
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>29400.0</v>
+        <v>304400.0</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.66216216216216</v>
+        <v>0.62840627580512</v>
       </c>
       <c r="AD10"/>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1269,29 +1269,29 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="6">
-        <v>24080.0</v>
+        <v>299080.0</v>
       </c>
       <c r="V11" s="1">
         <v>115000</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y11" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z11" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA11">
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>29600.0</v>
+        <v>304600.0</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.66367713004484</v>
+        <v>0.62855963681387</v>
       </c>
       <c r="AD11"/>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1345,29 +1345,29 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="6">
-        <v>24040.0</v>
+        <v>299040.0</v>
       </c>
       <c r="V12" s="1">
         <v>120000</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y12" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z12" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA12">
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>29800.0</v>
+        <v>304800.0</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.66517857142857</v>
+        <v>0.62871287128713</v>
       </c>
       <c r="AD12"/>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1421,29 +1421,29 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="6">
-        <v>24000.0</v>
+        <v>299000.0</v>
       </c>
       <c r="V13" s="1">
         <v>125000</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y13" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z13" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA13">
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>30000.0</v>
+        <v>305000.0</v>
       </c>
       <c r="AC13" s="2">
-        <v>0.66666666666667</v>
+        <v>0.62886597938144</v>
       </c>
       <c r="AD13"/>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1497,29 +1497,29 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="6">
-        <v>23960.0</v>
+        <v>298960.0</v>
       </c>
       <c r="V14" s="1">
         <v>130000</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y14" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z14" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA14">
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>30200.0</v>
+        <v>305200.0</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.66814159292035</v>
+        <v>0.62901896125309</v>
       </c>
       <c r="AD14"/>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1573,29 +1573,29 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="6">
-        <v>23920.0</v>
+        <v>298920.0</v>
       </c>
       <c r="V15" s="1">
         <v>135000</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y15" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z15" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA15">
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>30400.0</v>
+        <v>305400.0</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.66960352422907</v>
+        <v>0.6291718170581</v>
       </c>
       <c r="AD15"/>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1649,29 +1649,29 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="6">
-        <v>23880.0</v>
+        <v>298880.0</v>
       </c>
       <c r="V16" s="1">
         <v>140000</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y16" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z16" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA16">
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>30600.0</v>
+        <v>305600.0</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.67105263157895</v>
+        <v>0.62932454695222</v>
       </c>
       <c r="AD16"/>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1725,29 +1725,29 @@
         <v>0.0</v>
       </c>
       <c r="U17" s="6">
-        <v>23840.0</v>
+        <v>298840.0</v>
       </c>
       <c r="V17" s="1">
         <v>145000</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y17" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z17" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA17">
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>30800.0</v>
+        <v>305800.0</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.67248908296943</v>
+        <v>0.62947715109098</v>
       </c>
       <c r="AD17"/>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1801,29 +1801,29 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="6">
-        <v>23800.0</v>
+        <v>298800.0</v>
       </c>
       <c r="V18" s="1">
         <v>150000</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y18" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z18" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA18">
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>31000.0</v>
+        <v>306000.0</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.67391304347826</v>
+        <v>0.62962962962963</v>
       </c>
       <c r="AD18"/>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1877,29 +1877,29 @@
         <v>0.0</v>
       </c>
       <c r="U19" s="6">
-        <v>23760.0</v>
+        <v>298760.0</v>
       </c>
       <c r="V19" s="1">
         <v>155000</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y19" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z19" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA19">
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>31200.0</v>
+        <v>306200.0</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.67532467532468</v>
+        <v>0.62978198272316</v>
       </c>
       <c r="AD19"/>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1953,29 +1953,29 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="6">
-        <v>23720.0</v>
+        <v>298720.0</v>
       </c>
       <c r="V20" s="1">
         <v>160000</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y20" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z20" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA20">
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>31400.0</v>
+        <v>306400.0</v>
       </c>
       <c r="AC20" s="2">
-        <v>0.67672413793103</v>
+        <v>0.62993421052632</v>
       </c>
       <c r="AD20"/>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -2029,29 +2029,29 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="6">
-        <v>23680.0</v>
+        <v>298680.0</v>
       </c>
       <c r="V21" s="1">
         <v>165000</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y21" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z21" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA21">
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>31600.0</v>
+        <v>306600.0</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.67811158798283</v>
+        <v>0.63008631319359</v>
       </c>
       <c r="AD21"/>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -2105,29 +2105,29 @@
         <v>0.0</v>
       </c>
       <c r="U22" s="6">
-        <v>23640.0</v>
+        <v>298640.0</v>
       </c>
       <c r="V22" s="1">
         <v>170000</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y22" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z22" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA22">
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>31800.0</v>
+        <v>306800.0</v>
       </c>
       <c r="AC22" s="2">
-        <v>0.67948717948718</v>
+        <v>0.63023829087921</v>
       </c>
       <c r="AD22"/>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2181,29 +2181,29 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>23600.0</v>
+        <v>298600.0</v>
       </c>
       <c r="V23" s="1">
         <v>175000</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y23" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z23" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>32000.0</v>
+        <v>307000.0</v>
       </c>
       <c r="AC23" s="2">
-        <v>0.68085106382979</v>
+        <v>0.63039014373717</v>
       </c>
       <c r="AD23"/>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2257,29 +2257,29 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>23560.0</v>
+        <v>298560.0</v>
       </c>
       <c r="V24" s="1">
         <v>180000</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y24" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z24" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA24">
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>32200.0</v>
+        <v>307200.0</v>
       </c>
       <c r="AC24" s="2">
-        <v>0.68220338983051</v>
+        <v>0.63054187192118</v>
       </c>
       <c r="AD24"/>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2333,29 +2333,29 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>23520.0</v>
+        <v>298520.0</v>
       </c>
       <c r="V25" s="1">
         <v>185000</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y25" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z25" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA25">
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>32400.0</v>
+        <v>307400.0</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.68354430379747</v>
+        <v>0.63069347558474</v>
       </c>
       <c r="AD25"/>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2409,29 +2409,29 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>23480.0</v>
+        <v>298480.0</v>
       </c>
       <c r="V26" s="1">
         <v>190000</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y26" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z26" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>32600.0</v>
+        <v>307600.0</v>
       </c>
       <c r="AC26" s="2">
-        <v>0.68487394957983</v>
+        <v>0.63084495488105</v>
       </c>
       <c r="AD26"/>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2485,29 +2485,29 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>23440.0</v>
+        <v>298440.0</v>
       </c>
       <c r="V27" s="1">
         <v>195000</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y27" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z27" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>32800.0</v>
+        <v>307800.0</v>
       </c>
       <c r="AC27" s="2">
-        <v>0.68619246861925</v>
+        <v>0.6309963099631</v>
       </c>
       <c r="AD27"/>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2561,29 +2561,29 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>23400.0</v>
+        <v>298400.0</v>
       </c>
       <c r="V28" s="1">
         <v>200000</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y28" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z28" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA28">
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>33000.0</v>
+        <v>308000.0</v>
       </c>
       <c r="AC28" s="2">
-        <v>0.6875</v>
+        <v>0.63114754098361</v>
       </c>
       <c r="AD28"/>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2637,29 +2637,29 @@
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>23360.0</v>
+        <v>298360.0</v>
       </c>
       <c r="V29" s="1">
         <v>205000</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y29" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z29" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA29">
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>33200.0</v>
+        <v>308200.0</v>
       </c>
       <c r="AC29" s="2">
-        <v>0.68879668049793</v>
+        <v>0.63129864809504</v>
       </c>
       <c r="AD29"/>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2713,29 +2713,29 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>23320.0</v>
+        <v>298320.0</v>
       </c>
       <c r="V30" s="1">
         <v>210000</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y30" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z30" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA30">
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>33400.0</v>
+        <v>308400.0</v>
       </c>
       <c r="AC30" s="2">
-        <v>0.6900826446281</v>
+        <v>0.63144963144963</v>
       </c>
       <c r="AD30"/>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2789,29 +2789,29 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>23280.0</v>
+        <v>298280.0</v>
       </c>
       <c r="V31" s="1">
         <v>215000</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y31" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z31" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>33600.0</v>
+        <v>308600.0</v>
       </c>
       <c r="AC31" s="2">
-        <v>0.69135802469136</v>
+        <v>0.63160049119935</v>
       </c>
       <c r="AD31"/>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2865,29 +2865,29 @@
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>23240.0</v>
+        <v>298240.0</v>
       </c>
       <c r="V32" s="1">
         <v>220000</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y32" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z32" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA32">
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>33800.0</v>
+        <v>308800.0</v>
       </c>
       <c r="AC32" s="2">
-        <v>0.69262295081967</v>
+        <v>0.63175122749591</v>
       </c>
       <c r="AD32"/>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2941,29 +2941,29 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>23200.0</v>
+        <v>298200.0</v>
       </c>
       <c r="V33" s="1">
         <v>225000</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y33" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z33" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA33">
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>34000.0</v>
+        <v>309000.0</v>
       </c>
       <c r="AC33" s="2">
-        <v>0.69387755102041</v>
+        <v>0.6319018404908</v>
       </c>
       <c r="AD33"/>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -3017,29 +3017,29 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>23160.0</v>
+        <v>298160.0</v>
       </c>
       <c r="V34" s="1">
         <v>230000</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y34" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z34" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>34200.0</v>
+        <v>309200.0</v>
       </c>
       <c r="AC34" s="2">
-        <v>0.69512195121951</v>
+        <v>0.63205233033524</v>
       </c>
       <c r="AD34"/>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -3093,29 +3093,29 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>23120.0</v>
+        <v>298120.0</v>
       </c>
       <c r="V35" s="1">
         <v>235000</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y35" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z35" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>34400.0</v>
+        <v>309400.0</v>
       </c>
       <c r="AC35" s="2">
-        <v>0.69635627530364</v>
+        <v>0.63220269718022</v>
       </c>
       <c r="AD35"/>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3169,29 +3169,29 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>23080.0</v>
+        <v>298080.0</v>
       </c>
       <c r="V36" s="1">
         <v>240000</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y36" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z36" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>34600.0</v>
+        <v>309600.0</v>
       </c>
       <c r="AC36" s="2">
-        <v>0.69758064516129</v>
+        <v>0.63235294117647</v>
       </c>
       <c r="AD36"/>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3245,29 +3245,29 @@
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>23040.0</v>
+        <v>298040.0</v>
       </c>
       <c r="V37" s="1">
         <v>245000</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y37" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z37" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>34800.0</v>
+        <v>309800.0</v>
       </c>
       <c r="AC37" s="2">
-        <v>0.69879518072289</v>
+        <v>0.63250306247448</v>
       </c>
       <c r="AD37"/>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3321,29 +3321,29 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>23000.0</v>
+        <v>298000.0</v>
       </c>
       <c r="V38" s="1">
         <v>250000</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y38" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z38" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA38">
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>35000.0</v>
+        <v>310000.0</v>
       </c>
       <c r="AC38" s="2">
-        <v>0.7</v>
+        <v>0.63265306122449</v>
       </c>
       <c r="AD38"/>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3397,29 +3397,29 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>22960.0</v>
+        <v>297960.0</v>
       </c>
       <c r="V39" s="1">
         <v>255000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y39" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z39" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>35200.0</v>
+        <v>310200.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>0.70119521912351</v>
+        <v>0.6328029375765</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3473,29 +3473,29 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>22920.0</v>
+        <v>297920.0</v>
       </c>
       <c r="V40" s="11">
         <v>260000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y40" s="11">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z40" s="11">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>35400.0</v>
+        <v>310400.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.70238095238095</v>
+        <v>0.63295269168026</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3549,29 +3549,29 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>22880.0</v>
+        <v>297880.0</v>
       </c>
       <c r="V41" s="1">
         <v>265000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y41" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z41" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>35600.0</v>
+        <v>310600.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.70355731225296</v>
+        <v>0.63310232368528</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3625,29 +3625,29 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>22840.0</v>
+        <v>297840.0</v>
       </c>
       <c r="V42" s="1">
         <v>270000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y42" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z42" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>35800.0</v>
+        <v>310800.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.70472440944882</v>
+        <v>0.63325183374083</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3701,29 +3701,29 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>22800.0</v>
+        <v>297800.0</v>
       </c>
       <c r="V43" s="1">
         <v>275000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y43" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z43" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>36000.0</v>
+        <v>311000.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.70588235294118</v>
+        <v>0.63340122199593</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3777,29 +3777,29 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>22760.0</v>
+        <v>297760.0</v>
       </c>
       <c r="V44" s="1">
         <v>280000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y44" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z44" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>36200.0</v>
+        <v>311200.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.70703125</v>
+        <v>0.63355048859935</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3853,29 +3853,29 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>22720.0</v>
+        <v>297720.0</v>
       </c>
       <c r="V45" s="1">
         <v>285000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y45" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z45" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>36400.0</v>
+        <v>311400.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.70817120622568</v>
+        <v>0.63369963369963</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3929,29 +3929,29 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>22680.0</v>
+        <v>297680.0</v>
       </c>
       <c r="V46" s="1">
         <v>290000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y46" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z46" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>36600.0</v>
+        <v>311600.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.7093023255814</v>
+        <v>0.63384865744508</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -4005,29 +4005,29 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>22640.0</v>
+        <v>297640.0</v>
       </c>
       <c r="V47" s="1">
         <v>295000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y47" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z47" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>36800.0</v>
+        <v>311800.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.71042471042471</v>
+        <v>0.63399755998373</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4081,29 +4081,29 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>22600.0</v>
+        <v>297600.0</v>
       </c>
       <c r="V48" s="1">
         <v>300000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y48" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z48" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>37000.0</v>
+        <v>312000.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.71153846153846</v>
+        <v>0.63414634146341</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4157,29 +4157,29 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>22560.0</v>
+        <v>297560.0</v>
       </c>
       <c r="V49" s="1">
         <v>305000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y49" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z49" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>37200.0</v>
+        <v>312200.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.71264367816092</v>
+        <v>0.63429500203169</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4233,29 +4233,29 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>22520.0</v>
+        <v>297520.0</v>
       </c>
       <c r="V50" s="1">
         <v>310000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y50" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z50" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>37400.0</v>
+        <v>312400.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.71374045801527</v>
+        <v>0.63444354183591</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4309,29 +4309,29 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>22480.0</v>
+        <v>297480.0</v>
       </c>
       <c r="V51" s="1">
         <v>315000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y51" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z51" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>37600.0</v>
+        <v>312600.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.7148288973384</v>
+        <v>0.63459196102314</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4385,29 +4385,29 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>22440.0</v>
+        <v>297440.0</v>
       </c>
       <c r="V52" s="1">
         <v>320000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y52" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z52" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>37800.0</v>
+        <v>312800.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.71590909090909</v>
+        <v>0.63474025974026</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4461,7 +4461,7 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-17470.0</v>
+        <v>-182470.0</v>
       </c>
       <c r="V53" s="13">
         <v>308750.0</v>
@@ -4480,10 +4480,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-2650.0</v>
+        <v>-167650.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>-0.21457489878543</v>
+        <v>-13.574898785425</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4537,7 +4537,7 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-17377.896</v>
+        <v>-182377.896</v>
       </c>
       <c r="V54" s="1">
         <v>297237.0</v>
@@ -4556,10 +4556,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-3111.0</v>
+        <v>-168111.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>-0.26165988756447</v>
+        <v>-14.139474560704</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4613,7 +4613,7 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-17283.568</v>
+        <v>-182283.568</v>
       </c>
       <c r="V55" s="1">
         <v>285446.0</v>
@@ -4632,10 +4632,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-3582.0</v>
+        <v>-168582.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>-0.31371958268814</v>
+        <v>-14.764789137</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4689,7 +4689,7 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-17186.888</v>
+        <v>-182186.888</v>
       </c>
       <c r="V56" s="1">
         <v>273361.0</v>
@@ -4708,10 +4708,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-4066.0</v>
+        <v>-169066.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>-0.37185260516314</v>
+        <v>-15.461788623834</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4765,7 +4765,7 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-17087.704</v>
+        <v>-182087.704</v>
       </c>
       <c r="V57" s="13">
         <v>260963.0</v>
@@ -4784,10 +4784,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-4561.0</v>
+        <v>-169561.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>-0.43693933622774</v>
+        <v>-16.243777853565</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4841,7 +4841,7 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-16985.856</v>
+        <v>-181985.856</v>
       </c>
       <c r="V58" s="1">
         <v>248232.0</v>
@@ -4860,10 +4860,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-5071.0</v>
+        <v>-170071.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>-0.5107117535209</v>
+        <v>-17.128230848561</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4917,7 +4917,7 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-16881.152</v>
+        <v>-181881.152</v>
       </c>
       <c r="V59" s="1">
         <v>235144.0</v>
@@ -4936,10 +4936,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-5594.0</v>
+        <v>-170594.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>-0.59474194536114</v>
+        <v>-18.137184023407</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4993,7 +4993,7 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-16773.368</v>
+        <v>-181773.368</v>
       </c>
       <c r="V60" s="1">
         <v>221671.0</v>
@@ -5012,10 +5012,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-6133.0</v>
+        <v>-171133.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>-0.69167820779443</v>
+        <v>-19.300336985894</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5069,7 +5069,7 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-16662.256</v>
+        <v>-181662.256</v>
       </c>
       <c r="V61" s="1">
         <v>207782.0</v>
@@ -5088,10 +5088,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-6689.0</v>
+        <v>-171689.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>-0.80480984878382</v>
+        <v>-20.657347604701</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5145,7 +5145,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-16547.504</v>
+        <v>-181547.504</v>
       </c>
       <c r="V62" s="1">
         <v>193438.0</v>
@@ -5164,10 +5164,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-7262.0</v>
+        <v>-172262.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>-0.93854361604235</v>
+        <v>-22.263205781697</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5221,7 +5221,7 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-16428.752</v>
+        <v>-181428.752</v>
       </c>
       <c r="V63" s="1">
         <v>178594.0</v>
@@ -5240,10 +5240,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-7856.0</v>
+        <v>-172856.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>-1.0997009977939</v>
+        <v>-24.196781526815</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5297,7 +5297,7 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-16305.56</v>
+        <v>-181305.56</v>
       </c>
       <c r="V64" s="1">
         <v>163195.0</v>
@@ -5316,10 +5316,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-8472.0</v>
+        <v>-173472.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>-1.2978338797145</v>
+        <v>-26.574343576703</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5373,7 +5373,7 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-16177.368</v>
+        <v>-181177.368</v>
       </c>
       <c r="V65" s="1">
         <v>147171.0</v>
@@ -5392,10 +5392,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-9113.0</v>
+        <v>-174113.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>-1.5480291633542</v>
+        <v>-29.576648932195</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5449,7 +5449,7 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-16043.456</v>
+        <v>-181043.456</v>
       </c>
       <c r="V66" s="1">
         <v>130432.0</v>
@@ -5468,10 +5468,10 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-9783.0</v>
+        <v>-174783.0</v>
       </c>
       <c r="AC66" s="2">
-        <v>-1.8751150024534</v>
+        <v>-33.500789683513</v>
       </c>
       <c r="AD66"/>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5525,7 +5525,7 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-15902.88</v>
+        <v>-180902.88</v>
       </c>
       <c r="V67" s="1">
         <v>112860.0</v>
@@ -5544,10 +5544,10 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-10486.0</v>
+        <v>-175486.0</v>
       </c>
       <c r="AC67" s="2">
-        <v>-2.3227892964735</v>
+        <v>-38.872496898813</v>
       </c>
       <c r="AD67"/>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5601,7 +5601,7 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-15754.304</v>
+        <v>-180754.304</v>
       </c>
       <c r="V68" s="1">
         <v>94288.0</v>
@@ -5620,10 +5620,10 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-11228.0</v>
+        <v>-176228.0</v>
       </c>
       <c r="AC68" s="2">
-        <v>-2.9770490412354</v>
+        <v>-46.725988460886</v>
       </c>
       <c r="AD68"/>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5677,7 +5677,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-15595.728</v>
+        <v>-180595.728</v>
       </c>
       <c r="V69" s="1">
         <v>74466.0</v>
@@ -5696,10 +5696,10 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-12021.0</v>
+        <v>-177021.0</v>
       </c>
       <c r="AC69" s="2">
-        <v>-4.0357344291354</v>
+        <v>-59.430142615422</v>
       </c>
       <c r="AD69"/>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5753,7 +5753,7 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-15423.816</v>
+        <v>-180423.816</v>
       </c>
       <c r="V70" s="1">
         <v>52977.0</v>
@@ -5772,10 +5772,10 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-12881.0</v>
+        <v>-177881.0</v>
       </c>
       <c r="AC70" s="2">
-        <v>-6.0785812711177</v>
+        <v>-83.942559978859</v>
       </c>
       <c r="AD70"/>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5829,7 +5829,7 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-15231.904</v>
+        <v>-180231.904</v>
       </c>
       <c r="V71" s="1">
         <v>28988.0</v>
@@ -5848,10 +5848,10 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-13840.0</v>
+        <v>-178840.0</v>
       </c>
       <c r="AC71" s="2">
-        <v>-11.935973506278</v>
+        <v>-154.23623568373</v>
       </c>
       <c r="AD71"/>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5903,7 +5903,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V72" s="5">
         <v>0.0</v>
@@ -5922,7 +5922,7 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15"/>
@@ -6184,7 +6184,7 @@
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6204,7 +6204,7 @@
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6456,24 +6456,24 @@
         <v>0.0</v>
       </c>
       <c r="U7" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y7" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7">
         <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -6520,24 +6520,24 @@
         <v>0.0</v>
       </c>
       <c r="U8" s="8">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V8" s="8">
         <v>0</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="8">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y8" s="8">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="7">
         <v>0.0</v>
       </c>
       <c r="AB8" s="7">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="7" t="s">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6584,24 +6584,24 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y9" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9">
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6648,24 +6648,24 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y10" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10">
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6712,24 +6712,24 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y11" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11">
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6776,24 +6776,24 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y12" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12">
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6840,24 +6840,24 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y13" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13">
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6904,24 +6904,24 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y14" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6968,24 +6968,24 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y15" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15">
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -7032,24 +7032,24 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y16" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16">
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -7096,24 +7096,24 @@
         <v>0.0</v>
       </c>
       <c r="U17" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y17" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17">
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -7160,24 +7160,24 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y18" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18">
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -7224,24 +7224,24 @@
         <v>0.0</v>
       </c>
       <c r="U19" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y19" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19">
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7288,24 +7288,24 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y20" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20">
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7352,24 +7352,24 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V21" s="1">
         <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y21" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21">
         <v>0.0</v>
       </c>
       <c r="AB21">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7416,24 +7416,24 @@
         <v>0.0</v>
       </c>
       <c r="U22" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V22" s="1">
         <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y22" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22">
         <v>0.0</v>
       </c>
       <c r="AB22">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7480,24 +7480,24 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V23" s="1">
         <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y23" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7544,24 +7544,24 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V24" s="1">
         <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y24" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24">
         <v>0.0</v>
       </c>
       <c r="AB24">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7608,24 +7608,24 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V25" s="1">
         <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y25" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25">
         <v>0.0</v>
       </c>
       <c r="AB25">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7672,24 +7672,24 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V26" s="1">
         <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y26" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7736,24 +7736,24 @@
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V27" s="1">
         <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y27" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7800,24 +7800,24 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V28" s="1">
         <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y28" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28">
         <v>0.0</v>
       </c>
       <c r="AB28">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7864,24 +7864,24 @@
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V29" s="1">
         <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y29" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29">
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7928,24 +7928,24 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y30" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30">
         <v>0.0</v>
       </c>
       <c r="AB30">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -7992,24 +7992,24 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V31" s="1">
         <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y31" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -8056,24 +8056,24 @@
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V32" s="1">
         <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y32" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32">
         <v>0.0</v>
       </c>
       <c r="AB32">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -8120,24 +8120,24 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V33" s="1">
         <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y33" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33">
         <v>0.0</v>
       </c>
       <c r="AB33">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -8184,24 +8184,24 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y34" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -8248,24 +8248,24 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V35" s="1">
         <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y35" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -8312,24 +8312,24 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V36" s="1">
         <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y36" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8376,24 +8376,24 @@
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y37" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
@@ -8440,24 +8440,24 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V38" s="1">
         <v>0</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y38" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38">
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
@@ -8504,24 +8504,24 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y39" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
@@ -8568,24 +8568,24 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V40" s="11">
         <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y40" s="11">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -8632,24 +8632,24 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V41" s="1">
         <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y41" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -8696,24 +8696,24 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V42" s="1">
         <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y42" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -8760,24 +8760,24 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V43" s="1">
         <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y43" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -8824,24 +8824,24 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y44" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -8888,24 +8888,24 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V45" s="1">
         <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y45" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -8952,24 +8952,24 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V46" s="1">
         <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y46" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -9016,24 +9016,24 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y47" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -9080,24 +9080,24 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V48" s="1">
         <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y48" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -9144,24 +9144,24 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y49" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
@@ -9208,24 +9208,24 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y50" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -9272,24 +9272,24 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V51" s="1">
         <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y51" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -9336,24 +9336,24 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y52" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
@@ -9372,7 +9372,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
@@ -9400,7 +9400,7 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V53" s="13">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -9464,7 +9464,7 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V54" s="1">
         <v>0</v>
@@ -9481,7 +9481,7 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -9528,7 +9528,7 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -9592,7 +9592,7 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
@@ -9656,7 +9656,7 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V57" s="13">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -9720,7 +9720,7 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V58" s="1">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
@@ -9784,7 +9784,7 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V59" s="1">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
@@ -9848,7 +9848,7 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V60" s="1">
         <v>0</v>
@@ -9865,7 +9865,7 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
@@ -9912,7 +9912,7 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V61" s="1">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
@@ -9976,7 +9976,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V62" s="1">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
@@ -10040,7 +10040,7 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V63" s="1">
         <v>0</v>
@@ -10057,7 +10057,7 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
@@ -10104,7 +10104,7 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V64" s="1">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
@@ -10168,7 +10168,7 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V65" s="1">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
@@ -10232,7 +10232,7 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V66" s="1">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
@@ -10296,7 +10296,7 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V67" s="1">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
@@ -10360,7 +10360,7 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V68" s="1">
         <v>0</v>
@@ -10377,7 +10377,7 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
@@ -10424,7 +10424,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V69" s="1">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
@@ -10488,7 +10488,7 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V70" s="1">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
@@ -10552,7 +10552,7 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V71" s="1">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5"/>
@@ -10616,7 +10616,7 @@
         <v>0.0</v>
       </c>
       <c r="U72" s="5">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="V72" s="5">
         <v>0</v>
@@ -10633,7 +10633,7 @@
         <v>0.0</v>
       </c>
       <c r="AB72" s="15">
-        <v>-15000.0</v>
+        <v>-180000.0</v>
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -681,7 +681,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -6184,7 +6184,7 @@
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -9180,7 +9180,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>2160000</v>
+        <v>180000</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5"/>

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -144,22 +144,22 @@
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve">Income no transferResource &amp;&amp; transferRule
-Using current value: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+Using current amount: 15000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 180000 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 180000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve">Pensioned, no more salary from here no transferResource &amp;&amp; transferRule
-Using previous value: 180000 Asset rule  no transferResource &amp;&amp; transferRule
+Using previous amount: 180000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
@@ -170,107 +170,107 @@
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
+Using previous amount: 0 Asset rule +5000 no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0Uttak fra 2068, 1/20 Asset rule +5000Divisor is: 16250 new rule: 1/19 transfer 16250 to income.2068.income.amount reduce fond.2068 by 16250
+Using previous amount: 0Uttak fra 2068, 1/20 Asset rule +5000Divisor is: 16250 new rule: 1/19 transfer 16250 to income.2068.income.amount reduce fond.2068 by 16250
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 16513 new rule: 1/18 transfer 16513 to income.2069.income.amount reduce fond.2069 by 16513
+Using previous amount: 0 Asset rule +5000Divisor is: 16513 new rule: 1/18 transfer 16513 to income.2069.income.amount reduce fond.2069 by 16513
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 16791 new rule: 1/17 transfer 16791 to income.2070.income.amount reduce fond.2070 by 16791
+Using previous amount: 0 Asset rule +5000Divisor is: 16791 new rule: 1/17 transfer 16791 to income.2070.income.amount reduce fond.2070 by 16791
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 17085 new rule: 1/16 transfer 17085 to income.2071.income.amount reduce fond.2071 by 17085
+Using previous amount: 0 Asset rule +5000Divisor is: 17085 new rule: 1/16 transfer 17085 to income.2071.income.amount reduce fond.2071 by 17085
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 17398 new rule: 1/15 transfer 17398 to income.2072.income.amount reduce fond.2072 by 17398
+Using previous amount: 0 Asset rule +5000Divisor is: 17398 new rule: 1/15 transfer 17398 to income.2072.income.amount reduce fond.2072 by 17398
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 17731 new rule: 1/14 transfer 17731 to income.2073.income.amount reduce fond.2073 by 17731
+Using previous amount: 0 Asset rule +5000Divisor is: 17731 new rule: 1/14 transfer 17731 to income.2073.income.amount reduce fond.2073 by 17731
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 18088 new rule: 1/13 transfer 18088 to income.2074.income.amount reduce fond.2074 by 18088
+Using previous amount: 0 Asset rule +5000Divisor is: 18088 new rule: 1/13 transfer 18088 to income.2074.income.amount reduce fond.2074 by 18088
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 18473 new rule: 1/12 transfer 18473 to income.2075.income.amount reduce fond.2075 by 18473
+Using previous amount: 0 Asset rule +5000Divisor is: 18473 new rule: 1/12 transfer 18473 to income.2075.income.amount reduce fond.2075 by 18473
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 18889 new rule: 1/11 transfer 18889 to income.2076.income.amount reduce fond.2076 by 18889
+Using previous amount: 0 Asset rule +5000Divisor is: 18889 new rule: 1/11 transfer 18889 to income.2076.income.amount reduce fond.2076 by 18889
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 19344 new rule: 1/10 transfer 19344 to income.2077.income.amount reduce fond.2077 by 19344
+Using previous amount: 0 Asset rule +5000Divisor is: 19344 new rule: 1/10 transfer 19344 to income.2077.income.amount reduce fond.2077 by 19344
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 19844 new rule: 1/9 transfer 19844 to income.2078.income.amount reduce fond.2078 by 19844
+Using previous amount: 0 Asset rule +5000Divisor is: 19844 new rule: 1/9 transfer 19844 to income.2078.income.amount reduce fond.2078 by 19844
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 20399 new rule: 1/8 transfer 20399 to income.2079.income.amount reduce fond.2079 by 20399
+Using previous amount: 0 Asset rule +5000Divisor is: 20399 new rule: 1/8 transfer 20399 to income.2079.income.amount reduce fond.2079 by 20399
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 21024 new rule: 1/7 transfer 21024 to income.2080.income.amount reduce fond.2080 by 21024
+Using previous amount: 0 Asset rule +5000Divisor is: 21024 new rule: 1/7 transfer 21024 to income.2080.income.amount reduce fond.2080 by 21024
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 21739 new rule: 1/6 transfer 21739 to income.2081.income.amount reduce fond.2081 by 21739
+Using previous amount: 0 Asset rule +5000Divisor is: 21739 new rule: 1/6 transfer 21739 to income.2081.income.amount reduce fond.2081 by 21739
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 22572 new rule: 1/5 transfer 22572 to income.2082.income.amount reduce fond.2082 by 22572
+Using previous amount: 0 Asset rule +5000Divisor is: 22572 new rule: 1/5 transfer 22572 to income.2082.income.amount reduce fond.2082 by 22572
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 23572 new rule: 1/4 transfer 23572 to income.2083.income.amount reduce fond.2083 by 23572
+Using previous amount: 0 Asset rule +5000Divisor is: 23572 new rule: 1/4 transfer 23572 to income.2083.income.amount reduce fond.2083 by 23572
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 24822 new rule: 1/3 transfer 24822 to income.2084.income.amount reduce fond.2084 by 24822
+Using previous amount: 0 Asset rule +5000Divisor is: 24822 new rule: 1/3 transfer 24822 to income.2084.income.amount reduce fond.2084 by 24822
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 26489 new rule: 1/2 transfer 26489 to income.2085.income.amount reduce fond.2085 by 26489
+Using previous amount: 0 Asset rule +5000Divisor is: 26489 new rule: 1/2 transfer 26489 to income.2085.income.amount reduce fond.2085 by 26489
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 28989 new rule: 1/1 transfer 28989 to income.2086.income.amount reduce fond.2086 by 28989
+Using previous amount: 0 Asset rule +5000Divisor is: 28989 new rule: 1/1 transfer 28989 to income.2086.income.amount reduce fond.2086 by 28989
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule +5000Divisor is: 33988 new rule:  transfer 33988 to income.2087.income.amount reduce fond.2087 by 33988
+Using previous amount: 0 Asset rule +5000Divisor is: 33988 new rule:  transfer 33988 to income.2087.income.amount reduce fond.2087 by 33988
 </t>
   </si>
   <si>

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>private</t>
   </si>
@@ -170,13 +170,64 @@
     <t>000 Asset rule Using current amount: 100000 * 1</t>
   </si>
   <si>
-    <t>00Uttak fra 2068, 1|3 Asset rule 1|2Adding divisor: 33333 new rule: 1|2</t>
+    <t>00Uttak fra 2068, 1|20 Asset rule 1|19Adding divisor: 5000 new rule: 1|19</t>
   </si>
   <si>
-    <t>000 Asset rule 1|1Adding divisor: 33334 new rule: 1|1</t>
+    <t>000 Asset rule 1|18Adding divisor: 5000 new rule: 1|18</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule Adding divisor: 33333 new rule: </t>
+    <t>000 Asset rule 1|17Adding divisor: 5000 new rule: 1|17</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|16Adding divisor: 5000 new rule: 1|16</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|15Adding divisor: 5000 new rule: 1|15</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|14Adding divisor: 5000 new rule: 1|14</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|13Adding divisor: 5000 new rule: 1|13</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|12Adding divisor: 5000 new rule: 1|12</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|11Adding divisor: 5000 new rule: 1|11</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|10Adding divisor: 5000 new rule: 1|10</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|9Adding divisor: 5000 new rule: 1|9</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|8Adding divisor: 5000 new rule: 1|8</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|7Adding divisor: 5000 new rule: 1|7</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|6Adding divisor: 5000 new rule: 1|6</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|5Adding divisor: 5000 new rule: 1|5</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|4Adding divisor: 5000 new rule: 1|4</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|3Adding divisor: 5000 new rule: 1|3</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|2Adding divisor: 5000 new rule: 1|2</t>
+  </si>
+  <si>
+    <t>000 Asset rule 1|1Adding divisor: 5000 new rule: 1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000 Asset rule Adding divisor: 5000 new rule: </t>
   </si>
   <si>
     <t>total</t>
@@ -4489,7 +4540,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4518,20 +4569,20 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>100000.0</v>
+        <v>95000.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>100000.0</v>
+        <v>95000.0</v>
       </c>
       <c r="S53" s="13">
         <v>100000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>100000.0</v>
+        <v>95000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>80000.0</v>
+        <v>76000.0</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -4556,7 +4607,7 @@
       </c>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
       <c r="AG53"/>
     </row>
@@ -4568,7 +4619,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4597,20 +4648,20 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>100000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>100000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="S54" s="1">
         <v>100000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>100000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>80000.0</v>
+        <v>72000.0</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -4635,7 +4686,7 @@
       </c>
       <c r="AE54"/>
       <c r="AF54">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
       <c r="AG54"/>
     </row>
@@ -4647,7 +4698,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4676,20 +4727,20 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>100000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>100000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="S55" s="1">
         <v>100000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>100000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>80000.0</v>
+        <v>68000.0</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -4714,7 +4765,7 @@
       </c>
       <c r="AE55"/>
       <c r="AF55">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="AG55"/>
     </row>
@@ -4726,7 +4777,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4755,20 +4806,20 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>100000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>100000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="S56" s="1">
         <v>100000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>100000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>80000.0</v>
+        <v>64000.0</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4793,7 +4844,7 @@
       </c>
       <c r="AE56"/>
       <c r="AF56">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="AG56"/>
     </row>
@@ -4805,7 +4856,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4834,20 +4885,20 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="S57" s="13">
         <v>100000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>80000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4872,7 +4923,7 @@
       </c>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3">
-        <v>0.44</v>
+        <v>0.21</v>
       </c>
       <c r="AG57"/>
     </row>
@@ -4884,7 +4935,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4913,20 +4964,20 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>100000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>100000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="S58" s="1">
         <v>100000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>100000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>80000.0</v>
+        <v>56000.0</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4951,7 +5002,7 @@
       </c>
       <c r="AE58"/>
       <c r="AF58">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="AG58"/>
     </row>
@@ -4963,7 +5014,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -4992,20 +5043,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>100000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>100000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="S59" s="1">
         <v>100000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>100000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>80000.0</v>
+        <v>52000.0</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -5030,7 +5081,7 @@
       </c>
       <c r="AE59"/>
       <c r="AF59">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="AG59"/>
     </row>
@@ -5042,7 +5093,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -5071,20 +5122,20 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>100000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>100000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="S60" s="1">
         <v>100000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>100000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>80000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -5109,7 +5160,7 @@
       </c>
       <c r="AE60"/>
       <c r="AF60">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="AG60"/>
     </row>
@@ -5121,7 +5172,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -5150,20 +5201,20 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>100000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>100000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="S61" s="1">
         <v>100000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>100000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>80000.0</v>
+        <v>44000.0</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -5188,7 +5239,7 @@
       </c>
       <c r="AE61"/>
       <c r="AF61">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="AG61"/>
     </row>
@@ -5200,7 +5251,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5229,20 +5280,20 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="S62" s="1">
         <v>100000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>80000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -5267,7 +5318,7 @@
       </c>
       <c r="AE62"/>
       <c r="AF62">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="AG62"/>
     </row>
@@ -5279,7 +5330,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5308,20 +5359,20 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>100000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>100000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="S63" s="1">
         <v>100000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>100000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>80000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -5346,7 +5397,7 @@
       </c>
       <c r="AE63"/>
       <c r="AF63">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="AG63"/>
     </row>
@@ -5358,7 +5409,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5387,20 +5438,20 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>100000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>100000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="S64" s="1">
         <v>100000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>100000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>80000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -5425,7 +5476,7 @@
       </c>
       <c r="AE64"/>
       <c r="AF64">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="AG64"/>
     </row>
@@ -5437,7 +5488,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5466,20 +5517,20 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>100000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>100000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="S65" s="1">
         <v>100000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>100000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>80000.0</v>
+        <v>28000.0</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -5504,7 +5555,7 @@
       </c>
       <c r="AE65"/>
       <c r="AF65">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="AG65"/>
     </row>
@@ -5516,7 +5567,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5545,20 +5596,20 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="S66" s="1">
         <v>100000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>80000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -5583,7 +5634,7 @@
       </c>
       <c r="AE66"/>
       <c r="AF66">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
       <c r="AG66"/>
     </row>
@@ -5595,7 +5646,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -5624,20 +5675,20 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>100000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>100000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="S67" s="1">
         <v>100000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>100000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>80000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -5662,7 +5713,7 @@
       </c>
       <c r="AE67"/>
       <c r="AF67">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="AG67"/>
     </row>
@@ -5674,7 +5725,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -5703,20 +5754,20 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="S68" s="1">
         <v>100000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>80000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -5741,7 +5792,7 @@
       </c>
       <c r="AE68"/>
       <c r="AF68">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="AG68"/>
     </row>
@@ -5753,7 +5804,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>33333.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -5782,20 +5833,20 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>66667.0</v>
+        <v>15000.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>66667.0</v>
+        <v>15000.0</v>
       </c>
       <c r="S69" s="1">
         <v>100000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>66667.0</v>
+        <v>15000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>53333.6</v>
+        <v>12000.0</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -5820,7 +5871,7 @@
       </c>
       <c r="AE69"/>
       <c r="AF69">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="AG69"/>
     </row>
@@ -5832,7 +5883,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>33334.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -5861,20 +5912,20 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>33333.0</v>
+        <v>10000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>33333.0</v>
+        <v>10000.0</v>
       </c>
       <c r="S70" s="1">
         <v>100000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>33333.0</v>
+        <v>10000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>26666.4</v>
+        <v>8000.0</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -5899,7 +5950,7 @@
       </c>
       <c r="AE70"/>
       <c r="AF70">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="AG70"/>
     </row>
@@ -5911,7 +5962,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>33333.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -5940,20 +5991,20 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>0</v>
+        <v>5000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>0.0</v>
+        <v>4000.0</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -5978,7 +6029,7 @@
       </c>
       <c r="AE71"/>
       <c r="AF71">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="AG71"/>
     </row>
@@ -5990,7 +6041,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -6056,7 +6107,9 @@
         <v>0.0</v>
       </c>
       <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
+      <c r="AF72" s="15">
+        <v>0.35</v>
+      </c>
       <c r="AG72"/>
     </row>
     <row r="73" spans="1:33">
@@ -9821,7 +9874,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9892,7 +9945,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9962,7 +10015,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -10032,7 +10085,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -10102,7 +10155,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -10173,7 +10226,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -10243,7 +10296,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -10313,7 +10366,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -10383,7 +10436,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -10453,7 +10506,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10523,7 +10576,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10593,7 +10646,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10663,7 +10716,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10733,7 +10786,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10803,7 +10856,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -10873,7 +10926,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -10943,7 +10996,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>33333.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -11013,7 +11066,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>33334.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -11083,7 +11136,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>33333.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -11153,7 +11206,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -15081,26 +15134,26 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>100000.0</v>
+        <v>95000.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>100000.0</v>
+        <v>95000.0</v>
       </c>
       <c r="S53" s="13">
         <v>100000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>100000.0</v>
+        <v>95000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>80000.0</v>
+        <v>76000.0</v>
       </c>
       <c r="V53" s="14">
         <v>0.8</v>
       </c>
       <c r="W53" s="13">
-        <v>800.0</v>
+        <v>760.0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
@@ -15124,7 +15177,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -15154,26 +15207,26 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>100000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>100000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="S54" s="1">
         <v>100000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>100000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>80000.0</v>
+        <v>72000.0</v>
       </c>
       <c r="V54" s="2">
         <v>0.8</v>
       </c>
       <c r="W54" s="1">
-        <v>800.0</v>
+        <v>720.0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
@@ -15196,7 +15249,7 @@
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -15226,26 +15279,26 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>100000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>100000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="S55" s="1">
         <v>100000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>100000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>80000.0</v>
+        <v>68000.0</v>
       </c>
       <c r="V55" s="2">
         <v>0.8</v>
       </c>
       <c r="W55" s="1">
-        <v>800.0</v>
+        <v>680.0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
@@ -15268,7 +15321,7 @@
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -15298,26 +15351,26 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>100000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>100000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="S56" s="1">
         <v>100000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>100000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>80000.0</v>
+        <v>64000.0</v>
       </c>
       <c r="V56" s="2">
         <v>0.8</v>
       </c>
       <c r="W56" s="1">
-        <v>800.0</v>
+        <v>640.0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
@@ -15340,7 +15393,7 @@
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -15370,26 +15423,26 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="S57" s="13">
         <v>100000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>100000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>80000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="V57" s="14">
         <v>0.8</v>
       </c>
       <c r="W57" s="13">
-        <v>800.0</v>
+        <v>600.0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
@@ -15413,7 +15466,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -15443,26 +15496,26 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>100000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>100000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="S58" s="1">
         <v>100000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>100000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>80000.0</v>
+        <v>56000.0</v>
       </c>
       <c r="V58" s="2">
         <v>0.8</v>
       </c>
       <c r="W58" s="1">
-        <v>800.0</v>
+        <v>560.0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -15485,7 +15538,7 @@
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -15515,26 +15568,26 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>100000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>100000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="S59" s="1">
         <v>100000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>100000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>80000.0</v>
+        <v>52000.0</v>
       </c>
       <c r="V59" s="2">
         <v>0.8</v>
       </c>
       <c r="W59" s="1">
-        <v>800.0</v>
+        <v>520.0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -15557,7 +15610,7 @@
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -15587,26 +15640,26 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>100000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>100000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="S60" s="1">
         <v>100000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>100000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>80000.0</v>
+        <v>48000.0</v>
       </c>
       <c r="V60" s="2">
         <v>0.8</v>
       </c>
       <c r="W60" s="1">
-        <v>800.0</v>
+        <v>480.0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -15629,7 +15682,7 @@
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -15659,26 +15712,26 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>100000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>100000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="S61" s="1">
         <v>100000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>100000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>80000.0</v>
+        <v>44000.0</v>
       </c>
       <c r="V61" s="2">
         <v>0.8</v>
       </c>
       <c r="W61" s="1">
-        <v>800.0</v>
+        <v>440.0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -15701,7 +15754,7 @@
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -15731,26 +15784,26 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="S62" s="1">
         <v>100000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>80000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="V62" s="2">
         <v>0.8</v>
       </c>
       <c r="W62" s="1">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -15773,7 +15826,7 @@
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -15803,26 +15856,26 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>100000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>100000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="S63" s="1">
         <v>100000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>100000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>80000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="V63" s="2">
         <v>0.8</v>
       </c>
       <c r="W63" s="1">
-        <v>800.0</v>
+        <v>360.0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -15845,7 +15898,7 @@
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -15875,26 +15928,26 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>100000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>100000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="S64" s="1">
         <v>100000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>100000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>80000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="V64" s="2">
         <v>0.8</v>
       </c>
       <c r="W64" s="1">
-        <v>800.0</v>
+        <v>320.0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -15917,7 +15970,7 @@
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -15947,26 +16000,26 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>100000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>100000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="S65" s="1">
         <v>100000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>100000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>80000.0</v>
+        <v>28000.0</v>
       </c>
       <c r="V65" s="2">
         <v>0.8</v>
       </c>
       <c r="W65" s="1">
-        <v>800.0</v>
+        <v>280.0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -15989,7 +16042,7 @@
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -16019,26 +16072,26 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="S66" s="1">
         <v>100000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>80000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="V66" s="2">
         <v>0.8</v>
       </c>
       <c r="W66" s="1">
-        <v>800.0</v>
+        <v>240.0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -16061,7 +16114,7 @@
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -16091,26 +16144,26 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>100000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>100000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="S67" s="1">
         <v>100000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>100000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>80000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="V67" s="2">
         <v>0.8</v>
       </c>
       <c r="W67" s="1">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -16133,7 +16186,7 @@
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -16163,26 +16216,26 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="S68" s="1">
         <v>100000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>80000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="V68" s="2">
         <v>0.8</v>
       </c>
       <c r="W68" s="1">
-        <v>800.0</v>
+        <v>160.0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -16205,7 +16258,7 @@
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -16235,26 +16288,26 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>66667.0</v>
+        <v>15000.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>66667.0</v>
+        <v>15000.0</v>
       </c>
       <c r="S69" s="1">
         <v>100000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>66667.0</v>
+        <v>15000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>53333.6</v>
+        <v>12000.0</v>
       </c>
       <c r="V69" s="2">
         <v>0.8</v>
       </c>
       <c r="W69" s="1">
-        <v>533.336</v>
+        <v>120.0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -16277,7 +16330,7 @@
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -16307,26 +16360,26 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>33333.0</v>
+        <v>10000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>33333.0</v>
+        <v>10000.0</v>
       </c>
       <c r="S70" s="1">
         <v>100000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>33333.0</v>
+        <v>10000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>26666.4</v>
+        <v>8000.0</v>
       </c>
       <c r="V70" s="2">
         <v>0.8</v>
       </c>
       <c r="W70" s="1">
-        <v>266.664</v>
+        <v>80.0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -16349,7 +16402,7 @@
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -16379,26 +16432,30 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>0</v>
+        <v>5000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="V71" s="2"/>
+        <v>4000.0</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0.8</v>
+      </c>
       <c r="W71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>40.0</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
@@ -16417,7 +16474,7 @@
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -16486,7 +16543,7 @@
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -16763,7 +16820,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17472,6 +17529,12 @@
     <row r="71" spans="1:3">
       <c r="A71">
         <v>2086</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
       </c>
     </row>
     <row r="72" spans="1:3">

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>private</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -149,85 +149,211 @@
     <t>income</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Income0 Asset rule </t>
+    <t xml:space="preserve">Income Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Pensioned, no more salary from here00 Asset rule </t>
+    <t xml:space="preserve">Pensioned, no more salary from here Asset rule: </t>
   </si>
   <si>
     <t>fond</t>
   </si>
   <si>
-    <t>00 Asset rule Using current amount: 100000 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1505000 = 1500000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Adding: 105000 = 100000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1510000 = 1505000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 100000 * 1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1515000 = 1510000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>00Uttak fra 2068, 1|20 Asset rule 1|19Adding divisor: 5000 new rule: 1|19</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1520000 = 1515000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|18Adding divisor: 5000 new rule: 1|18</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1525000 = 1520000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|17Adding divisor: 5000 new rule: 1|17</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1530000 = 1525000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|16Adding divisor: 5000 new rule: 1|16</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1535000 = 1530000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|15Adding divisor: 5000 new rule: 1|15</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1540000 = 1535000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|14Adding divisor: 5000 new rule: 1|14</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1545000 = 1540000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|13Adding divisor: 5000 new rule: 1|13</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1550000 = 1545000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|12Adding divisor: 5000 new rule: 1|12</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1555000 = 1550000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|11Adding divisor: 5000 new rule: 1|11</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1560000 = 1555000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|10Adding divisor: 5000 new rule: 1|10</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1565000 = 1560000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|9Adding divisor: 5000 new rule: 1|9</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1570000 = 1565000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|8Adding divisor: 5000 new rule: 1|8</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1575000 = 1570000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|7Adding divisor: 5000 new rule: 1|7</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1580000 = 1575000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|6Adding divisor: 5000 new rule: 1|6</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1585000 = 1580000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|5Adding divisor: 5000 new rule: 1|5</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1590000 = 1585000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|4Adding divisor: 5000 new rule: 1|4</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1595000 = 1590000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|3Adding divisor: 5000 new rule: 1|3</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1600000 = 1595000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|2Adding divisor: 5000 new rule: 1|2</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1605000 = 1600000 + (5000 * 1)</t>
   </si>
   <si>
-    <t>000 Asset rule 1|1Adding divisor: 5000 new rule: 1|1</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1610000 = 1605000 + (5000 * 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule Adding divisor: 5000 new rule: </t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1615000 = 1610000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1620000 = 1615000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1625000 = 1620000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1630000 = 1625000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1635000 = 1630000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1640000 = 1635000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1645000 = 1640000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1650000 = 1645000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1655000 = 1650000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1660000 = 1655000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1665000 = 1660000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1670000 = 1665000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1675000 = 1670000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1680000 = 1675000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1685000 = 1680000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1690000 = 1685000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1695000 = 1690000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1700000 = 1695000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1705000 = 1700000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1710000 = 1705000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1715000 = 1710000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1720000 = 1715000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1725000 = 1720000 + (5000 * 1)</t>
+  </si>
+  <si>
+    <t>Uttak fra 2068, 1|20 Asset rule:1|20 Adding divisor: 86250 rewritten rule: 1|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|19 Adding divisor: 86250 rewritten rule: 1|18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|18 Adding divisor: 86250 rewritten rule: 1|17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|17 Adding divisor: 86250 rewritten rule: 1|16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|16 Adding divisor: 86250 rewritten rule: 1|15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|15 Adding divisor: 86250 rewritten rule: 1|14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|14 Adding divisor: 86250 rewritten rule: 1|13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|13 Adding divisor: 86250 rewritten rule: 1|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|12 Adding divisor: 86250 rewritten rule: 1|11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|11 Adding divisor: 86250 rewritten rule: 1|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|10 Adding divisor: 86250 rewritten rule: 1|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|9 Adding divisor: 86250 rewritten rule: 1|8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|8 Adding divisor: 86250 rewritten rule: 1|7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|7 Adding divisor: 86250 rewritten rule: 1|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|6 Adding divisor: 86250 rewritten rule: 1|5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|5 Adding divisor: 86250 rewritten rule: 1|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|4 Adding divisor: 86250 rewritten rule: 1|3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|3 Adding divisor: 86250 rewritten rule: 1|2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|2 Adding divisor: 86250 rewritten rule: 1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|1 Adding divisor: 86250 rewritten rule: </t>
   </si>
   <si>
     <t>total</t>
@@ -652,7 +778,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -1014,20 +1140,20 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="S8" s="1">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="T8" s="1">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="U8" s="6">
-        <v>80000.0</v>
+        <v>1204000.0</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
@@ -1093,20 +1219,20 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="S9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="U9" s="8">
-        <v>80000.0</v>
+        <v>1208000.0</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="8">
@@ -1172,20 +1298,20 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="S10" s="1">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U10" s="6">
-        <v>80000.0</v>
+        <v>1212000.0</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
@@ -1251,20 +1377,20 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="S11" s="1">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U11" s="6">
-        <v>80000.0</v>
+        <v>1216000.0</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
@@ -1330,20 +1456,20 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="S12" s="1">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U12" s="6">
-        <v>80000.0</v>
+        <v>1220000.0</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
@@ -1409,20 +1535,20 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="S13" s="1">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U13" s="6">
-        <v>80000.0</v>
+        <v>1224000.0</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
@@ -1488,20 +1614,20 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="S14" s="1">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U14" s="6">
-        <v>80000.0</v>
+        <v>1228000.0</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
@@ -1567,20 +1693,20 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="S15" s="1">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U15" s="6">
-        <v>80000.0</v>
+        <v>1232000.0</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
@@ -1646,20 +1772,20 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="S16" s="1">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U16" s="6">
-        <v>80000.0</v>
+        <v>1236000.0</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
@@ -1725,20 +1851,20 @@
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="S17" s="1">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U17" s="6">
-        <v>80000.0</v>
+        <v>1240000.0</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
@@ -1804,20 +1930,20 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="S18" s="1">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U18" s="6">
-        <v>80000.0</v>
+        <v>1244000.0</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
@@ -1883,20 +2009,20 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="S19" s="1">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U19" s="6">
-        <v>80000.0</v>
+        <v>1248000.0</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
@@ -1962,20 +2088,20 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="S20" s="1">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U20" s="6">
-        <v>80000.0</v>
+        <v>1252000.0</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
@@ -2041,20 +2167,20 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="S21" s="1">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U21" s="6">
-        <v>80000.0</v>
+        <v>1256000.0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
@@ -2120,20 +2246,20 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="S22" s="1">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U22" s="6">
-        <v>80000.0</v>
+        <v>1260000.0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
@@ -2199,20 +2325,20 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="S23" s="1">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U23" s="6">
-        <v>80000.0</v>
+        <v>1264000.0</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
@@ -2278,20 +2404,20 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="S24" s="1">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U24" s="6">
-        <v>80000.0</v>
+        <v>1268000.0</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
@@ -2357,20 +2483,20 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="S25" s="1">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U25" s="6">
-        <v>80000.0</v>
+        <v>1272000.0</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
@@ -2436,20 +2562,20 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="S26" s="1">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U26" s="6">
-        <v>80000.0</v>
+        <v>1276000.0</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
@@ -2515,20 +2641,20 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="S27" s="1">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U27" s="6">
-        <v>80000.0</v>
+        <v>1280000.0</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
@@ -2594,20 +2720,20 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="S28" s="1">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U28" s="6">
-        <v>80000.0</v>
+        <v>1284000.0</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
@@ -2673,20 +2799,20 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="S29" s="1">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U29" s="6">
-        <v>80000.0</v>
+        <v>1288000.0</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
@@ -2752,20 +2878,20 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="S30" s="1">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U30" s="6">
-        <v>80000.0</v>
+        <v>1292000.0</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
@@ -2831,20 +2957,20 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="S31" s="1">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U31" s="6">
-        <v>80000.0</v>
+        <v>1296000.0</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
@@ -2910,20 +3036,20 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="S32" s="1">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U32" s="6">
-        <v>80000.0</v>
+        <v>1300000.0</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
@@ -2989,20 +3115,20 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="S33" s="1">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U33" s="6">
-        <v>80000.0</v>
+        <v>1304000.0</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
@@ -3068,20 +3194,20 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="S34" s="1">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U34" s="6">
-        <v>80000.0</v>
+        <v>1308000.0</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
@@ -3147,20 +3273,20 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="S35" s="1">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U35" s="6">
-        <v>80000.0</v>
+        <v>1312000.0</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
@@ -3226,20 +3352,20 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="S36" s="1">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U36" s="6">
-        <v>80000.0</v>
+        <v>1316000.0</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
@@ -3305,20 +3431,20 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>80000.0</v>
+        <v>1320000.0</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
@@ -3384,20 +3510,20 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>80000.0</v>
+        <v>1324000.0</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -3463,20 +3589,20 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="S39" s="1">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U39" s="6">
-        <v>80000.0</v>
+        <v>1328000.0</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="1">
@@ -3542,20 +3668,20 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>80000.0</v>
+        <v>1332000.0</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -3621,20 +3747,20 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>80000.0</v>
+        <v>1336000.0</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3700,20 +3826,20 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>80000.0</v>
+        <v>1340000.0</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3779,20 +3905,20 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>80000.0</v>
+        <v>1344000.0</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3858,20 +3984,20 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>80000.0</v>
+        <v>1348000.0</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3937,20 +4063,20 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>80000.0</v>
+        <v>1352000.0</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -4016,20 +4142,20 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>80000.0</v>
+        <v>1356000.0</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -4095,20 +4221,20 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>80000.0</v>
+        <v>1360000.0</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -4174,20 +4300,20 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>80000.0</v>
+        <v>1364000.0</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -4253,20 +4379,20 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>80000.0</v>
+        <v>1368000.0</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -4332,20 +4458,20 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>80000.0</v>
+        <v>1372000.0</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -4411,20 +4537,20 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>80000.0</v>
+        <v>1376000.0</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -4490,20 +4616,20 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -4540,7 +4666,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4548,7 +4674,7 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
@@ -4569,20 +4695,20 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>95000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>95000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="S53" s="13">
-        <v>100000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="T53" s="13">
-        <v>95000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="U53" s="13">
-        <v>76000.0</v>
+        <v>1311000.0</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -4590,24 +4716,24 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
       </c>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AG53"/>
     </row>
@@ -4619,7 +4745,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4627,7 +4753,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
@@ -4648,20 +4774,20 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>90000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>90000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="S54" s="1">
-        <v>100000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="T54" s="1">
-        <v>90000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="U54" s="6">
-        <v>72000.0</v>
+        <v>1242000.0</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -4669,24 +4795,24 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
       </c>
       <c r="AE54"/>
       <c r="AF54">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AG54"/>
     </row>
@@ -4698,7 +4824,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4706,7 +4832,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
@@ -4727,20 +4853,20 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>85000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>85000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="S55" s="1">
-        <v>100000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="T55" s="1">
-        <v>85000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="U55" s="6">
-        <v>68000.0</v>
+        <v>1173000.0</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -4748,24 +4874,24 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
       </c>
       <c r="AE55"/>
       <c r="AF55">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG55"/>
     </row>
@@ -4777,7 +4903,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4785,7 +4911,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
@@ -4806,20 +4932,20 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>100000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>64000.0</v>
+        <v>1104000.0</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4827,24 +4953,24 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
       </c>
       <c r="AE56"/>
       <c r="AF56">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG56"/>
     </row>
@@ -4856,7 +4982,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4864,7 +4990,7 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
@@ -4885,20 +5011,20 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>75000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>75000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="S57" s="13">
-        <v>100000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="T57" s="13">
-        <v>75000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="U57" s="13">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4906,24 +5032,24 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
       </c>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AG57"/>
     </row>
@@ -4935,7 +5061,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4943,7 +5069,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1">
@@ -4964,20 +5090,20 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>70000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>70000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="S58" s="1">
-        <v>100000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="T58" s="1">
-        <v>70000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="U58" s="6">
-        <v>56000.0</v>
+        <v>966000.0</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4985,24 +5111,24 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
       </c>
       <c r="AE58"/>
       <c r="AF58">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AG58"/>
     </row>
@@ -5014,7 +5140,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -5022,7 +5148,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1">
@@ -5043,20 +5169,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>65000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>65000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="S59" s="1">
-        <v>100000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="T59" s="1">
-        <v>65000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="U59" s="6">
-        <v>52000.0</v>
+        <v>897000.0</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -5064,24 +5190,24 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
       </c>
       <c r="AE59"/>
       <c r="AF59">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AG59"/>
     </row>
@@ -5093,7 +5219,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -5101,7 +5227,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1">
@@ -5122,20 +5248,20 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>100000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>48000.0</v>
+        <v>828000.0</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -5143,24 +5269,24 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
       </c>
       <c r="AE60"/>
       <c r="AF60">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AG60"/>
     </row>
@@ -5172,7 +5298,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -5180,7 +5306,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1">
@@ -5201,20 +5327,20 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>55000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>55000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="S61" s="1">
-        <v>100000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="T61" s="1">
-        <v>55000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="U61" s="6">
-        <v>44000.0</v>
+        <v>759000.0</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -5222,24 +5348,24 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
       </c>
       <c r="AE61"/>
       <c r="AF61">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AG61"/>
     </row>
@@ -5251,7 +5377,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5259,7 +5385,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1">
@@ -5280,20 +5406,20 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>50000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>50000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="S62" s="1">
-        <v>100000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="T62" s="1">
-        <v>50000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="U62" s="6">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -5301,24 +5427,24 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
       </c>
       <c r="AE62"/>
       <c r="AF62">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AG62"/>
     </row>
@@ -5330,7 +5456,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5338,7 +5464,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1">
@@ -5359,20 +5485,20 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>45000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>45000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="S63" s="1">
-        <v>100000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="T63" s="1">
-        <v>45000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="U63" s="6">
-        <v>36000.0</v>
+        <v>621000.0</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -5380,24 +5506,24 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
       </c>
       <c r="AE63"/>
       <c r="AF63">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG63"/>
     </row>
@@ -5409,7 +5535,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5417,7 +5543,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1">
@@ -5438,20 +5564,20 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>100000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>32000.0</v>
+        <v>552000.0</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -5459,24 +5585,24 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
       </c>
       <c r="AE64"/>
       <c r="AF64">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AG64"/>
     </row>
@@ -5488,7 +5614,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5496,7 +5622,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1">
@@ -5517,20 +5643,20 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>35000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>35000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="S65" s="1">
-        <v>100000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="T65" s="1">
-        <v>35000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="U65" s="6">
-        <v>28000.0</v>
+        <v>483000.0</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -5538,24 +5664,24 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
       </c>
       <c r="AE65"/>
       <c r="AF65">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AG65"/>
     </row>
@@ -5567,7 +5693,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5575,7 +5701,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1">
@@ -5596,20 +5722,20 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>30000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>30000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="S66" s="1">
-        <v>100000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="T66" s="1">
-        <v>30000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="U66" s="6">
-        <v>24000.0</v>
+        <v>414000.0</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -5617,24 +5743,24 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
       </c>
       <c r="AE66"/>
       <c r="AF66">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AG66"/>
     </row>
@@ -5646,7 +5772,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -5654,7 +5780,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1">
@@ -5675,20 +5801,20 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>25000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>25000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="S67" s="1">
-        <v>100000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="T67" s="1">
-        <v>25000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="U67" s="6">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -5696,24 +5822,24 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
       </c>
       <c r="AE67"/>
       <c r="AF67">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AG67"/>
     </row>
@@ -5725,7 +5851,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -5733,7 +5859,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1">
@@ -5754,20 +5880,20 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>100000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>16000.0</v>
+        <v>276000.0</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -5775,24 +5901,24 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
       </c>
       <c r="AE68"/>
       <c r="AF68">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AG68"/>
     </row>
@@ -5804,7 +5930,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -5812,7 +5938,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1">
@@ -5833,20 +5959,20 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>15000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>15000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="S69" s="1">
-        <v>100000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="T69" s="1">
-        <v>15000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="U69" s="6">
-        <v>12000.0</v>
+        <v>207000.0</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -5854,24 +5980,24 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
       </c>
       <c r="AE69"/>
       <c r="AF69">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AG69"/>
     </row>
@@ -5883,7 +6009,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -5891,7 +6017,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1">
@@ -5912,20 +6038,20 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>10000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>10000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="S70" s="1">
-        <v>100000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="T70" s="1">
-        <v>10000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="U70" s="6">
-        <v>8000.0</v>
+        <v>138000.0</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -5933,24 +6059,24 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
       </c>
       <c r="AE70"/>
       <c r="AF70">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AG70"/>
     </row>
@@ -5962,7 +6088,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -5970,7 +6096,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1">
@@ -5991,20 +6117,20 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="S71" s="1">
-        <v>100000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="T71" s="1">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="U71" s="6">
-        <v>4000.0</v>
+        <v>69000.0</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -6012,24 +6138,24 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
       </c>
       <c r="AE71"/>
       <c r="AF71">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="AG71"/>
     </row>
@@ -6041,7 +6167,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -6049,7 +6175,7 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="5">
@@ -6077,10 +6203,10 @@
         <v>0.0</v>
       </c>
       <c r="S72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U72" s="5">
         <v>0.0</v>
@@ -6091,24 +6217,24 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>
       </c>
       <c r="AE72" s="15"/>
       <c r="AF72" s="15">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="AG72"/>
     </row>
@@ -6400,7 +6526,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6620,7 +6746,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6690,7 +6816,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6760,7 +6886,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6830,7 +6956,7 @@
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="8">
@@ -6901,7 +7027,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6971,7 +7097,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -7041,7 +7167,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -7111,7 +7237,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -7181,7 +7307,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -7251,7 +7377,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7321,7 +7447,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7391,7 +7517,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7461,7 +7587,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7531,7 +7657,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7601,7 +7727,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7671,7 +7797,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7741,7 +7867,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7811,7 +7937,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7881,7 +8007,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7951,7 +8077,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -8021,7 +8147,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -8091,7 +8217,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -8161,7 +8287,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -8231,7 +8357,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8301,7 +8427,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8371,7 +8497,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8441,7 +8567,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8511,7 +8637,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8581,7 +8707,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8651,7 +8777,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8721,7 +8847,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8791,7 +8917,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8861,7 +8987,7 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
@@ -8931,7 +9057,7 @@
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="1">
@@ -9001,7 +9127,7 @@
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -9072,7 +9198,7 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
@@ -9142,7 +9268,7 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
@@ -9212,7 +9338,7 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
@@ -9282,7 +9408,7 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
@@ -9352,7 +9478,7 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
@@ -9422,7 +9548,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
@@ -9492,7 +9618,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
@@ -9562,7 +9688,7 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
@@ -9632,7 +9758,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
@@ -9702,7 +9828,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
@@ -9772,7 +9898,7 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
@@ -9842,7 +9968,7 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
@@ -9874,7 +10000,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9882,7 +10008,7 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H53" s="14">
         <v>0.5</v>
@@ -9912,21 +10038,21 @@
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -9945,7 +10071,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9953,7 +10079,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H54" s="2">
         <v>0.5</v>
@@ -9983,21 +10109,21 @@
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -10015,7 +10141,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -10023,7 +10149,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H55" s="2">
         <v>0.5</v>
@@ -10053,21 +10179,21 @@
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -10085,7 +10211,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -10093,7 +10219,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H56" s="2">
         <v>0.5</v>
@@ -10123,21 +10249,21 @@
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -10155,7 +10281,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -10163,7 +10289,7 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H57" s="14">
         <v>0.5</v>
@@ -10193,21 +10319,21 @@
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -10226,7 +10352,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -10234,7 +10360,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H58" s="2">
         <v>0.5</v>
@@ -10264,21 +10390,21 @@
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -10296,7 +10422,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -10304,7 +10430,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H59" s="2">
         <v>0.5</v>
@@ -10334,21 +10460,21 @@
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -10366,7 +10492,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -10374,7 +10500,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H60" s="2">
         <v>0.5</v>
@@ -10404,21 +10530,21 @@
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -10436,7 +10562,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -10444,7 +10570,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H61" s="2">
         <v>0.5</v>
@@ -10474,21 +10600,21 @@
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -10506,7 +10632,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10514,7 +10640,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H62" s="2">
         <v>0.5</v>
@@ -10544,21 +10670,21 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -10576,7 +10702,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10584,7 +10710,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H63" s="2">
         <v>0.5</v>
@@ -10614,21 +10740,21 @@
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -10646,7 +10772,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10654,7 +10780,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H64" s="2">
         <v>0.5</v>
@@ -10684,21 +10810,21 @@
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -10716,7 +10842,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10724,7 +10850,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H65" s="2">
         <v>0.5</v>
@@ -10754,21 +10880,21 @@
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -10786,7 +10912,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10794,7 +10920,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H66" s="2">
         <v>0.5</v>
@@ -10824,21 +10950,21 @@
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -10856,7 +10982,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -10864,7 +10990,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H67" s="2">
         <v>0.5</v>
@@ -10894,21 +11020,21 @@
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -10926,7 +11052,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -10934,7 +11060,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H68" s="2">
         <v>0.5</v>
@@ -10964,21 +11090,21 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -10996,7 +11122,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -11004,7 +11130,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H69" s="2">
         <v>0.5</v>
@@ -11034,21 +11160,21 @@
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -11066,7 +11192,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -11074,7 +11200,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H70" s="2">
         <v>0.5</v>
@@ -11104,21 +11230,21 @@
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -11136,7 +11262,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -11144,7 +11270,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H71" s="2">
         <v>0.5</v>
@@ -11174,21 +11300,21 @@
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -11206,7 +11332,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -11214,7 +11340,7 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>43125.0</v>
       </c>
       <c r="H72" s="16">
         <v>0.5</v>
@@ -11244,21 +11370,21 @@
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-180000.0</v>
+        <v>-136875.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0.0</v>
+        <v>86250.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0.0</v>
+        <v>431250.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -11557,7 +11683,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -11773,21 +11899,21 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0.0</v>
@@ -11841,21 +11967,21 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0.0</v>
@@ -11892,42 +12018,42 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="S8" s="1">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="T8" s="1">
-        <v>100000.0</v>
+        <v>1505000.0</v>
       </c>
       <c r="U8" s="6">
-        <v>80000.0</v>
+        <v>1204000.0</v>
       </c>
       <c r="V8" s="2">
         <v>0.8</v>
       </c>
       <c r="W8" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2">
         <v>0.01</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0.0</v>
@@ -11964,42 +12090,42 @@
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
       <c r="P9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="S9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>100000.0</v>
+        <v>1510000.0</v>
       </c>
       <c r="U9" s="8">
-        <v>80000.0</v>
+        <v>1208000.0</v>
       </c>
       <c r="V9" s="9">
         <v>0.8</v>
       </c>
       <c r="W9" s="8">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="9">
         <v>0.01</v>
       </c>
       <c r="Y9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9" s="7">
         <v>0.0</v>
@@ -12037,42 +12163,42 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="S10" s="1">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>100000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U10" s="6">
-        <v>80000.0</v>
+        <v>1212000.0</v>
       </c>
       <c r="V10" s="2">
         <v>0.8</v>
       </c>
       <c r="W10" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
         <v>0.01</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0.0</v>
@@ -12109,49 +12235,49 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="S11" s="1">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>100000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U11" s="6">
-        <v>80000.0</v>
+        <v>1216000.0</v>
       </c>
       <c r="V11" s="2">
         <v>0.8</v>
       </c>
       <c r="W11" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
         <v>0.01</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0.0</v>
       </c>
       <c r="AE11"/>
       <c r="AG11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -12181,49 +12307,49 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="S12" s="1">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>100000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U12" s="6">
-        <v>80000.0</v>
+        <v>1220000.0</v>
       </c>
       <c r="V12" s="2">
         <v>0.8</v>
       </c>
       <c r="W12" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2">
         <v>0.01</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0.0</v>
       </c>
       <c r="AE12"/>
       <c r="AG12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -12253,49 +12379,49 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="S13" s="1">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>100000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U13" s="6">
-        <v>80000.0</v>
+        <v>1224000.0</v>
       </c>
       <c r="V13" s="2">
         <v>0.8</v>
       </c>
       <c r="W13" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2">
         <v>0.01</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0.0</v>
       </c>
       <c r="AE13"/>
       <c r="AG13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -12325,49 +12451,49 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="S14" s="1">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>100000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U14" s="6">
-        <v>80000.0</v>
+        <v>1228000.0</v>
       </c>
       <c r="V14" s="2">
         <v>0.8</v>
       </c>
       <c r="W14" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
         <v>0.01</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0.0</v>
       </c>
       <c r="AE14"/>
       <c r="AG14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -12397,49 +12523,49 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="S15" s="1">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>100000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U15" s="6">
-        <v>80000.0</v>
+        <v>1232000.0</v>
       </c>
       <c r="V15" s="2">
         <v>0.8</v>
       </c>
       <c r="W15" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2">
         <v>0.01</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0.0</v>
       </c>
       <c r="AE15"/>
       <c r="AG15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -12469,49 +12595,49 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="S16" s="1">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>100000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U16" s="6">
-        <v>80000.0</v>
+        <v>1236000.0</v>
       </c>
       <c r="V16" s="2">
         <v>0.8</v>
       </c>
       <c r="W16" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
         <v>0.01</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0.0</v>
       </c>
       <c r="AE16"/>
       <c r="AG16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -12541,49 +12667,49 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="S17" s="1">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>100000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U17" s="6">
-        <v>80000.0</v>
+        <v>1240000.0</v>
       </c>
       <c r="V17" s="2">
         <v>0.8</v>
       </c>
       <c r="W17" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2">
         <v>0.01</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0.0</v>
       </c>
       <c r="AE17"/>
       <c r="AG17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -12613,49 +12739,49 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="S18" s="1">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>100000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U18" s="6">
-        <v>80000.0</v>
+        <v>1244000.0</v>
       </c>
       <c r="V18" s="2">
         <v>0.8</v>
       </c>
       <c r="W18" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2">
         <v>0.01</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0.0</v>
       </c>
       <c r="AE18"/>
       <c r="AG18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -12685,49 +12811,49 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="S19" s="1">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>100000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U19" s="6">
-        <v>80000.0</v>
+        <v>1248000.0</v>
       </c>
       <c r="V19" s="2">
         <v>0.8</v>
       </c>
       <c r="W19" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2">
         <v>0.01</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0.0</v>
       </c>
       <c r="AE19"/>
       <c r="AG19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -12757,49 +12883,49 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="S20" s="1">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>100000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U20" s="6">
-        <v>80000.0</v>
+        <v>1252000.0</v>
       </c>
       <c r="V20" s="2">
         <v>0.8</v>
       </c>
       <c r="W20" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2">
         <v>0.01</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0.0</v>
       </c>
       <c r="AE20"/>
       <c r="AG20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -12829,49 +12955,49 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="S21" s="1">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>100000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U21" s="6">
-        <v>80000.0</v>
+        <v>1256000.0</v>
       </c>
       <c r="V21" s="2">
         <v>0.8</v>
       </c>
       <c r="W21" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2">
         <v>0.01</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0.0</v>
       </c>
       <c r="AE21"/>
       <c r="AG21" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -12901,49 +13027,49 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="S22" s="1">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>100000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U22" s="6">
-        <v>80000.0</v>
+        <v>1260000.0</v>
       </c>
       <c r="V22" s="2">
         <v>0.8</v>
       </c>
       <c r="W22" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2">
         <v>0.01</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0.0</v>
       </c>
       <c r="AE22"/>
       <c r="AG22" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -12973,49 +13099,49 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="S23" s="1">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>100000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U23" s="6">
-        <v>80000.0</v>
+        <v>1264000.0</v>
       </c>
       <c r="V23" s="2">
         <v>0.8</v>
       </c>
       <c r="W23" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2">
         <v>0.01</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0.0</v>
       </c>
       <c r="AE23"/>
       <c r="AG23" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -13045,49 +13171,49 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="S24" s="1">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>100000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U24" s="6">
-        <v>80000.0</v>
+        <v>1268000.0</v>
       </c>
       <c r="V24" s="2">
         <v>0.8</v>
       </c>
       <c r="W24" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2">
         <v>0.01</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0.0</v>
       </c>
       <c r="AE24"/>
       <c r="AG24" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -13117,49 +13243,49 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="S25" s="1">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>100000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U25" s="6">
-        <v>80000.0</v>
+        <v>1272000.0</v>
       </c>
       <c r="V25" s="2">
         <v>0.8</v>
       </c>
       <c r="W25" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2">
         <v>0.01</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0.0</v>
       </c>
       <c r="AE25"/>
       <c r="AG25" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -13189,49 +13315,49 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="S26" s="1">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>100000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U26" s="6">
-        <v>80000.0</v>
+        <v>1276000.0</v>
       </c>
       <c r="V26" s="2">
         <v>0.8</v>
       </c>
       <c r="W26" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2">
         <v>0.01</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0.0</v>
       </c>
       <c r="AE26"/>
       <c r="AG26" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -13261,49 +13387,49 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="S27" s="1">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>100000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U27" s="6">
-        <v>80000.0</v>
+        <v>1280000.0</v>
       </c>
       <c r="V27" s="2">
         <v>0.8</v>
       </c>
       <c r="W27" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
         <v>0.01</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0.0</v>
       </c>
       <c r="AE27"/>
       <c r="AG27" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -13333,49 +13459,49 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="S28" s="1">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>100000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U28" s="6">
-        <v>80000.0</v>
+        <v>1284000.0</v>
       </c>
       <c r="V28" s="2">
         <v>0.8</v>
       </c>
       <c r="W28" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2">
         <v>0.01</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0.0</v>
       </c>
       <c r="AE28"/>
       <c r="AG28" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -13405,49 +13531,49 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="S29" s="1">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>100000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U29" s="6">
-        <v>80000.0</v>
+        <v>1288000.0</v>
       </c>
       <c r="V29" s="2">
         <v>0.8</v>
       </c>
       <c r="W29" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2">
         <v>0.01</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0.0</v>
       </c>
       <c r="AE29"/>
       <c r="AG29" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -13477,49 +13603,49 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="S30" s="1">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>100000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U30" s="6">
-        <v>80000.0</v>
+        <v>1292000.0</v>
       </c>
       <c r="V30" s="2">
         <v>0.8</v>
       </c>
       <c r="W30" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2">
         <v>0.01</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0.0</v>
       </c>
       <c r="AE30"/>
       <c r="AG30" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -13549,49 +13675,49 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="S31" s="1">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>100000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U31" s="6">
-        <v>80000.0</v>
+        <v>1296000.0</v>
       </c>
       <c r="V31" s="2">
         <v>0.8</v>
       </c>
       <c r="W31" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2">
         <v>0.01</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0.0</v>
       </c>
       <c r="AE31"/>
       <c r="AG31" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -13621,49 +13747,49 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="S32" s="1">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>100000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U32" s="6">
-        <v>80000.0</v>
+        <v>1300000.0</v>
       </c>
       <c r="V32" s="2">
         <v>0.8</v>
       </c>
       <c r="W32" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2">
         <v>0.01</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0.0</v>
       </c>
       <c r="AE32"/>
       <c r="AG32" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -13693,49 +13819,49 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="S33" s="1">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>100000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U33" s="6">
-        <v>80000.0</v>
+        <v>1304000.0</v>
       </c>
       <c r="V33" s="2">
         <v>0.8</v>
       </c>
       <c r="W33" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2">
         <v>0.01</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0.0</v>
       </c>
       <c r="AE33"/>
       <c r="AG33" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -13765,49 +13891,49 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="S34" s="1">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>100000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U34" s="6">
-        <v>80000.0</v>
+        <v>1308000.0</v>
       </c>
       <c r="V34" s="2">
         <v>0.8</v>
       </c>
       <c r="W34" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2">
         <v>0.01</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0.0</v>
       </c>
       <c r="AE34"/>
       <c r="AG34" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -13837,49 +13963,49 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="S35" s="1">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>100000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U35" s="6">
-        <v>80000.0</v>
+        <v>1312000.0</v>
       </c>
       <c r="V35" s="2">
         <v>0.8</v>
       </c>
       <c r="W35" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2">
         <v>0.01</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0.0</v>
       </c>
       <c r="AE35"/>
       <c r="AG35" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -13909,49 +14035,49 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="S36" s="1">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>100000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U36" s="6">
-        <v>80000.0</v>
+        <v>1316000.0</v>
       </c>
       <c r="V36" s="2">
         <v>0.8</v>
       </c>
       <c r="W36" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2">
         <v>0.01</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0.0</v>
       </c>
       <c r="AE36"/>
       <c r="AG36" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -13981,49 +14107,49 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>100000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>80000.0</v>
+        <v>1320000.0</v>
       </c>
       <c r="V37" s="2">
         <v>0.8</v>
       </c>
       <c r="W37" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0.0</v>
       </c>
       <c r="AE37"/>
       <c r="AG37" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -14053,49 +14179,49 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>100000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>80000.0</v>
+        <v>1324000.0</v>
       </c>
       <c r="V38" s="2">
         <v>0.8</v>
       </c>
       <c r="W38" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0.0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -14125,49 +14251,49 @@
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="S39" s="1">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>100000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U39" s="6">
-        <v>80000.0</v>
+        <v>1328000.0</v>
       </c>
       <c r="V39" s="2">
         <v>0.8</v>
       </c>
       <c r="W39" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="2">
         <v>0.01</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39">
         <v>0.0</v>
       </c>
       <c r="AE39"/>
       <c r="AG39" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -14197,42 +14323,42 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>100000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>80000.0</v>
+        <v>1332000.0</v>
       </c>
       <c r="V40" s="12">
         <v>0.8</v>
       </c>
       <c r="W40" s="11">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0.0</v>
@@ -14240,7 +14366,7 @@
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
       <c r="AG40" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -14270,49 +14396,49 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>100000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>80000.0</v>
+        <v>1336000.0</v>
       </c>
       <c r="V41" s="2">
         <v>0.8</v>
       </c>
       <c r="W41" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0.0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -14342,49 +14468,49 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>100000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>80000.0</v>
+        <v>1340000.0</v>
       </c>
       <c r="V42" s="2">
         <v>0.8</v>
       </c>
       <c r="W42" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0.0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -14414,49 +14540,49 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>100000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>80000.0</v>
+        <v>1344000.0</v>
       </c>
       <c r="V43" s="2">
         <v>0.8</v>
       </c>
       <c r="W43" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0.0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -14486,49 +14612,49 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>100000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>80000.0</v>
+        <v>1348000.0</v>
       </c>
       <c r="V44" s="2">
         <v>0.8</v>
       </c>
       <c r="W44" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0.0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -14558,49 +14684,49 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>100000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>80000.0</v>
+        <v>1352000.0</v>
       </c>
       <c r="V45" s="2">
         <v>0.8</v>
       </c>
       <c r="W45" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0.0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -14630,49 +14756,49 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>100000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>80000.0</v>
+        <v>1356000.0</v>
       </c>
       <c r="V46" s="2">
         <v>0.8</v>
       </c>
       <c r="W46" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0.0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -14702,49 +14828,49 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>100000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>80000.0</v>
+        <v>1360000.0</v>
       </c>
       <c r="V47" s="2">
         <v>0.8</v>
       </c>
       <c r="W47" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0.0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -14774,49 +14900,49 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>100000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>80000.0</v>
+        <v>1364000.0</v>
       </c>
       <c r="V48" s="2">
         <v>0.8</v>
       </c>
       <c r="W48" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0.0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -14846,49 +14972,49 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>100000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>80000.0</v>
+        <v>1368000.0</v>
       </c>
       <c r="V49" s="2">
         <v>0.8</v>
       </c>
       <c r="W49" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0.0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -14918,49 +15044,49 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>100000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>80000.0</v>
+        <v>1372000.0</v>
       </c>
       <c r="V50" s="2">
         <v>0.8</v>
       </c>
       <c r="W50" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0.0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -14990,49 +15116,49 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>100000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>80000.0</v>
+        <v>1376000.0</v>
       </c>
       <c r="V51" s="2">
         <v>0.8</v>
       </c>
       <c r="W51" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0.0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -15062,49 +15188,49 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>100000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="V52" s="2">
         <v>0.8</v>
       </c>
       <c r="W52" s="1">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0.0</v>
       </c>
       <c r="AE52"/>
       <c r="AG52" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -15134,42 +15260,42 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>95000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>95000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="S53" s="13">
-        <v>100000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="T53" s="13">
-        <v>95000.0</v>
+        <v>1638750.0</v>
       </c>
       <c r="U53" s="13">
-        <v>76000.0</v>
+        <v>1311000.0</v>
       </c>
       <c r="V53" s="14">
         <v>0.8</v>
       </c>
       <c r="W53" s="13">
-        <v>760.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
@@ -15177,7 +15303,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -15207,49 +15333,49 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>90000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>90000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="S54" s="1">
-        <v>100000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="T54" s="1">
-        <v>90000.0</v>
+        <v>1552500.0</v>
       </c>
       <c r="U54" s="6">
-        <v>72000.0</v>
+        <v>1242000.0</v>
       </c>
       <c r="V54" s="2">
         <v>0.8</v>
       </c>
       <c r="W54" s="1">
-        <v>720.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -15279,49 +15405,49 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>85000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>85000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="S55" s="1">
-        <v>100000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="T55" s="1">
-        <v>85000.0</v>
+        <v>1466250.0</v>
       </c>
       <c r="U55" s="6">
-        <v>68000.0</v>
+        <v>1173000.0</v>
       </c>
       <c r="V55" s="2">
         <v>0.8</v>
       </c>
       <c r="W55" s="1">
-        <v>680.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -15351,49 +15477,49 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>100000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>80000.0</v>
+        <v>1380000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>64000.0</v>
+        <v>1104000.0</v>
       </c>
       <c r="V56" s="2">
         <v>0.8</v>
       </c>
       <c r="W56" s="1">
-        <v>640.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -15423,42 +15549,42 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>75000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>75000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="S57" s="13">
-        <v>100000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="T57" s="13">
-        <v>75000.0</v>
+        <v>1293750.0</v>
       </c>
       <c r="U57" s="13">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="V57" s="14">
         <v>0.8</v>
       </c>
       <c r="W57" s="13">
-        <v>600.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
@@ -15466,7 +15592,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -15496,49 +15622,49 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>70000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>70000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="S58" s="1">
-        <v>100000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="T58" s="1">
-        <v>70000.0</v>
+        <v>1207500.0</v>
       </c>
       <c r="U58" s="6">
-        <v>56000.0</v>
+        <v>966000.0</v>
       </c>
       <c r="V58" s="2">
         <v>0.8</v>
       </c>
       <c r="W58" s="1">
-        <v>560.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -15568,49 +15694,49 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>65000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>65000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="S59" s="1">
-        <v>100000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="T59" s="1">
-        <v>65000.0</v>
+        <v>1121250.0</v>
       </c>
       <c r="U59" s="6">
-        <v>52000.0</v>
+        <v>897000.0</v>
       </c>
       <c r="V59" s="2">
         <v>0.8</v>
       </c>
       <c r="W59" s="1">
-        <v>520.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -15640,49 +15766,49 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>100000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>60000.0</v>
+        <v>1035000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>48000.0</v>
+        <v>828000.0</v>
       </c>
       <c r="V60" s="2">
         <v>0.8</v>
       </c>
       <c r="W60" s="1">
-        <v>480.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -15712,49 +15838,49 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>55000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>55000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="S61" s="1">
-        <v>100000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="T61" s="1">
-        <v>55000.0</v>
+        <v>948750.0</v>
       </c>
       <c r="U61" s="6">
-        <v>44000.0</v>
+        <v>759000.0</v>
       </c>
       <c r="V61" s="2">
         <v>0.8</v>
       </c>
       <c r="W61" s="1">
-        <v>440.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -15784,49 +15910,49 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>50000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>50000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="S62" s="1">
-        <v>100000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="T62" s="1">
-        <v>50000.0</v>
+        <v>862500.0</v>
       </c>
       <c r="U62" s="6">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="V62" s="2">
         <v>0.8</v>
       </c>
       <c r="W62" s="1">
-        <v>400.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -15856,49 +15982,49 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>45000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>45000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="S63" s="1">
-        <v>100000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="T63" s="1">
-        <v>45000.0</v>
+        <v>776250.0</v>
       </c>
       <c r="U63" s="6">
-        <v>36000.0</v>
+        <v>621000.0</v>
       </c>
       <c r="V63" s="2">
         <v>0.8</v>
       </c>
       <c r="W63" s="1">
-        <v>360.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -15928,49 +16054,49 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>100000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>40000.0</v>
+        <v>690000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>32000.0</v>
+        <v>552000.0</v>
       </c>
       <c r="V64" s="2">
         <v>0.8</v>
       </c>
       <c r="W64" s="1">
-        <v>320.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -16000,49 +16126,49 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>35000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>35000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="S65" s="1">
-        <v>100000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="T65" s="1">
-        <v>35000.0</v>
+        <v>603750.0</v>
       </c>
       <c r="U65" s="6">
-        <v>28000.0</v>
+        <v>483000.0</v>
       </c>
       <c r="V65" s="2">
         <v>0.8</v>
       </c>
       <c r="W65" s="1">
-        <v>280.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -16072,49 +16198,49 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>30000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>30000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="S66" s="1">
-        <v>100000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="T66" s="1">
-        <v>30000.0</v>
+        <v>517500.0</v>
       </c>
       <c r="U66" s="6">
-        <v>24000.0</v>
+        <v>414000.0</v>
       </c>
       <c r="V66" s="2">
         <v>0.8</v>
       </c>
       <c r="W66" s="1">
-        <v>240.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -16144,49 +16270,49 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>25000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>25000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="S67" s="1">
-        <v>100000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="T67" s="1">
-        <v>25000.0</v>
+        <v>431250.0</v>
       </c>
       <c r="U67" s="6">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="V67" s="2">
         <v>0.8</v>
       </c>
       <c r="W67" s="1">
-        <v>200.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -16216,49 +16342,49 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>100000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>20000.0</v>
+        <v>345000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>16000.0</v>
+        <v>276000.0</v>
       </c>
       <c r="V68" s="2">
         <v>0.8</v>
       </c>
       <c r="W68" s="1">
-        <v>160.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -16288,49 +16414,49 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>15000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>15000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="S69" s="1">
-        <v>100000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="T69" s="1">
-        <v>15000.0</v>
+        <v>258750.0</v>
       </c>
       <c r="U69" s="6">
-        <v>12000.0</v>
+        <v>207000.0</v>
       </c>
       <c r="V69" s="2">
         <v>0.8</v>
       </c>
       <c r="W69" s="1">
-        <v>120.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -16360,49 +16486,49 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>10000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>10000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="S70" s="1">
-        <v>100000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="T70" s="1">
-        <v>10000.0</v>
+        <v>172500.0</v>
       </c>
       <c r="U70" s="6">
-        <v>8000.0</v>
+        <v>138000.0</v>
       </c>
       <c r="V70" s="2">
         <v>0.8</v>
       </c>
       <c r="W70" s="1">
-        <v>80.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -16432,49 +16558,49 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="S71" s="1">
-        <v>100000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="T71" s="1">
-        <v>5000.0</v>
+        <v>86250.0</v>
       </c>
       <c r="U71" s="6">
-        <v>4000.0</v>
+        <v>69000.0</v>
       </c>
       <c r="V71" s="2">
         <v>0.8</v>
       </c>
       <c r="W71" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -16511,31 +16637,31 @@
         <v>0.0</v>
       </c>
       <c r="S72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U72" s="5">
         <v>0.0</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>
@@ -16543,7 +16669,7 @@
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -16820,7 +16946,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tests/Feature/config/fond_zero.xlsx
+++ b/tests/Feature/config/fond_zero.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>private</t>
   </si>
@@ -167,58 +167,61 @@
     <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2068.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 92368 - 0 (tax) = 92368 from fond.2069.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2069.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 87237 - 0 (tax) = 87237 from fond.2070.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2070.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 82105 - 0 (tax) = 82105 from fond.2071.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2071.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 76974 - 0 (tax) = 76974 from fond.2072.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2072.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 71842 - 0 (tax) = 71842 from fond.2073.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2073.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 66711 - 0 (tax) = 66711 from fond.2074.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2074.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 61579 - 0 (tax) = 61579 from fond.2075.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2075.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 56447 - 0 (tax) = 56447 from fond.2076.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2076.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 51316 - 0 (tax) = 51316 from fond.2077.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2077.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 46184 - 0 (tax) = 46184 from fond.2078.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2078.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 41053 - 0 (tax) = 41053 from fond.2079.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2079.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 35921 - 0 (tax) = 35921 from fond.2080.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2080.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 30789 - 0 (tax) = 30789 from fond.2081.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2081.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 25658 - 0 (tax) = 25658 from fond.2082.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2082.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 20526 - 0 (tax) = 20526 from fond.2083.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2083.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 15395 - 0 (tax) = 15395 from fond.2084.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 0 (tax) = 97500 from fond.2084.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 10263 - 0 (tax) = 10263 from fond.2085.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 7315 (tax) = 90185 from fond.2085.asset.marketAmount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5132 - 0 (tax) = 5132 from fond.2086.asset.marketAmount </t>
+    <t xml:space="preserve">transfered 97500 - 34749 (tax) = 62751 from fond.2086.asset.marketAmount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfered 97500 - 34749 (tax) = 62751 from fond.2087.asset.marketAmount </t>
   </si>
   <si>
     <t>fond</t>
@@ -227,193 +230,196 @@
     <t>equityfund</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1505000 = 1500000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1500000+(5000*1)=1505000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1515000 = 1510000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1510000+(5000*1)=1515000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1525000 = 1520000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1520000+(5000*1)=1525000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1535000 = 1530000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1530000+(5000*1)=1535000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1545000 = 1540000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1540000+(5000*1)=1545000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1555000 = 1550000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1550000+(5000*1)=1555000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1565000 = 1560000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1560000+(5000*1)=1565000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1575000 = 1570000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1570000+(5000*1)=1575000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1585000 = 1580000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1580000+(5000*1)=1585000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1595000 = 1590000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1590000+(5000*1)=1595000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1605000 = 1600000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1600000+(5000*1)=1605000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1615000 = 1610000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1610000+(5000*1)=1615000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1625000 = 1620000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1620000+(5000*1)=1625000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1635000 = 1630000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1630000+(5000*1)=1635000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1645000 = 1640000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1640000+(5000*1)=1645000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1655000 = 1650000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1650000+(5000*1)=1655000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1665000 = 1660000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1660000+(5000*1)=1665000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1675000 = 1670000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1670000+(5000*1)=1675000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1685000 = 1680000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1680000+(5000*1)=1685000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1695000 = 1690000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1690000+(5000*1)=1695000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1705000 = 1700000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1700000+(5000*1)=1705000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1715000 = 1710000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1710000+(5000*1)=1715000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1725000 = 1720000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1720000+(5000*1)=1725000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1735000 = 1730000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1730000+(5000*1)=1735000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1745000 = 1740000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1740000+(5000*1)=1745000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1755000 = 1750000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1750000+(5000*1)=1755000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1765000 = 1760000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1760000+(5000*1)=1765000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1775000 = 1770000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1770000+(5000*1)=1775000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1785000 = 1780000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1780000+(5000*1)=1785000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1795000 = 1790000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1790000+(5000*1)=1795000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1805000 = 1800000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1800000+(5000*1)=1805000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1815000 = 1810000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1810000+(5000*1)=1815000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1825000 = 1820000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1820000+(5000*1)=1825000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1835000 = 1830000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1830000+(5000*1)=1835000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1845000 = 1840000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1840000+(5000*1)=1845000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1855000 = 1850000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1850000+(5000*1)=1855000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1865000 = 1860000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1860000+(5000*1)=1865000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1875000 = 1870000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1870000+(5000*1)=1875000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1885000 = 1880000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1880000+(5000*1)=1885000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1895000 = 1890000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1890000+(5000*1)=1895000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1905000 = 1900000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1900000+(5000*1)=1905000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1915000 = 1910000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1910000+(5000*1)=1915000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1925000 = 1920000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1920000+(5000*1)=1925000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1935000 = 1930000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1930000+(5000*1)=1935000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:+5000 Adding: 1945000 = 1940000 + (5000 * 1)</t>
+    <t xml:space="preserve"> Asset rule:+5000 Adding: 1940000+(5000*1)=1945000 </t>
   </si>
   <si>
-    <t>Uttak fra 2068, 1|20 Asset rule:1|20 Adding divisor: 97500 rewritten rule: 1|19</t>
+    <t>Uttak fra 2068, 1|20 Asset rule:1|20 Division: 1950000/20=97500 rewritten rule: 1|19</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|19 Adding divisor: 92368 rewritten rule: 1|18</t>
+    <t xml:space="preserve"> Asset rule:1|19 Division: 1852500/19=97500 rewritten rule: 1|18</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|18 Adding divisor: 87237 rewritten rule: 1|17</t>
+    <t xml:space="preserve"> Asset rule:1|18 Division: 1755000/18=97500 rewritten rule: 1|17</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|17 Adding divisor: 82105 rewritten rule: 1|16</t>
+    <t xml:space="preserve"> Asset rule:1|17 Division: 1657500/17=97500 rewritten rule: 1|16</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|16 Adding divisor: 76974 rewritten rule: 1|15</t>
+    <t xml:space="preserve"> Asset rule:1|16 Division: 1560000/16=97500 rewritten rule: 1|15</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|15 Adding divisor: 71842 rewritten rule: 1|14</t>
+    <t xml:space="preserve"> Asset rule:1|15 Division: 1462500/15=97500 rewritten rule: 1|14</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|14 Adding divisor: 66711 rewritten rule: 1|13</t>
+    <t xml:space="preserve"> Asset rule:1|14 Division: 1365000/14=97500 rewritten rule: 1|13</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|13 Adding divisor: 61579 rewritten rule: 1|12</t>
+    <t xml:space="preserve"> Asset rule:1|13 Division: 1267500/13=97500 rewritten rule: 1|12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|12 Adding divisor: 56447 rewritten rule: 1|11</t>
+    <t xml:space="preserve"> Asset rule:1|12 Division: 1170000/12=97500 rewritten rule: 1|11</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|11 Adding divisor: 51316 rewritten rule: 1|10</t>
+    <t xml:space="preserve"> Asset rule:1|11 Division: 1072500/11=97500 rewritten rule: 1|10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|10 Adding divisor: 46184 rewritten rule: 1|9</t>
+    <t xml:space="preserve"> Asset rule:1|10 Division: 975000/10=97500 rewritten rule: 1|9</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|9 Adding divisor: 41053 rewritten rule: 1|8</t>
+    <t xml:space="preserve"> Asset rule:1|9 Division: 877500/9=97500 rewritten rule: 1|8</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|8 Adding divisor: 35921 rewritten rule: 1|7</t>
+    <t xml:space="preserve"> Asset rule:1|8 Division: 780000/8=97500 rewritten rule: 1|7</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|7 Adding divisor: 30789 rewritten rule: 1|6</t>
+    <t xml:space="preserve"> Asset rule:1|7 Division: 682500/7=97500 rewritten rule: 1|6</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|6 Adding divisor: 25658 rewritten rule: 1|5</t>
+    <t xml:space="preserve"> Asset rule:1|6 Division: 585000/6=97500 rewritten rule: 1|5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|5 Adding divisor: 20526 rewritten rule: 1|4</t>
+    <t xml:space="preserve"> Asset rule:1|5 Division: 487500/5=97500 rewritten rule: 1|4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|4 Adding divisor: 15395 rewritten rule: 1|3</t>
+    <t xml:space="preserve"> Asset rule:1|4 Division: 390000/4=97500 rewritten rule: 1|3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule:1|3 Adding divisor: 10263 rewritten rule: 1|2</t>
+    <t xml:space="preserve"> Asset rule:1|3 Division: 292500/3=97500 rewritten rule: 1|2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule:1|2 Division: 195000/2=97500 rewritten rule: 1|1</t>
   </si>
   <si>
     <t>total</t>
@@ -1384,10 +1390,10 @@
         <v>1520000.0</v>
       </c>
       <c r="S9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U9" s="8">
         <v>1212000.0</v>
@@ -1405,14 +1411,14 @@
         <v>1520000.0</v>
       </c>
       <c r="AB9" s="8">
-        <v>0</v>
+        <v>5000.0</v>
       </c>
       <c r="AC9" s="8">
         <v>0</v>
       </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="8">
-        <v>48640.0</v>
+        <v>96960.0</v>
       </c>
       <c r="AF9" s="9"/>
       <c r="AG9" s="8">
@@ -1429,7 +1435,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL9" s="8">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM9" s="8"/>
       <c r="AN9" s="9"/>
@@ -1479,10 +1485,10 @@
         <v>1530000.0</v>
       </c>
       <c r="S10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U10" s="6">
         <v>1220000.0</v>
@@ -1500,14 +1506,14 @@
         <v>1530000.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>10000.0</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
-        <v>33660.0</v>
+        <v>130620.0</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="1">
@@ -1524,7 +1530,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL10" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="2"/>
@@ -1574,10 +1580,10 @@
         <v>1540000.0</v>
       </c>
       <c r="S11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U11" s="6">
         <v>1228000.0</v>
@@ -1595,14 +1601,14 @@
         <v>1540000.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>15000.0</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
-        <v>33880.0</v>
+        <v>164500.0</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="1">
@@ -1619,7 +1625,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL11" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="2"/>
@@ -1669,10 +1675,10 @@
         <v>1550000.0</v>
       </c>
       <c r="S12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U12" s="6">
         <v>1236000.0</v>
@@ -1690,14 +1696,14 @@
         <v>1550000.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>20000.0</v>
       </c>
       <c r="AC12" s="1">
         <v>0</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
-        <v>34100.0</v>
+        <v>198600.0</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="1">
@@ -1714,7 +1720,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL12" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="2"/>
@@ -1764,10 +1770,10 @@
         <v>1560000.0</v>
       </c>
       <c r="S13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U13" s="6">
         <v>1244000.0</v>
@@ -1785,14 +1791,14 @@
         <v>1560000.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC13" s="1">
         <v>0</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
-        <v>34320.0</v>
+        <v>232920.0</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="1">
@@ -1809,7 +1815,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL13" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="2"/>
@@ -1859,10 +1865,10 @@
         <v>1570000.0</v>
       </c>
       <c r="S14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U14" s="6">
         <v>1252000.0</v>
@@ -1880,14 +1886,14 @@
         <v>1570000.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>30000.0</v>
       </c>
       <c r="AC14" s="1">
         <v>0</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
-        <v>34540.0</v>
+        <v>267460.0</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="1">
@@ -1904,7 +1910,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL14" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="2"/>
@@ -1954,10 +1960,10 @@
         <v>1580000.0</v>
       </c>
       <c r="S15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U15" s="6">
         <v>1260000.0</v>
@@ -1975,14 +1981,14 @@
         <v>1580000.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>35000.0</v>
       </c>
       <c r="AC15" s="1">
         <v>0</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
-        <v>34760.0</v>
+        <v>302220.0</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="1">
@@ -1999,7 +2005,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL15" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="2"/>
@@ -2049,10 +2055,10 @@
         <v>1590000.0</v>
       </c>
       <c r="S16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U16" s="6">
         <v>1268000.0</v>
@@ -2070,14 +2076,14 @@
         <v>1590000.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>40000.0</v>
       </c>
       <c r="AC16" s="1">
         <v>0</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1">
-        <v>34980.0</v>
+        <v>337200.0</v>
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="1">
@@ -2094,7 +2100,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL16" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
@@ -2144,10 +2150,10 @@
         <v>1600000.0</v>
       </c>
       <c r="S17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U17" s="6">
         <v>1276000.0</v>
@@ -2165,14 +2171,14 @@
         <v>1600000.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>45000.0</v>
       </c>
       <c r="AC17" s="1">
         <v>0</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1">
-        <v>35200.0</v>
+        <v>372400.0</v>
       </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="1">
@@ -2189,7 +2195,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL17" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
@@ -2239,10 +2245,10 @@
         <v>1610000.0</v>
       </c>
       <c r="S18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U18" s="6">
         <v>1284000.0</v>
@@ -2260,14 +2266,14 @@
         <v>1610000.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="AC18" s="1">
         <v>0</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1">
-        <v>35420.0</v>
+        <v>407820.0</v>
       </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="1">
@@ -2284,7 +2290,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL18" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
@@ -2334,10 +2340,10 @@
         <v>1620000.0</v>
       </c>
       <c r="S19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U19" s="6">
         <v>1292000.0</v>
@@ -2355,14 +2361,14 @@
         <v>1620000.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>55000.0</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1">
-        <v>35640.0</v>
+        <v>443460.0</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="1">
@@ -2379,7 +2385,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL19" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="2"/>
@@ -2429,10 +2435,10 @@
         <v>1630000.0</v>
       </c>
       <c r="S20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U20" s="6">
         <v>1300000.0</v>
@@ -2450,14 +2456,14 @@
         <v>1630000.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>60000.0</v>
       </c>
       <c r="AC20" s="1">
         <v>0</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>35860.0</v>
+        <v>479320.0</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
@@ -2474,7 +2480,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL20" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
@@ -2524,10 +2530,10 @@
         <v>1640000.0</v>
       </c>
       <c r="S21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U21" s="6">
         <v>1308000.0</v>
@@ -2545,14 +2551,14 @@
         <v>1640000.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>65000.0</v>
       </c>
       <c r="AC21" s="1">
         <v>0</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>36080.0</v>
+        <v>515400.0</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
@@ -2569,7 +2575,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL21" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
@@ -2619,10 +2625,10 @@
         <v>1650000.0</v>
       </c>
       <c r="S22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U22" s="6">
         <v>1316000.0</v>
@@ -2640,14 +2646,14 @@
         <v>1650000.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>70000.0</v>
       </c>
       <c r="AC22" s="1">
         <v>0</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>36300.0</v>
+        <v>551700.0</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
@@ -2664,7 +2670,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL22" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
@@ -2714,10 +2720,10 @@
         <v>1660000.0</v>
       </c>
       <c r="S23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U23" s="6">
         <v>1324000.0</v>
@@ -2735,14 +2741,14 @@
         <v>1660000.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>75000.0</v>
       </c>
       <c r="AC23" s="1">
         <v>0</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>36520.0</v>
+        <v>588220.0</v>
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
@@ -2759,7 +2765,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL23" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
@@ -2809,10 +2815,10 @@
         <v>1670000.0</v>
       </c>
       <c r="S24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U24" s="6">
         <v>1332000.0</v>
@@ -2830,14 +2836,14 @@
         <v>1670000.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>80000.0</v>
       </c>
       <c r="AC24" s="1">
         <v>0</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>36740.0</v>
+        <v>624960.0</v>
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
@@ -2854,7 +2860,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL24" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
@@ -2904,10 +2910,10 @@
         <v>1680000.0</v>
       </c>
       <c r="S25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U25" s="6">
         <v>1340000.0</v>
@@ -2925,14 +2931,14 @@
         <v>1680000.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>85000.0</v>
       </c>
       <c r="AC25" s="1">
         <v>0</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>36960.0</v>
+        <v>661920.0</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
@@ -2949,7 +2955,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL25" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
@@ -2999,10 +3005,10 @@
         <v>1690000.0</v>
       </c>
       <c r="S26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U26" s="6">
         <v>1348000.0</v>
@@ -3020,14 +3026,14 @@
         <v>1690000.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>90000.0</v>
       </c>
       <c r="AC26" s="1">
         <v>0</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
-        <v>37180.0</v>
+        <v>699100.0</v>
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
@@ -3044,7 +3050,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL26" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -3094,10 +3100,10 @@
         <v>1700000.0</v>
       </c>
       <c r="S27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U27" s="6">
         <v>1356000.0</v>
@@ -3115,14 +3121,14 @@
         <v>1700000.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>95000.0</v>
       </c>
       <c r="AC27" s="1">
         <v>0</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
-        <v>37400.0</v>
+        <v>736500.0</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
@@ -3139,7 +3145,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL27" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -3189,10 +3195,10 @@
         <v>1710000.0</v>
       </c>
       <c r="S28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U28" s="6">
         <v>1364000.0</v>
@@ -3210,14 +3216,14 @@
         <v>1710000.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="AC28" s="1">
         <v>0</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
-        <v>37620.0</v>
+        <v>774120.0</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
@@ -3234,7 +3240,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL28" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
@@ -3284,10 +3290,10 @@
         <v>1720000.0</v>
       </c>
       <c r="S29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U29" s="6">
         <v>1372000.0</v>
@@ -3305,14 +3311,14 @@
         <v>1720000.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>105000.0</v>
       </c>
       <c r="AC29" s="1">
         <v>0</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
-        <v>37840.0</v>
+        <v>811960.0</v>
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
@@ -3329,7 +3335,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL29" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
@@ -3379,10 +3385,10 @@
         <v>1730000.0</v>
       </c>
       <c r="S30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U30" s="6">
         <v>1380000.0</v>
@@ -3400,14 +3406,14 @@
         <v>1730000.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>110000.0</v>
       </c>
       <c r="AC30" s="1">
         <v>0</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
-        <v>38060.0</v>
+        <v>850020.0</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
@@ -3424,7 +3430,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL30" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="2"/>
@@ -3474,10 +3480,10 @@
         <v>1740000.0</v>
       </c>
       <c r="S31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U31" s="6">
         <v>1388000.0</v>
@@ -3495,14 +3501,14 @@
         <v>1740000.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>115000.0</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
-        <v>38280.0</v>
+        <v>888300.0</v>
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
@@ -3519,7 +3525,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL31" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="2"/>
@@ -3569,10 +3575,10 @@
         <v>1750000.0</v>
       </c>
       <c r="S32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U32" s="6">
         <v>1396000.0</v>
@@ -3590,14 +3596,14 @@
         <v>1750000.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>120000.0</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
-        <v>38500.0</v>
+        <v>926800.0</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
@@ -3614,7 +3620,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL32" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="2"/>
@@ -3664,10 +3670,10 @@
         <v>1760000.0</v>
       </c>
       <c r="S33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U33" s="6">
         <v>1404000.0</v>
@@ -3685,14 +3691,14 @@
         <v>1760000.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>125000.0</v>
       </c>
       <c r="AC33" s="1">
         <v>0</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
-        <v>38720.0</v>
+        <v>965520.0</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
@@ -3709,7 +3715,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL33" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="2"/>
@@ -3759,10 +3765,10 @@
         <v>1770000.0</v>
       </c>
       <c r="S34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U34" s="6">
         <v>1412000.0</v>
@@ -3780,14 +3786,14 @@
         <v>1770000.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>130000.0</v>
       </c>
       <c r="AC34" s="1">
         <v>0</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
-        <v>38940.0</v>
+        <v>1004460.0</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
@@ -3804,7 +3810,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL34" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="2"/>
@@ -3854,10 +3860,10 @@
         <v>1780000.0</v>
       </c>
       <c r="S35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U35" s="6">
         <v>1420000.0</v>
@@ -3875,14 +3881,14 @@
         <v>1780000.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>135000.0</v>
       </c>
       <c r="AC35" s="1">
         <v>0</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
-        <v>39160.0</v>
+        <v>1043620.0</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
@@ -3899,7 +3905,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL35" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="2"/>
@@ -3949,10 +3955,10 @@
         <v>1790000.0</v>
       </c>
       <c r="S36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U36" s="6">
         <v>1428000.0</v>
@@ -3970,14 +3976,14 @@
         <v>1790000.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>140000.0</v>
       </c>
       <c r="AC36" s="1">
         <v>0</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
-        <v>39380.0</v>
+        <v>1083000.0</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
@@ -3994,7 +4000,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL36" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="2"/>
@@ -4044,10 +4050,10 @@
         <v>1800000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U37" s="6">
         <v>1436000.0</v>
@@ -4065,14 +4071,14 @@
         <v>1800000.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>145000.0</v>
       </c>
       <c r="AC37" s="1">
         <v>0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>39600.0</v>
+        <v>1122600.0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
@@ -4089,7 +4095,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL37" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="2"/>
@@ -4139,10 +4145,10 @@
         <v>1810000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U38" s="6">
         <v>1444000.0</v>
@@ -4160,14 +4166,14 @@
         <v>1810000.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>150000.0</v>
       </c>
       <c r="AC38" s="1">
         <v>0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>39820.0</v>
+        <v>1162420.0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="1">
@@ -4184,7 +4190,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL38" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="2"/>
@@ -4234,10 +4240,10 @@
         <v>1820000.0</v>
       </c>
       <c r="S39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U39" s="6">
         <v>1452000.0</v>
@@ -4255,14 +4261,14 @@
         <v>1820000.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>0</v>
+        <v>155000.0</v>
       </c>
       <c r="AC39" s="1">
         <v>0</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
-        <v>40040.0</v>
+        <v>1202460.0</v>
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="1">
@@ -4279,7 +4285,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL39" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="2"/>
@@ -4329,10 +4335,10 @@
         <v>1830000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U40" s="11">
         <v>1460000.0</v>
@@ -4350,14 +4356,14 @@
         <v>1830000.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>160000.0</v>
       </c>
       <c r="AC40" s="11">
         <v>0</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>40260.0</v>
+        <v>1242720.0</v>
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
@@ -4374,7 +4380,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL40" s="11">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM40" s="11"/>
       <c r="AN40" s="12"/>
@@ -4424,10 +4430,10 @@
         <v>1840000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U41" s="6">
         <v>1468000.0</v>
@@ -4445,14 +4451,14 @@
         <v>1840000.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>165000.0</v>
       </c>
       <c r="AC41" s="1">
         <v>0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>40480.0</v>
+        <v>1283200.0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="1">
@@ -4469,7 +4475,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL41" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="2"/>
@@ -4519,10 +4525,10 @@
         <v>1850000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U42" s="6">
         <v>1476000.0</v>
@@ -4540,14 +4546,14 @@
         <v>1850000.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>170000.0</v>
       </c>
       <c r="AC42" s="1">
         <v>0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>40700.0</v>
+        <v>1323900.0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="1">
@@ -4564,7 +4570,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL42" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="2"/>
@@ -4614,10 +4620,10 @@
         <v>1860000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U43" s="6">
         <v>1484000.0</v>
@@ -4635,14 +4641,14 @@
         <v>1860000.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>175000.0</v>
       </c>
       <c r="AC43" s="1">
         <v>0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>40920.0</v>
+        <v>1364820.0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="1">
@@ -4659,7 +4665,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL43" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="2"/>
@@ -4709,10 +4715,10 @@
         <v>1870000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U44" s="6">
         <v>1492000.0</v>
@@ -4730,14 +4736,14 @@
         <v>1870000.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="AC44" s="1">
         <v>0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>41140.0</v>
+        <v>1405960.0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="1">
@@ -4754,7 +4760,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL44" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM44" s="1"/>
       <c r="AN44" s="2"/>
@@ -4804,10 +4810,10 @@
         <v>1880000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U45" s="6">
         <v>1500000.0</v>
@@ -4825,14 +4831,14 @@
         <v>1880000.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>185000.0</v>
       </c>
       <c r="AC45" s="1">
         <v>0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>41360.0</v>
+        <v>1447320.0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="1">
@@ -4849,7 +4855,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL45" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="2"/>
@@ -4899,10 +4905,10 @@
         <v>1890000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U46" s="6">
         <v>1508000.0</v>
@@ -4920,14 +4926,14 @@
         <v>1890000.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>190000.0</v>
       </c>
       <c r="AC46" s="1">
         <v>0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>41580.0</v>
+        <v>1488900.0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="1">
@@ -4944,7 +4950,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL46" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM46" s="1"/>
       <c r="AN46" s="2"/>
@@ -4994,10 +5000,10 @@
         <v>1900000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U47" s="6">
         <v>1516000.0</v>
@@ -5015,14 +5021,14 @@
         <v>1900000.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>195000.0</v>
       </c>
       <c r="AC47" s="1">
         <v>0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>41800.0</v>
+        <v>1530700.0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="1">
@@ -5039,7 +5045,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL47" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM47" s="1"/>
       <c r="AN47" s="2"/>
@@ -5089,10 +5095,10 @@
         <v>1910000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U48" s="6">
         <v>1524000.0</v>
@@ -5110,14 +5116,14 @@
         <v>1910000.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>200000.0</v>
       </c>
       <c r="AC48" s="1">
         <v>0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>42020.0</v>
+        <v>1572720.0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="1">
@@ -5134,7 +5140,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL48" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM48" s="1"/>
       <c r="AN48" s="2"/>
@@ -5184,10 +5190,10 @@
         <v>1920000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U49" s="6">
         <v>1532000.0</v>
@@ -5205,14 +5211,14 @@
         <v>1920000.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>205000.0</v>
       </c>
       <c r="AC49" s="1">
         <v>0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>42240.0</v>
+        <v>1614960.0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="1">
@@ -5229,7 +5235,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL49" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM49" s="1"/>
       <c r="AN49" s="2"/>
@@ -5279,10 +5285,10 @@
         <v>1930000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U50" s="6">
         <v>1540000.0</v>
@@ -5300,14 +5306,14 @@
         <v>1930000.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>210000.0</v>
       </c>
       <c r="AC50" s="1">
         <v>0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>42460.0</v>
+        <v>1657420.0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="1">
@@ -5324,7 +5330,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL50" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AN50" s="2"/>
@@ -5374,10 +5380,10 @@
         <v>1940000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U51" s="6">
         <v>1548000.0</v>
@@ -5395,14 +5401,14 @@
         <v>1940000.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>215000.0</v>
       </c>
       <c r="AC51" s="1">
         <v>0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>42680.0</v>
+        <v>1700100.0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="1">
@@ -5419,7 +5425,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL51" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AN51" s="2"/>
@@ -5469,10 +5475,10 @@
         <v>1950000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="U52" s="6">
         <v>1556000.0</v>
@@ -5490,14 +5496,14 @@
         <v>1950000.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC52" s="1">
         <v>0</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>42900.0</v>
+        <v>1743000.0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="1">
@@ -5514,7 +5520,7 @@
         <v>2400000.0</v>
       </c>
       <c r="AL52" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AN52" s="2"/>
@@ -5557,20 +5563,20 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>1755000.0</v>
+        <v>1852500.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>1755000.0</v>
+        <v>1852500.0</v>
       </c>
       <c r="S53" s="13">
-        <v>1755000.0</v>
+        <v>1632500.0</v>
       </c>
       <c r="T53" s="13">
-        <v>1755000.0</v>
+        <v>1632500.0</v>
       </c>
       <c r="U53" s="13">
-        <v>1482000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -5582,17 +5588,17 @@
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>1755000.0</v>
+        <v>1852500.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC53" s="13">
         <v>0</v>
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>38610.0</v>
+        <v>1783755.0</v>
       </c>
       <c r="AF53" s="14"/>
       <c r="AG53" s="13">
@@ -5609,7 +5615,7 @@
         <v>487500.0</v>
       </c>
       <c r="AL53" s="13">
-        <v>-195000.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM53" s="13"/>
       <c r="AN53" s="14"/>
@@ -5623,7 +5629,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>92368.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -5652,20 +5658,20 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>1570264.0</v>
+        <v>1755000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>1570264.0</v>
+        <v>1755000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>1570264.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>1570264.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>1330105.6</v>
+        <v>1482000.0</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -5677,17 +5683,17 @@
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>1570264.0</v>
+        <v>1755000.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC54" s="1">
         <v>0</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>34545.808</v>
+        <v>1822365.0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="1">
@@ -5698,13 +5704,13 @@
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
-        <v>92368.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK54" s="1">
-        <v>461840.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL54" s="1">
-        <v>-184736.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM54" s="1"/>
       <c r="AN54" s="2"/>
@@ -5718,7 +5724,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>87237.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -5747,20 +5753,20 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>1395790.0</v>
+        <v>1657500.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>1395790.0</v>
+        <v>1657500.0</v>
       </c>
       <c r="S55" s="1">
-        <v>1395790.0</v>
+        <v>1437500.0</v>
       </c>
       <c r="T55" s="1">
-        <v>1395790.0</v>
+        <v>1437500.0</v>
       </c>
       <c r="U55" s="6">
-        <v>1186421.6</v>
+        <v>1404000.0</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -5772,17 +5778,17 @@
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>1395790.0</v>
+        <v>1657500.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC55" s="1">
         <v>0</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>30707.38</v>
+        <v>1858830.0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="1">
@@ -5793,13 +5799,13 @@
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
-        <v>87237.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK55" s="1">
-        <v>436185.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL55" s="1">
-        <v>-174474.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM55" s="1"/>
       <c r="AN55" s="2"/>
@@ -5813,7 +5819,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>82105.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -5842,20 +5848,20 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>1231580.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>1231580.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>1231580.0</v>
+        <v>1340000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>1231580.0</v>
+        <v>1340000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>1050948.0</v>
+        <v>1326000.0</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -5867,17 +5873,17 @@
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>1231580.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC56" s="1">
         <v>0</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>27094.76</v>
+        <v>1893150.0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="1">
@@ -5888,13 +5894,13 @@
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
-        <v>82105.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK56" s="1">
-        <v>410525.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL56" s="1">
-        <v>-164210.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AN56" s="2"/>
@@ -5908,7 +5914,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>76974.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -5937,20 +5943,20 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>1077632.0</v>
+        <v>1462500.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>1077632.0</v>
+        <v>1462500.0</v>
       </c>
       <c r="S57" s="13">
-        <v>1077632.0</v>
+        <v>1242500.0</v>
       </c>
       <c r="T57" s="13">
-        <v>1077632.0</v>
+        <v>1242500.0</v>
       </c>
       <c r="U57" s="13">
-        <v>923684.8</v>
+        <v>1248000.0</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -5962,17 +5968,17 @@
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>1077632.0</v>
+        <v>1462500.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC57" s="13">
         <v>0</v>
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>23707.904</v>
+        <v>1925325.0</v>
       </c>
       <c r="AF57" s="14"/>
       <c r="AG57" s="13">
@@ -5983,13 +5989,13 @@
       </c>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
-        <v>76974.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK57" s="13">
-        <v>384870.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL57" s="13">
-        <v>-153948.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM57" s="13"/>
       <c r="AN57" s="14"/>
@@ -6003,7 +6009,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>71842.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -6032,20 +6038,20 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>933948.0</v>
+        <v>1365000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>933948.0</v>
+        <v>1365000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>933948.0</v>
+        <v>1145000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>933948.0</v>
+        <v>1145000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>804632.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -6057,17 +6063,17 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>933948.0</v>
+        <v>1365000.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC58" s="1">
         <v>0</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>20546.856</v>
+        <v>1955355.0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="1">
@@ -6078,13 +6084,13 @@
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
-        <v>71842.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK58" s="1">
-        <v>359210.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL58" s="1">
-        <v>-143684.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM58" s="1"/>
       <c r="AN58" s="2"/>
@@ -6098,7 +6104,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>66711.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -6127,20 +6133,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>800526.0</v>
+        <v>1267500.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>800526.0</v>
+        <v>1267500.0</v>
       </c>
       <c r="S59" s="1">
-        <v>800526.0</v>
+        <v>1047500.0</v>
       </c>
       <c r="T59" s="1">
-        <v>800526.0</v>
+        <v>1047500.0</v>
       </c>
       <c r="U59" s="6">
-        <v>693789.6</v>
+        <v>1092000.0</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -6152,17 +6158,17 @@
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>800526.0</v>
+        <v>1267500.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC59" s="1">
         <v>0</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>17611.572</v>
+        <v>1983240.0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="1">
@@ -6173,13 +6179,13 @@
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
-        <v>66711.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK59" s="1">
-        <v>333555.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL59" s="1">
-        <v>-133422.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM59" s="1"/>
       <c r="AN59" s="2"/>
@@ -6193,7 +6199,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>61579.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -6222,20 +6228,20 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>677368.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>677368.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>677368.0</v>
+        <v>950000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>677368.0</v>
+        <v>950000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>591157.6</v>
+        <v>1014000.0</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -6247,17 +6253,17 @@
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>677368.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC60" s="1">
         <v>0</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>14902.096</v>
+        <v>2008980.0</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="1">
@@ -6268,13 +6274,13 @@
       </c>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="1">
-        <v>61579.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK60" s="1">
-        <v>307895.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL60" s="1">
-        <v>-123158.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM60" s="1"/>
       <c r="AN60" s="2"/>
@@ -6288,7 +6294,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>56447.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -6317,20 +6323,20 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>564474.0</v>
+        <v>1072500.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>564474.0</v>
+        <v>1072500.0</v>
       </c>
       <c r="S61" s="1">
-        <v>564474.0</v>
+        <v>852500.0</v>
       </c>
       <c r="T61" s="1">
-        <v>564474.0</v>
+        <v>852500.0</v>
       </c>
       <c r="U61" s="6">
-        <v>496736.8</v>
+        <v>936000.0</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -6342,17 +6348,17 @@
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>564474.0</v>
+        <v>1072500.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC61" s="1">
         <v>0</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>12418.428</v>
+        <v>2032575.0</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="1">
@@ -6363,13 +6369,13 @@
       </c>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="1">
-        <v>56447.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK61" s="1">
-        <v>282235.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL61" s="1">
-        <v>-112894.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM61" s="1"/>
       <c r="AN61" s="2"/>
@@ -6383,7 +6389,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>51316.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -6412,20 +6418,20 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>461842.0</v>
+        <v>975000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>461842.0</v>
+        <v>975000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>461842.0</v>
+        <v>755000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>461842.0</v>
+        <v>755000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>410526.4</v>
+        <v>858000.0</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -6437,17 +6443,17 @@
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>461842.0</v>
+        <v>975000.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>10160.524</v>
+        <v>2054025.0</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="1">
@@ -6458,13 +6464,13 @@
       </c>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="1">
-        <v>51316.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK62" s="1">
-        <v>256580.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL62" s="1">
-        <v>-102632.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM62" s="1"/>
       <c r="AN62" s="2"/>
@@ -6478,7 +6484,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>46184.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -6507,20 +6513,20 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>369474.0</v>
+        <v>877500.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>369474.0</v>
+        <v>877500.0</v>
       </c>
       <c r="S63" s="1">
-        <v>369474.0</v>
+        <v>657500.0</v>
       </c>
       <c r="T63" s="1">
-        <v>369474.0</v>
+        <v>657500.0</v>
       </c>
       <c r="U63" s="6">
-        <v>332526.4</v>
+        <v>780000.0</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -6532,17 +6538,17 @@
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>369474.0</v>
+        <v>877500.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC63" s="1">
         <v>0</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>8128.428</v>
+        <v>2073330.0</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="1">
@@ -6553,13 +6559,13 @@
       </c>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="1">
-        <v>46184.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK63" s="1">
-        <v>230920.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL63" s="1">
-        <v>-92368.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM63" s="1"/>
       <c r="AN63" s="2"/>
@@ -6573,7 +6579,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>41053.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -6602,20 +6608,20 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>287368.0</v>
+        <v>780000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>287368.0</v>
+        <v>780000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>287368.0</v>
+        <v>560000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>287368.0</v>
+        <v>560000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>262736.8</v>
+        <v>702000.0</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -6627,17 +6633,17 @@
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>287368.0</v>
+        <v>780000.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC64" s="1">
         <v>0</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>6322.096</v>
+        <v>2090490.0</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="1">
@@ -6648,13 +6654,13 @@
       </c>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="1">
-        <v>41053.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK64" s="1">
-        <v>205265.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL64" s="1">
-        <v>-82106.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM64" s="1"/>
       <c r="AN64" s="2"/>
@@ -6668,7 +6674,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>35921.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -6697,20 +6703,20 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>215526.0</v>
+        <v>682500.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>215526.0</v>
+        <v>682500.0</v>
       </c>
       <c r="S65" s="1">
-        <v>215526.0</v>
+        <v>462500.0</v>
       </c>
       <c r="T65" s="1">
-        <v>215526.0</v>
+        <v>462500.0</v>
       </c>
       <c r="U65" s="6">
-        <v>201157.6</v>
+        <v>624000.0</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -6722,17 +6728,17 @@
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>215526.0</v>
+        <v>682500.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC65" s="1">
         <v>0</v>
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>4741.572</v>
+        <v>2105505.0</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="1">
@@ -6743,13 +6749,13 @@
       </c>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="1">
-        <v>35921.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK65" s="1">
-        <v>179605.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL65" s="1">
-        <v>-71842.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM65" s="1"/>
       <c r="AN65" s="2"/>
@@ -6763,7 +6769,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>30789.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -6792,20 +6798,20 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>153948.0</v>
+        <v>585000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>153948.0</v>
+        <v>585000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>153948.0</v>
+        <v>365000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>153948.0</v>
+        <v>365000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>147789.6</v>
+        <v>546000.0</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -6817,17 +6823,17 @@
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>153948.0</v>
+        <v>585000.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC66" s="1">
         <v>0</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>3386.856</v>
+        <v>2118375.0</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="1">
@@ -6838,13 +6844,13 @@
       </c>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="1">
-        <v>30789.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK66" s="1">
-        <v>153945.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL66" s="1">
-        <v>-61578.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM66" s="1"/>
       <c r="AN66" s="2"/>
@@ -6858,7 +6864,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>25658.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -6887,20 +6893,20 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>102632.0</v>
+        <v>487500.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>102632.0</v>
+        <v>487500.0</v>
       </c>
       <c r="S67" s="1">
-        <v>102632.0</v>
+        <v>267500.0</v>
       </c>
       <c r="T67" s="1">
-        <v>102632.0</v>
+        <v>267500.0</v>
       </c>
       <c r="U67" s="6">
-        <v>102632.0</v>
+        <v>468000.0</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -6912,17 +6918,17 @@
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>102632.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC67" s="1">
         <v>0</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>2257.904</v>
+        <v>2129100.0</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="1">
@@ -6933,13 +6939,13 @@
       </c>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="1">
-        <v>25658.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK67" s="1">
-        <v>128290.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL67" s="1">
-        <v>-51316.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM67" s="1"/>
       <c r="AN67" s="2"/>
@@ -6953,7 +6959,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>20526.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -6982,20 +6988,20 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>61580.0</v>
+        <v>390000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>61580.0</v>
+        <v>390000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>61580.0</v>
+        <v>170000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>61580.0</v>
+        <v>170000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>65684.8</v>
+        <v>390000.0</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -7007,17 +7013,17 @@
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>61580.0</v>
+        <v>390000.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC68" s="1">
         <v>0</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>1354.76</v>
+        <v>2137680.0</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="1">
@@ -7028,13 +7034,13 @@
       </c>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="1">
-        <v>20526.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK68" s="1">
-        <v>102630.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL68" s="1">
-        <v>-41052.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM68" s="1"/>
       <c r="AN68" s="2"/>
@@ -7048,7 +7054,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>15395.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -7077,20 +7083,20 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>30790.0</v>
+        <v>292500.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>30790.0</v>
+        <v>292500.0</v>
       </c>
       <c r="S69" s="1">
-        <v>30790.0</v>
+        <v>72500.0</v>
       </c>
       <c r="T69" s="1">
-        <v>30790.0</v>
+        <v>72500.0</v>
       </c>
       <c r="U69" s="6">
-        <v>36948.0</v>
+        <v>312000.0</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -7102,17 +7108,17 @@
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>30790.0</v>
+        <v>292500.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC69" s="1">
         <v>0</v>
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>677.38</v>
+        <v>2144115.0</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="1">
@@ -7123,13 +7129,13 @@
       </c>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="1">
-        <v>15395.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK69" s="1">
-        <v>76975.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL69" s="1">
-        <v>-30790.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM69" s="1"/>
       <c r="AN69" s="2"/>
@@ -7143,7 +7149,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>10263.0</v>
+        <v>90185.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -7172,20 +7178,20 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>10264.0</v>
+        <v>195000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>10264.0</v>
+        <v>195000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>10264.0</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
-        <v>10264.0</v>
+        <v>0</v>
       </c>
       <c r="U70" s="6">
-        <v>16421.6</v>
+        <v>234000.0</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -7197,17 +7203,17 @@
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>10264.0</v>
+        <v>195000.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC70" s="1">
         <v>0</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>225.808</v>
+        <v>2148405.0</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="1">
@@ -7218,13 +7224,13 @@
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="1">
-        <v>10263.0</v>
+        <v>90185.0</v>
       </c>
       <c r="AK70" s="1">
-        <v>51315.0</v>
+        <v>450925.0</v>
       </c>
       <c r="AL70" s="1">
-        <v>-20526.0</v>
+        <v>-72500.0</v>
       </c>
       <c r="AM70" s="1"/>
       <c r="AN70" s="2"/>
@@ -7238,7 +7244,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>5132.0</v>
+        <v>62751.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -7267,11 +7273,11 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>97500.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>97500.0</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -7280,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="6">
-        <v>0</v>
+        <v>156000.0</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -7292,17 +7298,17 @@
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>97500.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>195000.0</v>
       </c>
       <c r="AC71" s="1">
         <v>0</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0</v>
+        <v>2150550.0</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="1">
@@ -7313,13 +7319,13 @@
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="1">
-        <v>5132.0</v>
+        <v>62751.0</v>
       </c>
       <c r="AK71" s="1">
-        <v>25660.0</v>
+        <v>313755.0</v>
       </c>
       <c r="AL71" s="1">
-        <v>-10264.0</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="1"/>
       <c r="AN71" s="2"/>
@@ -7333,7 +7339,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>62751.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -7408,10 +7414,10 @@
       </c>
       <c r="AI72" s="16"/>
       <c r="AJ72" s="5">
-        <v>0</v>
+        <v>62751.0</v>
       </c>
       <c r="AK72" s="5">
-        <v>0</v>
+        <v>313755.0</v>
       </c>
       <c r="AL72" s="5">
         <v>0</v>
@@ -11141,7 +11147,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>92368.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -11184,10 +11190,10 @@
       </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
-        <v>92368.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK54" s="1">
-        <v>461840.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL54" s="1">
         <v>0</v>
@@ -11206,7 +11212,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>87237.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -11249,10 +11255,10 @@
       </c>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
-        <v>87237.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK55" s="1">
-        <v>436185.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
@@ -11271,7 +11277,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>82105.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -11314,10 +11320,10 @@
       </c>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
-        <v>82105.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK56" s="1">
-        <v>410525.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
@@ -11336,7 +11342,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>76974.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -11379,10 +11385,10 @@
       </c>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
-        <v>76974.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK57" s="13">
-        <v>384870.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL57" s="13">
         <v>0</v>
@@ -11401,7 +11407,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>71842.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -11444,10 +11450,10 @@
       </c>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
-        <v>71842.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK58" s="1">
-        <v>359210.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -11466,7 +11472,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>66711.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -11509,10 +11515,10 @@
       </c>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
-        <v>66711.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK59" s="1">
-        <v>333555.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL59" s="1">
         <v>0</v>
@@ -11531,7 +11537,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>61579.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -11574,10 +11580,10 @@
       </c>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="1">
-        <v>61579.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK60" s="1">
-        <v>307895.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL60" s="1">
         <v>0</v>
@@ -11596,7 +11602,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>56447.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -11639,10 +11645,10 @@
       </c>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="1">
-        <v>56447.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK61" s="1">
-        <v>282235.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL61" s="1">
         <v>0</v>
@@ -11661,7 +11667,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>51316.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -11704,10 +11710,10 @@
       </c>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="1">
-        <v>51316.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK62" s="1">
-        <v>256580.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -11726,7 +11732,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>46184.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -11769,10 +11775,10 @@
       </c>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="1">
-        <v>46184.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK63" s="1">
-        <v>230920.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL63" s="1">
         <v>0</v>
@@ -11791,7 +11797,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>41053.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -11834,10 +11840,10 @@
       </c>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="1">
-        <v>41053.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK64" s="1">
-        <v>205265.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL64" s="1">
         <v>0</v>
@@ -11856,7 +11862,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>35921.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -11899,10 +11905,10 @@
       </c>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="1">
-        <v>35921.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK65" s="1">
-        <v>179605.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -11921,7 +11927,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>30789.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -11964,10 +11970,10 @@
       </c>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="1">
-        <v>30789.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK66" s="1">
-        <v>153945.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL66" s="1">
         <v>0</v>
@@ -11986,7 +11992,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>25658.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -12029,10 +12035,10 @@
       </c>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="1">
-        <v>25658.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK67" s="1">
-        <v>128290.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -12051,7 +12057,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>20526.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -12094,10 +12100,10 @@
       </c>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="1">
-        <v>20526.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK68" s="1">
-        <v>102630.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL68" s="1">
         <v>0</v>
@@ -12116,7 +12122,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>15395.0</v>
+        <v>97500.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -12159,10 +12165,10 @@
       </c>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="1">
-        <v>15395.0</v>
+        <v>97500.0</v>
       </c>
       <c r="AK69" s="1">
-        <v>76975.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AL69" s="1">
         <v>0</v>
@@ -12181,7 +12187,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>10263.0</v>
+        <v>90185.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -12224,10 +12230,10 @@
       </c>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="1">
-        <v>10263.0</v>
+        <v>90185.0</v>
       </c>
       <c r="AK70" s="1">
-        <v>51315.0</v>
+        <v>450925.0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -12246,7 +12252,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>5132.0</v>
+        <v>62751.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -12289,10 +12295,10 @@
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="1">
-        <v>5132.0</v>
+        <v>62751.0</v>
       </c>
       <c r="AK71" s="1">
-        <v>25660.0</v>
+        <v>313755.0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -12310,7 +12316,9 @@
       <c r="B72" s="5">
         <v>82</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="5">
+        <v>62751.0</v>
+      </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
         <v>180000.0</v>
@@ -12352,17 +12360,19 @@
       </c>
       <c r="AI72" s="16"/>
       <c r="AJ72" s="5">
-        <v>0</v>
+        <v>62751.0</v>
       </c>
       <c r="AK72" s="5">
-        <v>0</v>
+        <v>313755.0</v>
       </c>
       <c r="AL72" s="5">
         <v>0</v>
       </c>
       <c r="AM72" s="5"/>
       <c r="AN72" s="16"/>
-      <c r="AO72" s="15"/>
+      <c r="AO72" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="73" spans="1:41">
       <c r="B73" s="1"/>
@@ -12763,7 +12773,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -12771,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -12783,7 +12793,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -13163,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="AO8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -13196,10 +13206,10 @@
         <v>1520000.0</v>
       </c>
       <c r="S9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="T9" s="8">
-        <v>1520000.0</v>
+        <v>1515000.0</v>
       </c>
       <c r="U9" s="8">
         <v>1212000.0</v>
@@ -13219,14 +13229,16 @@
         <v>1520000.0</v>
       </c>
       <c r="AB9" s="8">
-        <v>0</v>
+        <v>5000.0</v>
       </c>
       <c r="AC9" s="8">
         <v>0</v>
       </c>
-      <c r="AD9" s="9"/>
+      <c r="AD9" s="9">
+        <v>0.3784</v>
+      </c>
       <c r="AE9" s="8">
-        <v>48640.0</v>
+        <v>96960.0</v>
       </c>
       <c r="AF9" s="9">
         <v>0.032</v>
@@ -13245,14 +13257,14 @@
         <v>0</v>
       </c>
       <c r="AL9" s="8">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM9" s="8"/>
       <c r="AN9" s="9">
         <v>1</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -13285,10 +13297,10 @@
         <v>1530000.0</v>
       </c>
       <c r="S10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="T10" s="1">
-        <v>1530000.0</v>
+        <v>1520000.0</v>
       </c>
       <c r="U10" s="6">
         <v>1220000.0</v>
@@ -13308,14 +13320,16 @@
         <v>1530000.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>10000.0</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE10" s="1">
-        <v>33660.0</v>
+        <v>130620.0</v>
       </c>
       <c r="AF10" s="2">
         <v>0.022</v>
@@ -13334,14 +13348,14 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="2">
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -13374,10 +13388,10 @@
         <v>1540000.0</v>
       </c>
       <c r="S11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="T11" s="1">
-        <v>1540000.0</v>
+        <v>1525000.0</v>
       </c>
       <c r="U11" s="6">
         <v>1228000.0</v>
@@ -13397,14 +13411,16 @@
         <v>1540000.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>15000.0</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="2"/>
+      <c r="AD11" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE11" s="1">
-        <v>33880.0</v>
+        <v>164500.0</v>
       </c>
       <c r="AF11" s="2">
         <v>0.022</v>
@@ -13423,14 +13439,14 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="2">
         <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -13463,10 +13479,10 @@
         <v>1550000.0</v>
       </c>
       <c r="S12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="T12" s="1">
-        <v>1550000.0</v>
+        <v>1530000.0</v>
       </c>
       <c r="U12" s="6">
         <v>1236000.0</v>
@@ -13486,14 +13502,16 @@
         <v>1550000.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>20000.0</v>
       </c>
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE12" s="1">
-        <v>34100.0</v>
+        <v>198600.0</v>
       </c>
       <c r="AF12" s="2">
         <v>0.022</v>
@@ -13512,14 +13530,14 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="2">
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -13552,10 +13570,10 @@
         <v>1560000.0</v>
       </c>
       <c r="S13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T13" s="1">
-        <v>1560000.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U13" s="6">
         <v>1244000.0</v>
@@ -13575,14 +13593,16 @@
         <v>1560000.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>25000.0</v>
       </c>
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-      <c r="AD13" s="2"/>
+      <c r="AD13" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE13" s="1">
-        <v>34320.0</v>
+        <v>232920.0</v>
       </c>
       <c r="AF13" s="2">
         <v>0.022</v>
@@ -13601,14 +13621,14 @@
         <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="2">
         <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -13641,10 +13661,10 @@
         <v>1570000.0</v>
       </c>
       <c r="S14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="T14" s="1">
-        <v>1570000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="U14" s="6">
         <v>1252000.0</v>
@@ -13664,14 +13684,16 @@
         <v>1570000.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>30000.0</v>
       </c>
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="2"/>
+      <c r="AD14" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE14" s="1">
-        <v>34540.0</v>
+        <v>267460.0</v>
       </c>
       <c r="AF14" s="2">
         <v>0.022</v>
@@ -13690,14 +13712,14 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="2">
         <v>1</v>
       </c>
       <c r="AO14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -13730,10 +13752,10 @@
         <v>1580000.0</v>
       </c>
       <c r="S15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="T15" s="1">
-        <v>1580000.0</v>
+        <v>1545000.0</v>
       </c>
       <c r="U15" s="6">
         <v>1260000.0</v>
@@ -13753,14 +13775,16 @@
         <v>1580000.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>35000.0</v>
       </c>
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="2"/>
+      <c r="AD15" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE15" s="1">
-        <v>34760.0</v>
+        <v>302220.0</v>
       </c>
       <c r="AF15" s="2">
         <v>0.022</v>
@@ -13779,14 +13803,14 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="2">
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -13819,10 +13843,10 @@
         <v>1590000.0</v>
       </c>
       <c r="S16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="T16" s="1">
-        <v>1590000.0</v>
+        <v>1550000.0</v>
       </c>
       <c r="U16" s="6">
         <v>1268000.0</v>
@@ -13842,14 +13866,16 @@
         <v>1590000.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>40000.0</v>
       </c>
       <c r="AC16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="2"/>
+      <c r="AD16" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE16" s="1">
-        <v>34980.0</v>
+        <v>337200.0</v>
       </c>
       <c r="AF16" s="2">
         <v>0.022</v>
@@ -13868,14 +13894,14 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="2">
         <v>1</v>
       </c>
       <c r="AO16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -13908,10 +13934,10 @@
         <v>1600000.0</v>
       </c>
       <c r="S17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="T17" s="1">
-        <v>1600000.0</v>
+        <v>1555000.0</v>
       </c>
       <c r="U17" s="6">
         <v>1276000.0</v>
@@ -13931,14 +13957,16 @@
         <v>1600000.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>45000.0</v>
       </c>
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="2"/>
+      <c r="AD17" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE17" s="1">
-        <v>35200.0</v>
+        <v>372400.0</v>
       </c>
       <c r="AF17" s="2">
         <v>0.022</v>
@@ -13957,14 +13985,14 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="2">
         <v>1</v>
       </c>
       <c r="AO17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -13997,10 +14025,10 @@
         <v>1610000.0</v>
       </c>
       <c r="S18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>1610000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="U18" s="6">
         <v>1284000.0</v>
@@ -14020,14 +14048,16 @@
         <v>1610000.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="AC18" s="1">
         <v>0</v>
       </c>
-      <c r="AD18" s="2"/>
+      <c r="AD18" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE18" s="1">
-        <v>35420.0</v>
+        <v>407820.0</v>
       </c>
       <c r="AF18" s="2">
         <v>0.022</v>
@@ -14046,14 +14076,14 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="2">
         <v>1</v>
       </c>
       <c r="AO18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -14086,10 +14116,10 @@
         <v>1620000.0</v>
       </c>
       <c r="S19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="T19" s="1">
-        <v>1620000.0</v>
+        <v>1565000.0</v>
       </c>
       <c r="U19" s="6">
         <v>1292000.0</v>
@@ -14109,14 +14139,16 @@
         <v>1620000.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>55000.0</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
       </c>
-      <c r="AD19" s="2"/>
+      <c r="AD19" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE19" s="1">
-        <v>35640.0</v>
+        <v>443460.0</v>
       </c>
       <c r="AF19" s="2">
         <v>0.022</v>
@@ -14135,14 +14167,14 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="2">
         <v>1</v>
       </c>
       <c r="AO19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -14175,10 +14207,10 @@
         <v>1630000.0</v>
       </c>
       <c r="S20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>1630000.0</v>
+        <v>1570000.0</v>
       </c>
       <c r="U20" s="6">
         <v>1300000.0</v>
@@ -14198,14 +14230,16 @@
         <v>1630000.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>60000.0</v>
       </c>
       <c r="AC20" s="1">
         <v>0</v>
       </c>
-      <c r="AD20" s="2"/>
+      <c r="AD20" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE20" s="1">
-        <v>35860.0</v>
+        <v>479320.0</v>
       </c>
       <c r="AF20" s="2">
         <v>0.022</v>
@@ -14224,14 +14258,14 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2">
         <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -14264,10 +14298,10 @@
         <v>1640000.0</v>
       </c>
       <c r="S21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>1640000.0</v>
+        <v>1575000.0</v>
       </c>
       <c r="U21" s="6">
         <v>1308000.0</v>
@@ -14287,14 +14321,16 @@
         <v>1640000.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>65000.0</v>
       </c>
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="2"/>
+      <c r="AD21" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE21" s="1">
-        <v>36080.0</v>
+        <v>515400.0</v>
       </c>
       <c r="AF21" s="2">
         <v>0.022</v>
@@ -14313,14 +14349,14 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2">
         <v>1</v>
       </c>
       <c r="AO21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -14353,10 +14389,10 @@
         <v>1650000.0</v>
       </c>
       <c r="S22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>1650000.0</v>
+        <v>1580000.0</v>
       </c>
       <c r="U22" s="6">
         <v>1316000.0</v>
@@ -14376,14 +14412,16 @@
         <v>1650000.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>70000.0</v>
       </c>
       <c r="AC22" s="1">
         <v>0</v>
       </c>
-      <c r="AD22" s="2"/>
+      <c r="AD22" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE22" s="1">
-        <v>36300.0</v>
+        <v>551700.0</v>
       </c>
       <c r="AF22" s="2">
         <v>0.022</v>
@@ -14402,14 +14440,14 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2">
         <v>1</v>
       </c>
       <c r="AO22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -14442,10 +14480,10 @@
         <v>1660000.0</v>
       </c>
       <c r="S23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>1660000.0</v>
+        <v>1585000.0</v>
       </c>
       <c r="U23" s="6">
         <v>1324000.0</v>
@@ -14465,14 +14503,16 @@
         <v>1660000.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>75000.0</v>
       </c>
       <c r="AC23" s="1">
         <v>0</v>
       </c>
-      <c r="AD23" s="2"/>
+      <c r="AD23" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE23" s="1">
-        <v>36520.0</v>
+        <v>588220.0</v>
       </c>
       <c r="AF23" s="2">
         <v>0.022</v>
@@ -14491,14 +14531,14 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2">
         <v>1</v>
       </c>
       <c r="AO23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -14531,10 +14571,10 @@
         <v>1670000.0</v>
       </c>
       <c r="S24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>1670000.0</v>
+        <v>1590000.0</v>
       </c>
       <c r="U24" s="6">
         <v>1332000.0</v>
@@ -14554,14 +14594,16 @@
         <v>1670000.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>80000.0</v>
       </c>
       <c r="AC24" s="1">
         <v>0</v>
       </c>
-      <c r="AD24" s="2"/>
+      <c r="AD24" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE24" s="1">
-        <v>36740.0</v>
+        <v>624960.0</v>
       </c>
       <c r="AF24" s="2">
         <v>0.022</v>
@@ -14580,14 +14622,14 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2">
         <v>1</v>
       </c>
       <c r="AO24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -14620,10 +14662,10 @@
         <v>1680000.0</v>
       </c>
       <c r="S25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>1680000.0</v>
+        <v>1595000.0</v>
       </c>
       <c r="U25" s="6">
         <v>1340000.0</v>
@@ -14643,14 +14685,16 @@
         <v>1680000.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>85000.0</v>
       </c>
       <c r="AC25" s="1">
         <v>0</v>
       </c>
-      <c r="AD25" s="2"/>
+      <c r="AD25" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE25" s="1">
-        <v>36960.0</v>
+        <v>661920.0</v>
       </c>
       <c r="AF25" s="2">
         <v>0.022</v>
@@ -14669,14 +14713,14 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2">
         <v>1</v>
       </c>
       <c r="AO25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -14709,10 +14753,10 @@
         <v>1690000.0</v>
       </c>
       <c r="S26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>1690000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="U26" s="6">
         <v>1348000.0</v>
@@ -14732,14 +14776,16 @@
         <v>1690000.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>90000.0</v>
       </c>
       <c r="AC26" s="1">
         <v>0</v>
       </c>
-      <c r="AD26" s="2"/>
+      <c r="AD26" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE26" s="1">
-        <v>37180.0</v>
+        <v>699100.0</v>
       </c>
       <c r="AF26" s="2">
         <v>0.022</v>
@@ -14758,14 +14804,14 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2">
         <v>1</v>
       </c>
       <c r="AO26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -14798,10 +14844,10 @@
         <v>1700000.0</v>
       </c>
       <c r="S27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>1700000.0</v>
+        <v>1605000.0</v>
       </c>
       <c r="U27" s="6">
         <v>1356000.0</v>
@@ -14821,14 +14867,16 @@
         <v>1700000.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>95000.0</v>
       </c>
       <c r="AC27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="2"/>
+      <c r="AD27" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE27" s="1">
-        <v>37400.0</v>
+        <v>736500.0</v>
       </c>
       <c r="AF27" s="2">
         <v>0.022</v>
@@ -14847,14 +14895,14 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2">
         <v>1</v>
       </c>
       <c r="AO27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -14887,10 +14935,10 @@
         <v>1710000.0</v>
       </c>
       <c r="S28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>1710000.0</v>
+        <v>1610000.0</v>
       </c>
       <c r="U28" s="6">
         <v>1364000.0</v>
@@ -14910,14 +14958,16 @@
         <v>1710000.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>100000.0</v>
       </c>
       <c r="AC28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="2"/>
+      <c r="AD28" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE28" s="1">
-        <v>37620.0</v>
+        <v>774120.0</v>
       </c>
       <c r="AF28" s="2">
         <v>0.022</v>
@@ -14936,14 +14986,14 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2">
         <v>1</v>
       </c>
       <c r="AO28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -14976,10 +15026,10 @@
         <v>1720000.0</v>
       </c>
       <c r="S29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>1720000.0</v>
+        <v>1615000.0</v>
       </c>
       <c r="U29" s="6">
         <v>1372000.0</v>
@@ -14999,14 +15049,16 @@
         <v>1720000.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>105000.0</v>
       </c>
       <c r="AC29" s="1">
         <v>0</v>
       </c>
-      <c r="AD29" s="2"/>
+      <c r="AD29" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE29" s="1">
-        <v>37840.0</v>
+        <v>811960.0</v>
       </c>
       <c r="AF29" s="2">
         <v>0.022</v>
@@ -15025,14 +15077,14 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2">
         <v>1</v>
       </c>
       <c r="AO29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -15065,10 +15117,10 @@
         <v>1730000.0</v>
       </c>
       <c r="S30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>1730000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="U30" s="6">
         <v>1380000.0</v>
@@ -15088,14 +15140,16 @@
         <v>1730000.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>110000.0</v>
       </c>
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="2"/>
+      <c r="AD30" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE30" s="1">
-        <v>38060.0</v>
+        <v>850020.0</v>
       </c>
       <c r="AF30" s="2">
         <v>0.022</v>
@@ -15114,14 +15168,14 @@
         <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="2">
         <v>1</v>
       </c>
       <c r="AO30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -15154,10 +15208,10 @@
         <v>1740000.0</v>
       </c>
       <c r="S31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>1740000.0</v>
+        <v>1625000.0</v>
       </c>
       <c r="U31" s="6">
         <v>1388000.0</v>
@@ -15177,14 +15231,16 @@
         <v>1740000.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>115000.0</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
       </c>
-      <c r="AD31" s="2"/>
+      <c r="AD31" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE31" s="1">
-        <v>38280.0</v>
+        <v>888300.0</v>
       </c>
       <c r="AF31" s="2">
         <v>0.022</v>
@@ -15203,14 +15259,14 @@
         <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="2">
         <v>1</v>
       </c>
       <c r="AO31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -15243,10 +15299,10 @@
         <v>1750000.0</v>
       </c>
       <c r="S32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>1750000.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="U32" s="6">
         <v>1396000.0</v>
@@ -15266,14 +15322,16 @@
         <v>1750000.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>120000.0</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
-      <c r="AD32" s="2"/>
+      <c r="AD32" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE32" s="1">
-        <v>38500.0</v>
+        <v>926800.0</v>
       </c>
       <c r="AF32" s="2">
         <v>0.022</v>
@@ -15292,14 +15350,14 @@
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="2">
         <v>1</v>
       </c>
       <c r="AO32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -15332,10 +15390,10 @@
         <v>1760000.0</v>
       </c>
       <c r="S33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>1760000.0</v>
+        <v>1635000.0</v>
       </c>
       <c r="U33" s="6">
         <v>1404000.0</v>
@@ -15355,14 +15413,16 @@
         <v>1760000.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>125000.0</v>
       </c>
       <c r="AC33" s="1">
         <v>0</v>
       </c>
-      <c r="AD33" s="2"/>
+      <c r="AD33" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE33" s="1">
-        <v>38720.0</v>
+        <v>965520.0</v>
       </c>
       <c r="AF33" s="2">
         <v>0.022</v>
@@ -15381,14 +15441,14 @@
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="2">
         <v>1</v>
       </c>
       <c r="AO33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -15421,10 +15481,10 @@
         <v>1770000.0</v>
       </c>
       <c r="S34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>1770000.0</v>
+        <v>1640000.0</v>
       </c>
       <c r="U34" s="6">
         <v>1412000.0</v>
@@ -15444,14 +15504,16 @@
         <v>1770000.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>130000.0</v>
       </c>
       <c r="AC34" s="1">
         <v>0</v>
       </c>
-      <c r="AD34" s="2"/>
+      <c r="AD34" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE34" s="1">
-        <v>38940.0</v>
+        <v>1004460.0</v>
       </c>
       <c r="AF34" s="2">
         <v>0.022</v>
@@ -15470,14 +15532,14 @@
         <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="2">
         <v>1</v>
       </c>
       <c r="AO34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -15510,10 +15572,10 @@
         <v>1780000.0</v>
       </c>
       <c r="S35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>1780000.0</v>
+        <v>1645000.0</v>
       </c>
       <c r="U35" s="6">
         <v>1420000.0</v>
@@ -15533,14 +15595,16 @@
         <v>1780000.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>135000.0</v>
       </c>
       <c r="AC35" s="1">
         <v>0</v>
       </c>
-      <c r="AD35" s="2"/>
+      <c r="AD35" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE35" s="1">
-        <v>39160.0</v>
+        <v>1043620.0</v>
       </c>
       <c r="AF35" s="2">
         <v>0.022</v>
@@ -15559,14 +15623,14 @@
         <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="2">
         <v>1</v>
       </c>
       <c r="AO35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -15599,10 +15663,10 @@
         <v>1790000.0</v>
       </c>
       <c r="S36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>1790000.0</v>
+        <v>1650000.0</v>
       </c>
       <c r="U36" s="6">
         <v>1428000.0</v>
@@ -15622,14 +15686,16 @@
         <v>1790000.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>140000.0</v>
       </c>
       <c r="AC36" s="1">
         <v>0</v>
       </c>
-      <c r="AD36" s="2"/>
+      <c r="AD36" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE36" s="1">
-        <v>39380.0</v>
+        <v>1083000.0</v>
       </c>
       <c r="AF36" s="2">
         <v>0.022</v>
@@ -15648,14 +15714,14 @@
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="2">
         <v>1</v>
       </c>
       <c r="AO36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -15688,10 +15754,10 @@
         <v>1800000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>1800000.0</v>
+        <v>1655000.0</v>
       </c>
       <c r="U37" s="6">
         <v>1436000.0</v>
@@ -15711,14 +15777,16 @@
         <v>1800000.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>145000.0</v>
       </c>
       <c r="AC37" s="1">
         <v>0</v>
       </c>
-      <c r="AD37" s="2"/>
+      <c r="AD37" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE37" s="1">
-        <v>39600.0</v>
+        <v>1122600.0</v>
       </c>
       <c r="AF37" s="2">
         <v>0.022</v>
@@ -15737,14 +15805,14 @@
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="2">
         <v>1</v>
       </c>
       <c r="AO37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -15777,10 +15845,10 @@
         <v>1810000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>1810000.0</v>
+        <v>1660000.0</v>
       </c>
       <c r="U38" s="6">
         <v>1444000.0</v>
@@ -15800,14 +15868,16 @@
         <v>1810000.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>150000.0</v>
       </c>
       <c r="AC38" s="1">
         <v>0</v>
       </c>
-      <c r="AD38" s="2"/>
+      <c r="AD38" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE38" s="1">
-        <v>39820.0</v>
+        <v>1162420.0</v>
       </c>
       <c r="AF38" s="2">
         <v>0.022</v>
@@ -15826,14 +15896,14 @@
         <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="2">
         <v>1</v>
       </c>
       <c r="AO38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -15866,10 +15936,10 @@
         <v>1820000.0</v>
       </c>
       <c r="S39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>1820000.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="U39" s="6">
         <v>1452000.0</v>
@@ -15889,14 +15959,16 @@
         <v>1820000.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>0</v>
+        <v>155000.0</v>
       </c>
       <c r="AC39" s="1">
         <v>0</v>
       </c>
-      <c r="AD39" s="2"/>
+      <c r="AD39" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE39" s="1">
-        <v>40040.0</v>
+        <v>1202460.0</v>
       </c>
       <c r="AF39" s="2">
         <v>0.022</v>
@@ -15915,14 +15987,14 @@
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="2">
         <v>1</v>
       </c>
       <c r="AO39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -15955,10 +16027,10 @@
         <v>1830000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>1830000.0</v>
+        <v>1670000.0</v>
       </c>
       <c r="U40" s="11">
         <v>1460000.0</v>
@@ -15978,14 +16050,16 @@
         <v>1830000.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>160000.0</v>
       </c>
       <c r="AC40" s="11">
         <v>0</v>
       </c>
-      <c r="AD40" s="12"/>
+      <c r="AD40" s="12">
+        <v>0.3784</v>
+      </c>
       <c r="AE40" s="11">
-        <v>40260.0</v>
+        <v>1242720.0</v>
       </c>
       <c r="AF40" s="12">
         <v>0.022</v>
@@ -16004,14 +16078,14 @@
         <v>0</v>
       </c>
       <c r="AL40" s="11">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM40" s="11"/>
       <c r="AN40" s="12">
         <v>1</v>
       </c>
       <c r="AO40" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -16044,10 +16118,10 @@
         <v>1840000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>1840000.0</v>
+        <v>1675000.0</v>
       </c>
       <c r="U41" s="6">
         <v>1468000.0</v>
@@ -16067,14 +16141,16 @@
         <v>1840000.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>165000.0</v>
       </c>
       <c r="AC41" s="1">
         <v>0</v>
       </c>
-      <c r="AD41" s="2"/>
+      <c r="AD41" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE41" s="1">
-        <v>40480.0</v>
+        <v>1283200.0</v>
       </c>
       <c r="AF41" s="2">
         <v>0.022</v>
@@ -16093,14 +16169,14 @@
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="2">
         <v>1</v>
       </c>
       <c r="AO41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -16133,10 +16209,10 @@
         <v>1850000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>1850000.0</v>
+        <v>1680000.0</v>
       </c>
       <c r="U42" s="6">
         <v>1476000.0</v>
@@ -16156,14 +16232,16 @@
         <v>1850000.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>170000.0</v>
       </c>
       <c r="AC42" s="1">
         <v>0</v>
       </c>
-      <c r="AD42" s="2"/>
+      <c r="AD42" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE42" s="1">
-        <v>40700.0</v>
+        <v>1323900.0</v>
       </c>
       <c r="AF42" s="2">
         <v>0.022</v>
@@ -16182,14 +16260,14 @@
         <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="2">
         <v>1</v>
       </c>
       <c r="AO42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -16222,10 +16300,10 @@
         <v>1860000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>1860000.0</v>
+        <v>1685000.0</v>
       </c>
       <c r="U43" s="6">
         <v>1484000.0</v>
@@ -16245,14 +16323,16 @@
         <v>1860000.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>175000.0</v>
       </c>
       <c r="AC43" s="1">
         <v>0</v>
       </c>
-      <c r="AD43" s="2"/>
+      <c r="AD43" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE43" s="1">
-        <v>40920.0</v>
+        <v>1364820.0</v>
       </c>
       <c r="AF43" s="2">
         <v>0.022</v>
@@ -16271,14 +16351,14 @@
         <v>0</v>
       </c>
       <c r="AL43" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="2">
         <v>1</v>
       </c>
       <c r="AO43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -16311,10 +16391,10 @@
         <v>1870000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>1870000.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="U44" s="6">
         <v>1492000.0</v>
@@ -16334,14 +16414,16 @@
         <v>1870000.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="AC44" s="1">
         <v>0</v>
       </c>
-      <c r="AD44" s="2"/>
+      <c r="AD44" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE44" s="1">
-        <v>41140.0</v>
+        <v>1405960.0</v>
       </c>
       <c r="AF44" s="2">
         <v>0.022</v>
@@ -16360,14 +16442,14 @@
         <v>0</v>
       </c>
       <c r="AL44" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM44" s="1"/>
       <c r="AN44" s="2">
         <v>1</v>
       </c>
       <c r="AO44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -16400,10 +16482,10 @@
         <v>1880000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>1880000.0</v>
+        <v>1695000.0</v>
       </c>
       <c r="U45" s="6">
         <v>1500000.0</v>
@@ -16423,14 +16505,16 @@
         <v>1880000.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>185000.0</v>
       </c>
       <c r="AC45" s="1">
         <v>0</v>
       </c>
-      <c r="AD45" s="2"/>
+      <c r="AD45" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE45" s="1">
-        <v>41360.0</v>
+        <v>1447320.0</v>
       </c>
       <c r="AF45" s="2">
         <v>0.022</v>
@@ -16449,14 +16533,14 @@
         <v>0</v>
       </c>
       <c r="AL45" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="2">
         <v>1</v>
       </c>
       <c r="AO45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -16489,10 +16573,10 @@
         <v>1890000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>1890000.0</v>
+        <v>1700000.0</v>
       </c>
       <c r="U46" s="6">
         <v>1508000.0</v>
@@ -16512,14 +16596,16 @@
         <v>1890000.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>190000.0</v>
       </c>
       <c r="AC46" s="1">
         <v>0</v>
       </c>
-      <c r="AD46" s="2"/>
+      <c r="AD46" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE46" s="1">
-        <v>41580.0</v>
+        <v>1488900.0</v>
       </c>
       <c r="AF46" s="2">
         <v>0.022</v>
@@ -16538,14 +16624,14 @@
         <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM46" s="1"/>
       <c r="AN46" s="2">
         <v>1</v>
       </c>
       <c r="AO46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -16578,10 +16664,10 @@
         <v>1900000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>1900000.0</v>
+        <v>1705000.0</v>
       </c>
       <c r="U47" s="6">
         <v>1516000.0</v>
@@ -16601,14 +16687,16 @@
         <v>1900000.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>195000.0</v>
       </c>
       <c r="AC47" s="1">
         <v>0</v>
       </c>
-      <c r="AD47" s="2"/>
+      <c r="AD47" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE47" s="1">
-        <v>41800.0</v>
+        <v>1530700.0</v>
       </c>
       <c r="AF47" s="2">
         <v>0.022</v>
@@ -16627,14 +16715,14 @@
         <v>0</v>
       </c>
       <c r="AL47" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM47" s="1"/>
       <c r="AN47" s="2">
         <v>1</v>
       </c>
       <c r="AO47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -16667,10 +16755,10 @@
         <v>1910000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>1910000.0</v>
+        <v>1710000.0</v>
       </c>
       <c r="U48" s="6">
         <v>1524000.0</v>
@@ -16690,14 +16778,16 @@
         <v>1910000.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>200000.0</v>
       </c>
       <c r="AC48" s="1">
         <v>0</v>
       </c>
-      <c r="AD48" s="2"/>
+      <c r="AD48" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE48" s="1">
-        <v>42020.0</v>
+        <v>1572720.0</v>
       </c>
       <c r="AF48" s="2">
         <v>0.022</v>
@@ -16716,14 +16806,14 @@
         <v>0</v>
       </c>
       <c r="AL48" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM48" s="1"/>
       <c r="AN48" s="2">
         <v>1</v>
       </c>
       <c r="AO48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -16756,10 +16846,10 @@
         <v>1920000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>1920000.0</v>
+        <v>1715000.0</v>
       </c>
       <c r="U49" s="6">
         <v>1532000.0</v>
@@ -16779,14 +16869,16 @@
         <v>1920000.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>205000.0</v>
       </c>
       <c r="AC49" s="1">
         <v>0</v>
       </c>
-      <c r="AD49" s="2"/>
+      <c r="AD49" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE49" s="1">
-        <v>42240.0</v>
+        <v>1614960.0</v>
       </c>
       <c r="AF49" s="2">
         <v>0.022</v>
@@ -16805,14 +16897,14 @@
         <v>0</v>
       </c>
       <c r="AL49" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM49" s="1"/>
       <c r="AN49" s="2">
         <v>1</v>
       </c>
       <c r="AO49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -16845,10 +16937,10 @@
         <v>1930000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>1930000.0</v>
+        <v>1720000.0</v>
       </c>
       <c r="U50" s="6">
         <v>1540000.0</v>
@@ -16868,14 +16960,16 @@
         <v>1930000.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>210000.0</v>
       </c>
       <c r="AC50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50" s="2"/>
+      <c r="AD50" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE50" s="1">
-        <v>42460.0</v>
+        <v>1657420.0</v>
       </c>
       <c r="AF50" s="2">
         <v>0.022</v>
@@ -16894,14 +16988,14 @@
         <v>0</v>
       </c>
       <c r="AL50" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AN50" s="2">
         <v>1</v>
       </c>
       <c r="AO50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -16934,10 +17028,10 @@
         <v>1940000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>1940000.0</v>
+        <v>1725000.0</v>
       </c>
       <c r="U51" s="6">
         <v>1548000.0</v>
@@ -16957,14 +17051,16 @@
         <v>1940000.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>215000.0</v>
       </c>
       <c r="AC51" s="1">
         <v>0</v>
       </c>
-      <c r="AD51" s="2"/>
+      <c r="AD51" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE51" s="1">
-        <v>42680.0</v>
+        <v>1700100.0</v>
       </c>
       <c r="AF51" s="2">
         <v>0.022</v>
@@ -16983,14 +17079,14 @@
         <v>0</v>
       </c>
       <c r="AL51" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AN51" s="2">
         <v>1</v>
       </c>
       <c r="AO51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -17023,10 +17119,10 @@
         <v>1950000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>1950000.0</v>
+        <v>1730000.0</v>
       </c>
       <c r="U52" s="6">
         <v>1556000.0</v>
@@ -17046,14 +17142,16 @@
         <v>1950000.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC52" s="1">
         <v>0</v>
       </c>
-      <c r="AD52" s="2"/>
+      <c r="AD52" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE52" s="1">
-        <v>42900.0</v>
+        <v>1743000.0</v>
       </c>
       <c r="AF52" s="2">
         <v>0.022</v>
@@ -17072,14 +17170,14 @@
         <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AN52" s="2">
         <v>1</v>
       </c>
       <c r="AO52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -17105,20 +17203,20 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>1755000.0</v>
+        <v>1852500.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>1755000.0</v>
+        <v>1852500.0</v>
       </c>
       <c r="S53" s="13">
-        <v>1755000.0</v>
+        <v>1632500.0</v>
       </c>
       <c r="T53" s="13">
-        <v>1755000.0</v>
+        <v>1632500.0</v>
       </c>
       <c r="U53" s="13">
-        <v>1482000.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="V53" s="14">
         <v>0.8</v>
@@ -17132,17 +17230,19 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>1755000.0</v>
+        <v>1852500.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC53" s="13">
         <v>0</v>
       </c>
-      <c r="AD53" s="14"/>
+      <c r="AD53" s="14">
+        <v>0.3784</v>
+      </c>
       <c r="AE53" s="13">
-        <v>38610.0</v>
+        <v>1783755.0</v>
       </c>
       <c r="AF53" s="14">
         <v>0.022</v>
@@ -17161,12 +17261,12 @@
         <v>0</v>
       </c>
       <c r="AL53" s="13">
-        <v>-195000.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM53" s="13"/>
       <c r="AN53" s="14"/>
       <c r="AO53" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -17192,20 +17292,20 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>1570264.0</v>
+        <v>1755000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>1570264.0</v>
+        <v>1755000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>1570264.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>1570264.0</v>
+        <v>1535000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>1330105.6</v>
+        <v>1482000.0</v>
       </c>
       <c r="V54" s="2">
         <v>0.8</v>
@@ -17219,17 +17319,19 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>1570264.0</v>
+        <v>1755000.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC54" s="1">
         <v>0</v>
       </c>
-      <c r="AD54" s="2"/>
+      <c r="AD54" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE54" s="1">
-        <v>34545.808</v>
+        <v>1822365.0</v>
       </c>
       <c r="AF54" s="2">
         <v>0.022</v>
@@ -17248,12 +17350,12 @@
         <v>0</v>
       </c>
       <c r="AL54" s="1">
-        <v>-184736.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM54" s="1"/>
       <c r="AN54" s="2"/>
       <c r="AO54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -17279,20 +17381,20 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>1395790.0</v>
+        <v>1657500.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>1395790.0</v>
+        <v>1657500.0</v>
       </c>
       <c r="S55" s="1">
-        <v>1395790.0</v>
+        <v>1437500.0</v>
       </c>
       <c r="T55" s="1">
-        <v>1395790.0</v>
+        <v>1437500.0</v>
       </c>
       <c r="U55" s="6">
-        <v>1186421.6</v>
+        <v>1404000.0</v>
       </c>
       <c r="V55" s="2">
         <v>0.8</v>
@@ -17306,17 +17408,19 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>1395790.0</v>
+        <v>1657500.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC55" s="1">
         <v>0</v>
       </c>
-      <c r="AD55" s="2"/>
+      <c r="AD55" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE55" s="1">
-        <v>30707.38</v>
+        <v>1858830.0</v>
       </c>
       <c r="AF55" s="2">
         <v>0.022</v>
@@ -17335,12 +17439,12 @@
         <v>0</v>
       </c>
       <c r="AL55" s="1">
-        <v>-174474.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM55" s="1"/>
       <c r="AN55" s="2"/>
       <c r="AO55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -17366,20 +17470,20 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>1231580.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>1231580.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>1231580.0</v>
+        <v>1340000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>1231580.0</v>
+        <v>1340000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>1050948.0</v>
+        <v>1326000.0</v>
       </c>
       <c r="V56" s="2">
         <v>0.8</v>
@@ -17393,17 +17497,19 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>1231580.0</v>
+        <v>1560000.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC56" s="1">
         <v>0</v>
       </c>
-      <c r="AD56" s="2"/>
+      <c r="AD56" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE56" s="1">
-        <v>27094.76</v>
+        <v>1893150.0</v>
       </c>
       <c r="AF56" s="2">
         <v>0.022</v>
@@ -17422,12 +17528,12 @@
         <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>-164210.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AN56" s="2"/>
       <c r="AO56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -17453,20 +17559,20 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>1077632.0</v>
+        <v>1462500.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>1077632.0</v>
+        <v>1462500.0</v>
       </c>
       <c r="S57" s="13">
-        <v>1077632.0</v>
+        <v>1242500.0</v>
       </c>
       <c r="T57" s="13">
-        <v>1077632.0</v>
+        <v>1242500.0</v>
       </c>
       <c r="U57" s="13">
-        <v>923684.8</v>
+        <v>1248000.0</v>
       </c>
       <c r="V57" s="14">
         <v>0.8</v>
@@ -17480,17 +17586,19 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>1077632.0</v>
+        <v>1462500.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC57" s="13">
         <v>0</v>
       </c>
-      <c r="AD57" s="14"/>
+      <c r="AD57" s="14">
+        <v>0.3784</v>
+      </c>
       <c r="AE57" s="13">
-        <v>23707.904</v>
+        <v>1925325.0</v>
       </c>
       <c r="AF57" s="14">
         <v>0.022</v>
@@ -17509,12 +17617,12 @@
         <v>0</v>
       </c>
       <c r="AL57" s="13">
-        <v>-153948.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM57" s="13"/>
       <c r="AN57" s="14"/>
       <c r="AO57" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -17540,20 +17648,20 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>933948.0</v>
+        <v>1365000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>933948.0</v>
+        <v>1365000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>933948.0</v>
+        <v>1145000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>933948.0</v>
+        <v>1145000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>804632.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="V58" s="2">
         <v>0.8</v>
@@ -17567,17 +17675,19 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>933948.0</v>
+        <v>1365000.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC58" s="1">
         <v>0</v>
       </c>
-      <c r="AD58" s="2"/>
+      <c r="AD58" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE58" s="1">
-        <v>20546.856</v>
+        <v>1955355.0</v>
       </c>
       <c r="AF58" s="2">
         <v>0.022</v>
@@ -17596,12 +17706,12 @@
         <v>0</v>
       </c>
       <c r="AL58" s="1">
-        <v>-143684.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM58" s="1"/>
       <c r="AN58" s="2"/>
       <c r="AO58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -17627,20 +17737,20 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>800526.0</v>
+        <v>1267500.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>800526.0</v>
+        <v>1267500.0</v>
       </c>
       <c r="S59" s="1">
-        <v>800526.0</v>
+        <v>1047500.0</v>
       </c>
       <c r="T59" s="1">
-        <v>800526.0</v>
+        <v>1047500.0</v>
       </c>
       <c r="U59" s="6">
-        <v>693789.6</v>
+        <v>1092000.0</v>
       </c>
       <c r="V59" s="2">
         <v>0.8</v>
@@ -17654,17 +17764,19 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>800526.0</v>
+        <v>1267500.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC59" s="1">
         <v>0</v>
       </c>
-      <c r="AD59" s="2"/>
+      <c r="AD59" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE59" s="1">
-        <v>17611.572</v>
+        <v>1983240.0</v>
       </c>
       <c r="AF59" s="2">
         <v>0.022</v>
@@ -17683,12 +17795,12 @@
         <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>-133422.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM59" s="1"/>
       <c r="AN59" s="2"/>
       <c r="AO59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -17714,20 +17826,20 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>677368.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>677368.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>677368.0</v>
+        <v>950000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>677368.0</v>
+        <v>950000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>591157.6</v>
+        <v>1014000.0</v>
       </c>
       <c r="V60" s="2">
         <v>0.8</v>
@@ -17741,17 +17853,19 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>677368.0</v>
+        <v>1170000.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC60" s="1">
         <v>0</v>
       </c>
-      <c r="AD60" s="2"/>
+      <c r="AD60" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE60" s="1">
-        <v>14902.096</v>
+        <v>2008980.0</v>
       </c>
       <c r="AF60" s="2">
         <v>0.022</v>
@@ -17770,12 +17884,12 @@
         <v>0</v>
       </c>
       <c r="AL60" s="1">
-        <v>-123158.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM60" s="1"/>
       <c r="AN60" s="2"/>
       <c r="AO60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -17801,20 +17915,20 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>564474.0</v>
+        <v>1072500.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>564474.0</v>
+        <v>1072500.0</v>
       </c>
       <c r="S61" s="1">
-        <v>564474.0</v>
+        <v>852500.0</v>
       </c>
       <c r="T61" s="1">
-        <v>564474.0</v>
+        <v>852500.0</v>
       </c>
       <c r="U61" s="6">
-        <v>496736.8</v>
+        <v>936000.0</v>
       </c>
       <c r="V61" s="2">
         <v>0.8</v>
@@ -17828,17 +17942,19 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>564474.0</v>
+        <v>1072500.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC61" s="1">
         <v>0</v>
       </c>
-      <c r="AD61" s="2"/>
+      <c r="AD61" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE61" s="1">
-        <v>12418.428</v>
+        <v>2032575.0</v>
       </c>
       <c r="AF61" s="2">
         <v>0.022</v>
@@ -17857,12 +17973,12 @@
         <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>-112894.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM61" s="1"/>
       <c r="AN61" s="2"/>
       <c r="AO61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -17888,20 +18004,20 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>461842.0</v>
+        <v>975000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>461842.0</v>
+        <v>975000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>461842.0</v>
+        <v>755000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>461842.0</v>
+        <v>755000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>410526.4</v>
+        <v>858000.0</v>
       </c>
       <c r="V62" s="2">
         <v>0.8</v>
@@ -17915,17 +18031,19 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>461842.0</v>
+        <v>975000.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
-      <c r="AD62" s="2"/>
+      <c r="AD62" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE62" s="1">
-        <v>10160.524</v>
+        <v>2054025.0</v>
       </c>
       <c r="AF62" s="2">
         <v>0.022</v>
@@ -17944,12 +18062,12 @@
         <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>-102632.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM62" s="1"/>
       <c r="AN62" s="2"/>
       <c r="AO62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -17975,20 +18093,20 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>369474.0</v>
+        <v>877500.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>369474.0</v>
+        <v>877500.0</v>
       </c>
       <c r="S63" s="1">
-        <v>369474.0</v>
+        <v>657500.0</v>
       </c>
       <c r="T63" s="1">
-        <v>369474.0</v>
+        <v>657500.0</v>
       </c>
       <c r="U63" s="6">
-        <v>332526.4</v>
+        <v>780000.0</v>
       </c>
       <c r="V63" s="2">
         <v>0.8</v>
@@ -18002,17 +18120,19 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>369474.0</v>
+        <v>877500.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC63" s="1">
         <v>0</v>
       </c>
-      <c r="AD63" s="2"/>
+      <c r="AD63" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE63" s="1">
-        <v>8128.428</v>
+        <v>2073330.0</v>
       </c>
       <c r="AF63" s="2">
         <v>0.022</v>
@@ -18031,12 +18151,12 @@
         <v>0</v>
       </c>
       <c r="AL63" s="1">
-        <v>-92368.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM63" s="1"/>
       <c r="AN63" s="2"/>
       <c r="AO63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -18062,20 +18182,20 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>287368.0</v>
+        <v>780000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>287368.0</v>
+        <v>780000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>287368.0</v>
+        <v>560000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>287368.0</v>
+        <v>560000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>262736.8</v>
+        <v>702000.0</v>
       </c>
       <c r="V64" s="2">
         <v>0.8</v>
@@ -18089,17 +18209,19 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>287368.0</v>
+        <v>780000.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC64" s="1">
         <v>0</v>
       </c>
-      <c r="AD64" s="2"/>
+      <c r="AD64" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE64" s="1">
-        <v>6322.096</v>
+        <v>2090490.0</v>
       </c>
       <c r="AF64" s="2">
         <v>0.022</v>
@@ -18118,12 +18240,12 @@
         <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>-82106.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM64" s="1"/>
       <c r="AN64" s="2"/>
       <c r="AO64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -18149,20 +18271,20 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>215526.0</v>
+        <v>682500.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>215526.0</v>
+        <v>682500.0</v>
       </c>
       <c r="S65" s="1">
-        <v>215526.0</v>
+        <v>462500.0</v>
       </c>
       <c r="T65" s="1">
-        <v>215526.0</v>
+        <v>462500.0</v>
       </c>
       <c r="U65" s="6">
-        <v>201157.6</v>
+        <v>624000.0</v>
       </c>
       <c r="V65" s="2">
         <v>0.8</v>
@@ -18176,17 +18298,19 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>215526.0</v>
+        <v>682500.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65" s="2"/>
+      <c r="AD65" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE65" s="1">
-        <v>4741.572</v>
+        <v>2105505.0</v>
       </c>
       <c r="AF65" s="2">
         <v>0.022</v>
@@ -18205,12 +18329,12 @@
         <v>0</v>
       </c>
       <c r="AL65" s="1">
-        <v>-71842.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM65" s="1"/>
       <c r="AN65" s="2"/>
       <c r="AO65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -18236,20 +18360,20 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>153948.0</v>
+        <v>585000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>153948.0</v>
+        <v>585000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>153948.0</v>
+        <v>365000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>153948.0</v>
+        <v>365000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>147789.6</v>
+        <v>546000.0</v>
       </c>
       <c r="V66" s="2">
         <v>0.8</v>
@@ -18263,17 +18387,19 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>153948.0</v>
+        <v>585000.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC66" s="1">
         <v>0</v>
       </c>
-      <c r="AD66" s="2"/>
+      <c r="AD66" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE66" s="1">
-        <v>3386.856</v>
+        <v>2118375.0</v>
       </c>
       <c r="AF66" s="2">
         <v>0.022</v>
@@ -18292,12 +18418,12 @@
         <v>0</v>
       </c>
       <c r="AL66" s="1">
-        <v>-61578.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM66" s="1"/>
       <c r="AN66" s="2"/>
       <c r="AO66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -18323,20 +18449,20 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>102632.0</v>
+        <v>487500.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>102632.0</v>
+        <v>487500.0</v>
       </c>
       <c r="S67" s="1">
-        <v>102632.0</v>
+        <v>267500.0</v>
       </c>
       <c r="T67" s="1">
-        <v>102632.0</v>
+        <v>267500.0</v>
       </c>
       <c r="U67" s="6">
-        <v>102632.0</v>
+        <v>468000.0</v>
       </c>
       <c r="V67" s="2">
         <v>0.8</v>
@@ -18350,17 +18476,19 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>102632.0</v>
+        <v>487500.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC67" s="1">
         <v>0</v>
       </c>
-      <c r="AD67" s="2"/>
+      <c r="AD67" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE67" s="1">
-        <v>2257.904</v>
+        <v>2129100.0</v>
       </c>
       <c r="AF67" s="2">
         <v>0.022</v>
@@ -18379,12 +18507,12 @@
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>-51316.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM67" s="1"/>
       <c r="AN67" s="2"/>
       <c r="AO67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -18410,20 +18538,20 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>61580.0</v>
+        <v>390000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>61580.0</v>
+        <v>390000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>61580.0</v>
+        <v>170000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>61580.0</v>
+        <v>170000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>65684.8</v>
+        <v>390000.0</v>
       </c>
       <c r="V68" s="2">
         <v>0.8</v>
@@ -18437,17 +18565,19 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>61580.0</v>
+        <v>390000.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC68" s="1">
         <v>0</v>
       </c>
-      <c r="AD68" s="2"/>
+      <c r="AD68" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE68" s="1">
-        <v>1354.76</v>
+        <v>2137680.0</v>
       </c>
       <c r="AF68" s="2">
         <v>0.022</v>
@@ -18466,12 +18596,12 @@
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>-41052.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM68" s="1"/>
       <c r="AN68" s="2"/>
       <c r="AO68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -18497,20 +18627,20 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>30790.0</v>
+        <v>292500.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>30790.0</v>
+        <v>292500.0</v>
       </c>
       <c r="S69" s="1">
-        <v>30790.0</v>
+        <v>72500.0</v>
       </c>
       <c r="T69" s="1">
-        <v>30790.0</v>
+        <v>72500.0</v>
       </c>
       <c r="U69" s="6">
-        <v>36948.0</v>
+        <v>312000.0</v>
       </c>
       <c r="V69" s="2">
         <v>0.8</v>
@@ -18524,17 +18654,19 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>30790.0</v>
+        <v>292500.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC69" s="1">
         <v>0</v>
       </c>
-      <c r="AD69" s="2"/>
+      <c r="AD69" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE69" s="1">
-        <v>677.38</v>
+        <v>2144115.0</v>
       </c>
       <c r="AF69" s="2">
         <v>0.022</v>
@@ -18553,12 +18685,12 @@
         <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>-30790.0</v>
+        <v>-97500.0</v>
       </c>
       <c r="AM69" s="1"/>
       <c r="AN69" s="2"/>
       <c r="AO69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:41">
@@ -18584,20 +18716,20 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>10264.0</v>
+        <v>195000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>10264.0</v>
+        <v>195000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>10264.0</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
-        <v>10264.0</v>
+        <v>0</v>
       </c>
       <c r="U70" s="6">
-        <v>16421.6</v>
+        <v>234000.0</v>
       </c>
       <c r="V70" s="2">
         <v>0.8</v>
@@ -18611,17 +18743,19 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>10264.0</v>
+        <v>195000.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>220000.0</v>
       </c>
       <c r="AC70" s="1">
         <v>0</v>
       </c>
-      <c r="AD70" s="2"/>
+      <c r="AD70" s="2">
+        <v>0.3784</v>
+      </c>
       <c r="AE70" s="1">
-        <v>225.808</v>
+        <v>2148405.0</v>
       </c>
       <c r="AF70" s="2">
         <v>0.022</v>
@@ -18640,12 +18774,12 @@
         <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>-20526.0</v>
+        <v>-72500.0</v>
       </c>
       <c r="AM70" s="1"/>
       <c r="AN70" s="2"/>
       <c r="AO70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -18670,23 +18804,51 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="6"/>
+      <c r="P71" s="6">
+        <v>97500.0</v>
+      </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="2"/>
+      <c r="R71" s="1">
+        <v>97500.0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="6">
+        <v>156000.0</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="2"/>
+      <c r="AA71" s="1">
+        <v>97500.0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>195000.0</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>0.3784</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>2150550.0</v>
+      </c>
+      <c r="AF71" s="2">
+        <v>0.022</v>
+      </c>
       <c r="AG71" s="1">
         <v>0.0</v>
       </c>
@@ -18701,11 +18863,13 @@
         <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>-10264.0</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="1"/>
       <c r="AN71" s="2"/>
-      <c r="AO71"/>
+      <c r="AO71" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="15">
@@ -19125,10 +19289,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -19837,6 +20001,12 @@
     <row r="71" spans="1:3">
       <c r="A71">
         <v>2086</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
